--- a/test-artifacts/url-reports/broken-slugs.xlsx
+++ b/test-artifacts/url-reports/broken-slugs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,75 +421,24 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>https://dev-infostride-geneseo.pantheonsite.io/anthropology/beverly_j_rex-burley</v>
+        <v>http://localhost/sunny/anthropology/beverly_j_rex-burley</v>
       </c>
       <c r="C2" t="str">
         <v>failed</v>
       </c>
       <c r="D2">
-        <v>404</v>
+        <v>500</v>
       </c>
       <c r="E2" t="str">
-        <v>Failed after 2 attempt(s)</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="str">
-        <v>https://dev-infostride-geneseo.pantheonsite.io/biology/softball</v>
-      </c>
-      <c r="C3" t="str">
-        <v>failed</v>
-      </c>
-      <c r="D3">
-        <v>502</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Failed after 2 attempt(s)</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="str">
-        <v>https://dev-infostride-geneseo.pantheonsite.io/biophysics/what_is_biophysics</v>
-      </c>
-      <c r="C4" t="str">
-        <v>failed</v>
-      </c>
-      <c r="D4">
-        <v>502</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Failed after 2 attempt(s)</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5" t="str">
-        <v>https://dev-infostride-geneseo.pantheonsite.io/chemistry/hazardous-waste-training</v>
-      </c>
-      <c r="C5" t="str">
-        <v>failed</v>
-      </c>
-      <c r="D5">
-        <v>502</v>
-      </c>
-      <c r="E5" t="str">
         <v>Failed after 2 attempt(s)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-artifacts/url-reports/broken-slugs.xlsx
+++ b/test-artifacts/url-reports/broken-slugs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I625"/>
+  <dimension ref="A1:I621"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,7 +433,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B2" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/anthropology/beverly_j_rex-burley</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B3" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/aop/student-development-initiatives</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B4" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/aop/student-development-initiatives-2</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B6" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/art_history/community-sustainability</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B7" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/beekeeping/announcements</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B9" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/biology/course_and_event_photos</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B10" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career_development/faculty-resources</v>
@@ -774,16 +774,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B15" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/conduct/committee</v>
+        <v>http://geneseo-drupal.ddev.site:33000/conduct/information_for_families</v>
       </c>
       <c r="C15" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/conduct/committee</v>
+        <v>http://geneseo-drupal.ddev.site:33000/conduct/information_for_families</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/conduct/committee</v>
+        <v>http://geneseo-drupal.ddev.site:33000/conduct/information_for_families</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -797,19 +797,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B16" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/conduct/information_for_families</v>
+        <v>http://geneseo-drupal.ddev.site:33000/conduct/committee</v>
       </c>
       <c r="C16" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/conduct/information_for_families</v>
+        <v>http://geneseo-drupal.ddev.site:33000/conduct/committee</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/conduct/information_for_families</v>
+        <v>http://geneseo-drupal.ddev.site:33000/conduct/committee</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B17" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/conduct/level-i-conduct-review</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B18" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/conduct/related_college_policies</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B19" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/conduct/using-fraudulent-identification-it-really-worth-it</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B20" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/continuing-education/thank-you-registering-continuing-education</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B22" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/discoverycafe/contact-us</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B27" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/confined_space_entry</v>
@@ -1109,19 +1109,19 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B28" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/emergencies</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/ergonomics</v>
       </c>
       <c r="C28" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/emergencies</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/ergonomics</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/emergencies</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/ergonomics</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -1135,19 +1135,19 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B29" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/ergonomics</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/emergencies</v>
       </c>
       <c r="C29" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/ergonomics</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/emergencies</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/ergonomics</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/emergencies</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -1164,16 +1164,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B30" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/flu_planning</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/excavations</v>
       </c>
       <c r="C30" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/flu_planning</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/excavations</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/flu_planning</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/excavations</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -1190,16 +1190,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B31" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/excavations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/flu_planning</v>
       </c>
       <c r="C31" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/excavations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/flu_planning</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/excavations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/flu_planning</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -1268,16 +1268,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B34" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/mrsa</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/noise</v>
       </c>
       <c r="C34" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/mrsa</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/noise</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/mrsa</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/noise</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -1294,16 +1294,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B35" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/noise</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/mrsa</v>
       </c>
       <c r="C35" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/noise</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/mrsa</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/noise</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/mrsa</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -1372,16 +1372,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B38" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/pest_management</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/powered-industrial-trucks-pits</v>
       </c>
       <c r="C38" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/pest_management</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/powered-industrial-trucks-pits</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/pest_management</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/powered-industrial-trucks-pits</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -1395,19 +1395,19 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B39" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/ppe</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/pest_management</v>
       </c>
       <c r="C39" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/ppe</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/pest_management</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/ppe</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/pest_management</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -1421,19 +1421,19 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B40" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/powered-industrial-trucks-pits</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/ppe</v>
       </c>
       <c r="C40" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/powered-industrial-trucks-pits</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/ppe</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/powered-industrial-trucks-pits</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/ppe</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B41" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/propane-safety</v>
@@ -1473,19 +1473,19 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B42" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/recycling-students</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/respirators</v>
       </c>
       <c r="C42" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/recycling-students</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/respirators</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/recycling-students</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/respirators</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -1499,19 +1499,19 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B43" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/respirators</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/recycling-students</v>
       </c>
       <c r="C43" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/respirators</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/recycling-students</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/respirators</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/recycling-students</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -1554,16 +1554,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B45" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/ticks</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/wastewater</v>
       </c>
       <c r="C45" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/ticks</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/wastewater</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/ticks</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/wastewater</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -1580,16 +1580,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B46" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/wastewater</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/ticks</v>
       </c>
       <c r="C46" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/wastewater</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/ticks</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/wastewater</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/ticks</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -1658,16 +1658,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B49" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/esl/videos_dvds</v>
+        <v>http://geneseo-drupal.ddev.site:33000/esl/software</v>
       </c>
       <c r="C49" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/esl/videos_dvds</v>
+        <v>http://geneseo-drupal.ddev.site:33000/esl/software</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/esl/videos_dvds</v>
+        <v>http://geneseo-drupal.ddev.site:33000/esl/software</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -1684,16 +1684,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B50" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/esl/software</v>
+        <v>http://geneseo-drupal.ddev.site:33000/esl/videos_dvds</v>
       </c>
       <c r="C50" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/esl/software</v>
+        <v>http://geneseo-drupal.ddev.site:33000/esl/videos_dvds</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/esl/software</v>
+        <v>http://geneseo-drupal.ddev.site:33000/esl/videos_dvds</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -1710,16 +1710,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B51" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/active-construction-projects</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_planning/secure_area</v>
       </c>
       <c r="C51" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/active-construction-projects</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_planning/secure_area</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/active-construction-projects</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_planning/secure_area</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -1733,19 +1733,19 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B52" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_planning/secure_area</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/active-construction-projects</v>
       </c>
       <c r="C52" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_planning/secure_area</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/active-construction-projects</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_planning/secure_area</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/active-construction-projects</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B54" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/projects-completed</v>
@@ -1811,19 +1811,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B55" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/goda/office-hours</v>
+        <v>http://geneseo-drupal.ddev.site:33000/goda/upcoming-events</v>
       </c>
       <c r="C55" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/goda/office-hours</v>
+        <v>http://geneseo-drupal.ddev.site:33000/goda/upcoming-events</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/goda/office-hours</v>
+        <v>http://geneseo-drupal.ddev.site:33000/goda/upcoming-events</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -1837,19 +1837,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B56" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/goda/upcoming-events</v>
+        <v>http://geneseo-drupal.ddev.site:33000/goda/office-hours</v>
       </c>
       <c r="C56" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/goda/upcoming-events</v>
+        <v>http://geneseo-drupal.ddev.site:33000/goda/office-hours</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/goda/upcoming-events</v>
+        <v>http://geneseo-drupal.ddev.site:33000/goda/office-hours</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B57" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/gold/2018-caryn-camiolo-memorial-social-justice-internship-recipients</v>
@@ -1944,16 +1944,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B60" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/greek/pillar-membership-policies</v>
+        <v>http://geneseo-drupal.ddev.site:33000/greek/mgc</v>
       </c>
       <c r="C60" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/greek/pillar-membership-policies</v>
+        <v>http://geneseo-drupal.ddev.site:33000/greek/mgc</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/greek/pillar-membership-policies</v>
+        <v>http://geneseo-drupal.ddev.site:33000/greek/mgc</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B61" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/greek/mgc</v>
+        <v>http://geneseo-drupal.ddev.site:33000/greek/pillar-membership-policies</v>
       </c>
       <c r="C61" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/greek/mgc</v>
+        <v>http://geneseo-drupal.ddev.site:33000/greek/pillar-membership-policies</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/greek/mgc</v>
+        <v>http://geneseo-drupal.ddev.site:33000/greek/pillar-membership-policies</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B64" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/https%3A//docs.google.com/a/geneseo.edu/spreadsheet/embeddedform%3Fformkey%3DdGhqem5qV2h3RFBCYVQ1c1VwS0pXYVE6MQ%22</v>
@@ -2071,19 +2071,19 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B65" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/https%3A//www.geneseo.edu/sprg/2016-presentations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/info_security/incident_report_form</v>
       </c>
       <c r="C65" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/https%3A//www.geneseo.edu/sprg/2016-presentations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/info_security/incident_report_form</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/https%3A//www.geneseo.edu/sprg/2016-presentations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/info_security/incident_report_form</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
@@ -2097,19 +2097,19 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B66" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/info_security/incident_report_form</v>
+        <v>http://geneseo-drupal.ddev.site:33000/https%3A//www.geneseo.edu/sprg/2016-presentations</v>
       </c>
       <c r="C66" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/info_security/incident_report_form</v>
+        <v>http://geneseo-drupal.ddev.site:33000/https%3A//www.geneseo.edu/sprg/2016-presentations</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/info_security/incident_report_form</v>
+        <v>http://geneseo-drupal.ddev.site:33000/https%3A//www.geneseo.edu/sprg/2016-presentations</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B67" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/info_security/related-forms</v>
@@ -2149,19 +2149,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B68" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/languages_literatures/alumni_resources</v>
+        <v>http://geneseo-drupal.ddev.site:33000/languages_literatures//european_studies_minor</v>
       </c>
       <c r="C68" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/languages_literatures/alumni_resources</v>
+        <v>http://geneseo-drupal.ddev.site:33000/languages_literatures//european_studies_minor</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/languages_literatures/alumni_resources</v>
+        <v>http://geneseo-drupal.ddev.site:33000/languages_literatures//european_studies_minor</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
@@ -2170,7 +2170,7 @@
         <v>failed</v>
       </c>
       <c r="H68">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69">
@@ -2178,16 +2178,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B69" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/languages_literatures//european_studies_minor</v>
+        <v>http://geneseo-drupal.ddev.site:33000/languages_literatures/alumni_resources</v>
       </c>
       <c r="C69" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/languages_literatures//european_studies_minor</v>
+        <v>http://geneseo-drupal.ddev.site:33000/languages_literatures/alumni_resources</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/languages_literatures//european_studies_minor</v>
+        <v>http://geneseo-drupal.ddev.site:33000/languages_literatures/alumni_resources</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -2196,12 +2196,12 @@
         <v>failed</v>
       </c>
       <c r="H69">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B70" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/languages_literatures/stay_connected</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B73" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/lgbtq/support</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B75" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/mlk/community-singers</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B76" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/middlestates/timeline</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B78" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/minor-musical-theatre</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B79" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/gonder-bio-more</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B80" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/mt-juniorsenior-nyc-immersion</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B81" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/music-minor-requirements-prior-fall-2021</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B82" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/music-programs</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B83" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/music-performance-audition-information</v>
@@ -2565,19 +2565,19 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B84" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/student-organizations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/preprofessional-studies-minors</v>
       </c>
       <c r="C84" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/student-organizations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/preprofessional-studies-minors</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/student-organizations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/preprofessional-studies-minors</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
@@ -2591,19 +2591,19 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B85" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/preprofessional-studies-minors</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/student-organizations</v>
       </c>
       <c r="C85" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/preprofessional-studies-minors</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/student-organizations</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/preprofessional-studies-minors</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/student-organizations</v>
       </c>
       <c r="F85" t="b">
         <v>1</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B87" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/off_campus/be-good-neighbor</v>
@@ -2750,16 +2750,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B91" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/peace_poetry/award-ceremony-videos</v>
+        <v>http://geneseo-drupal.ddev.site:33000/pepband/constitution</v>
       </c>
       <c r="C91" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/peace_poetry/award-ceremony-videos</v>
+        <v>http://geneseo-drupal.ddev.site:33000/pepband/constitution</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/peace_poetry/award-ceremony-videos</v>
+        <v>http://geneseo-drupal.ddev.site:33000/pepband/constitution</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
@@ -2776,16 +2776,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B92" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/pepband/constitution</v>
+        <v>http://geneseo-drupal.ddev.site:33000/peace_poetry/award-ceremony-videos</v>
       </c>
       <c r="C92" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/pepband/constitution</v>
+        <v>http://geneseo-drupal.ddev.site:33000/peace_poetry/award-ceremony-videos</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/pepband/constitution</v>
+        <v>http://geneseo-drupal.ddev.site:33000/peace_poetry/award-ceremony-videos</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B95" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/pepband/helpful-links</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B98" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/pops/generator</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B99" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/pops/drop-vs-launch</v>
@@ -3036,16 +3036,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B102" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-5</v>
+        <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-4</v>
       </c>
       <c r="C102" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-5</v>
+        <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-4</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-5</v>
+        <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-4</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
@@ -3062,16 +3062,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B103" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-4</v>
+        <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-5</v>
       </c>
       <c r="C103" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-4</v>
+        <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-5</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
       </c>
       <c r="E103" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-4</v>
+        <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-5</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B106" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/pops/references</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B107" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/president/2015-convocation-address</v>
@@ -3244,16 +3244,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B110" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2017-commencement-address</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2017-convocation-address</v>
       </c>
       <c r="C110" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2017-commencement-address</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2017-convocation-address</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2017-commencement-address</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2017-convocation-address</v>
       </c>
       <c r="F110" t="b">
         <v>1</v>
@@ -3270,16 +3270,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B111" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2017-convocation-address</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2017-commencement-address</v>
       </c>
       <c r="C111" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2017-convocation-address</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2017-commencement-address</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2017-convocation-address</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2017-commencement-address</v>
       </c>
       <c r="F111" t="b">
         <v>1</v>
@@ -3348,16 +3348,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B114" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2020-senior-send-remarks-may-16-2020</v>
       </c>
       <c r="C114" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2020-senior-send-remarks-may-16-2020</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
       </c>
       <c r="E114" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2020-senior-send-remarks-may-16-2020</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
@@ -3374,16 +3374,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B115" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2020-senior-send-remarks-may-16-2020</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
       </c>
       <c r="C115" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2020-senior-send-remarks-may-16-2020</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
       </c>
       <c r="E115" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2020-senior-send-remarks-may-16-2020</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
       </c>
       <c r="F115" t="b">
         <v>1</v>
@@ -3452,16 +3452,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B118" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/college-council-december-4-2020</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/college-council-meeting-minutes-december-3-2021</v>
       </c>
       <c r="C118" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/college-council-december-4-2020</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/college-council-meeting-minutes-december-3-2021</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/college-council-december-4-2020</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/college-council-meeting-minutes-december-3-2021</v>
       </c>
       <c r="F118" t="b">
         <v>1</v>
@@ -3478,16 +3478,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B119" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/college-council-meeting-minutes-december-3-2021</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/college-council-december-4-2020</v>
       </c>
       <c r="C119" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/college-council-meeting-minutes-december-3-2021</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/college-council-december-4-2020</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/college-council-meeting-minutes-december-3-2021</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/college-council-december-4-2020</v>
       </c>
       <c r="F119" t="b">
         <v>1</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B122" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/president/college-council-october-16-2020</v>
@@ -3683,19 +3683,19 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B127" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/office-supplies</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/printing-supplies</v>
       </c>
       <c r="C127" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/office-supplies</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/printing-supplies</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/office-supplies</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/printing-supplies</v>
       </c>
       <c r="F127" t="b">
         <v>1</v>
@@ -3709,19 +3709,19 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B128" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/printing-supplies</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/office-supplies</v>
       </c>
       <c r="C128" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/printing-supplies</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/office-supplies</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/printing-supplies</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/office-supplies</v>
       </c>
       <c r="F128" t="b">
         <v>1</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B129" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/purchase_orders</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B133" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/scmw</v>
@@ -3865,19 +3865,19 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B134" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/student_employment/application-process-contact-employer-directly</v>
+        <v>http://geneseo-drupal.ddev.site:33000/student_employment/employer_information</v>
       </c>
       <c r="C134" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/student_employment/application-process-contact-employer-directly</v>
+        <v>http://geneseo-drupal.ddev.site:33000/student_employment/employer_information</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/student_employment/application-process-contact-employer-directly</v>
+        <v>http://geneseo-drupal.ddev.site:33000/student_employment/employer_information</v>
       </c>
       <c r="F134" t="b">
         <v>1</v>
@@ -3891,19 +3891,19 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B135" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/student_employment/employer_information</v>
+        <v>http://geneseo-drupal.ddev.site:33000/student_employment/application-process-contact-employer-directly</v>
       </c>
       <c r="C135" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/student_employment/employer_information</v>
+        <v>http://geneseo-drupal.ddev.site:33000/student_employment/application-process-contact-employer-directly</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/student_employment/employer_information</v>
+        <v>http://geneseo-drupal.ddev.site:33000/student_employment/application-process-contact-employer-directly</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B136" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/student_employment/employer-frequently-asked-questions</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B137" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/student_employment/events</v>
@@ -4073,7 +4073,7 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B142" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/study_abroad/ready-set-study-abroad</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B143" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/sustainability/webform/social-media</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B144" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tag/music</v>
@@ -4206,16 +4206,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B147" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_ensemble_photographs</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
       </c>
       <c r="C147" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_ensemble_photographs</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_ensemble_photographs</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
       </c>
       <c r="F147" t="b">
         <v>1</v>
@@ -4224,7 +4224,7 @@
         <v>failed</v>
       </c>
       <c r="H147">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="148">
@@ -4232,16 +4232,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B148" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_ensemble_photographs</v>
       </c>
       <c r="C148" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_ensemble_photographs</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_ensemble_photographs</v>
       </c>
       <c r="F148" t="b">
         <v>1</v>
@@ -4250,7 +4250,7 @@
         <v>failed</v>
       </c>
       <c r="H148">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="149">
@@ -4310,16 +4310,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B151" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/scholarships</v>
       </c>
       <c r="C151" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/scholarships</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/scholarships</v>
       </c>
       <c r="F151" t="b">
         <v>1</v>
@@ -4328,7 +4328,7 @@
         <v>failed</v>
       </c>
       <c r="H151">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="152">
@@ -4336,16 +4336,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B152" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/scholarships</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre</v>
       </c>
       <c r="C152" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/scholarships</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/scholarships</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre</v>
       </c>
       <c r="F152" t="b">
         <v>1</v>
@@ -4354,24 +4354,24 @@
         <v>failed</v>
       </c>
       <c r="H152">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B153" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre_course_offerings</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre-english_information</v>
       </c>
       <c r="C153" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre_course_offerings</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre-english_information</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
       </c>
       <c r="E153" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre_course_offerings</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre-english_information</v>
       </c>
       <c r="F153" t="b">
         <v>1</v>
@@ -4385,19 +4385,19 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B154" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre-english_information</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre_course_offerings</v>
       </c>
       <c r="C154" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre-english_information</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre_course_offerings</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
       </c>
       <c r="E154" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre-english_information</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre_course_offerings</v>
       </c>
       <c r="F154" t="b">
         <v>1</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B155" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/words-current-dance-students</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B156" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tlc/becoming-antiracist-college-project</v>
@@ -4463,19 +4463,19 @@
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B157" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/black-history-month-events-and-recordings</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/dddfn</v>
       </c>
       <c r="C157" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/black-history-month-events-and-recordings</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/dddfn</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/black-history-month-events-and-recordings</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/dddfn</v>
       </c>
       <c r="F157" t="b">
         <v>1</v>
@@ -4489,19 +4489,19 @@
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B158" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/dddfn</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/black-history-month-events-and-recordings</v>
       </c>
       <c r="C158" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/dddfn</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/black-history-month-events-and-recordings</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
       </c>
       <c r="E158" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/dddfn</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/black-history-month-events-and-recordings</v>
       </c>
       <c r="F158" t="b">
         <v>1</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B159" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tlc/deliberative_dialogue</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B160" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tlc/groundrules</v>
@@ -4567,19 +4567,19 @@
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B161" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/high-impact-learning-panels</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/notdebate</v>
       </c>
       <c r="C161" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/high-impact-learning-panels</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/notdebate</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/high-impact-learning-panels</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/notdebate</v>
       </c>
       <c r="F161" t="b">
         <v>1</v>
@@ -4593,19 +4593,19 @@
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B162" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/notdebate</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/high-impact-learning-panels</v>
       </c>
       <c r="C162" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/notdebate</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/high-impact-learning-panels</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
       </c>
       <c r="E162" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/notdebate</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/high-impact-learning-panels</v>
       </c>
       <c r="F162" t="b">
         <v>1</v>
@@ -4622,16 +4622,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B163" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/online_resources</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/part-time-faculty-development-awards</v>
       </c>
       <c r="C163" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/online_resources</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/part-time-faculty-development-awards</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/online_resources</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/part-time-faculty-development-awards</v>
       </c>
       <c r="F163" t="b">
         <v>1</v>
@@ -4648,16 +4648,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B164" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/part-time-faculty-development-awards</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/online_resources</v>
       </c>
       <c r="C164" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/part-time-faculty-development-awards</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/online_resources</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
       </c>
       <c r="E164" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/part-time-faculty-development-awards</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/online_resources</v>
       </c>
       <c r="F164" t="b">
         <v>1</v>
@@ -4726,16 +4726,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B167" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/syllabus-design</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/tips</v>
       </c>
       <c r="C167" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/syllabus-design</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/tips</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
       </c>
       <c r="E167" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/syllabus-design</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/tips</v>
       </c>
       <c r="F167" t="b">
         <v>1</v>
@@ -4752,16 +4752,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B168" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/tips</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/syllabus-design</v>
       </c>
       <c r="C168" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/tips</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/syllabus-design</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/tips</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/syllabus-design</v>
       </c>
       <c r="F168" t="b">
         <v>1</v>
@@ -4908,16 +4908,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B174" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cil/design-thinking-rural-innovation</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cil/gvrii/launch</v>
       </c>
       <c r="C174" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cil/design-thinking-rural-innovation</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cil/gvrii/launch</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
       </c>
       <c r="E174" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cil/design-thinking-rural-innovation</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cil/gvrii/launch</v>
       </c>
       <c r="F174" t="b">
         <v>1</v>
@@ -4934,16 +4934,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B175" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cil/gvrii/launch</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cil/design-thinking-rural-innovation</v>
       </c>
       <c r="C175" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cil/gvrii/launch</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cil/design-thinking-rural-innovation</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
       </c>
       <c r="E175" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cil/gvrii/launch</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cil/design-thinking-rural-innovation</v>
       </c>
       <c r="F175" t="b">
         <v>1</v>
@@ -4957,19 +4957,19 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B176" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/circus-club/tshirts</v>
+        <v>http://geneseo-drupal.ddev.site:33000/circus-club/archive</v>
       </c>
       <c r="C176" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/circus-club/tshirts</v>
+        <v>http://geneseo-drupal.ddev.site:33000/circus-club/archive</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
       </c>
       <c r="E176" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/circus-club/tshirts</v>
+        <v>http://geneseo-drupal.ddev.site:33000/circus-club/archive</v>
       </c>
       <c r="F176" t="b">
         <v>1</v>
@@ -4983,19 +4983,19 @@
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B177" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/circus-club/archive</v>
+        <v>http://geneseo-drupal.ddev.site:33000/circus-club/tshirts</v>
       </c>
       <c r="C177" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/circus-club/archive</v>
+        <v>http://geneseo-drupal.ddev.site:33000/circus-club/tshirts</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
       </c>
       <c r="E177" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/circus-club/archive</v>
+        <v>http://geneseo-drupal.ddev.site:33000/circus-club/tshirts</v>
       </c>
       <c r="F177" t="b">
         <v>1</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B178" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cognitive_science</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B179" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cit/geneseo-mobile</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B180" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/discoverycafe</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B181" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/report-safety-risk</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B184" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/gma</v>
@@ -5217,19 +5217,19 @@
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B186" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/contactus</v>
       </c>
       <c r="C186" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/contactus</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
       </c>
       <c r="E186" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/contactus</v>
       </c>
       <c r="F186" t="b">
         <v>1</v>
@@ -5246,16 +5246,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B187" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/contactus</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope</v>
       </c>
       <c r="C187" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/contactus</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope</v>
       </c>
       <c r="D187" t="b">
         <v>0</v>
       </c>
       <c r="E187" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/contactus</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope</v>
       </c>
       <c r="F187" t="b">
         <v>1</v>
@@ -5324,16 +5324,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B190" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/learnmore</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/merchandise</v>
       </c>
       <c r="C190" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/learnmore</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/merchandise</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
       </c>
       <c r="E190" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/learnmore</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/merchandise</v>
       </c>
       <c r="F190" t="b">
         <v>1</v>
@@ -5350,16 +5350,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B191" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/merchandise</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/learnmore</v>
       </c>
       <c r="C191" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/merchandise</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/learnmore</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/merchandise</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hippiesforhope/learnmore</v>
       </c>
       <c r="F191" t="b">
         <v>1</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B194" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/lgbtq/coming-out</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B198" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/minority-assoc-prehealth</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B199" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/minority-assoc-prehealth/officers</v>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B201" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/new-programs-music</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B203" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/president/high-expectations-exceptional-outcomes</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B206" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/sa/sagraphics_information_needed</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B208" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/student_employment/ses-test</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B209" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tag/humanities-athens-2011</v>
@@ -5841,19 +5841,19 @@
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B210" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tag/oxford</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tag/ireland</v>
       </c>
       <c r="C210" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tag/oxford</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tag/ireland</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
       </c>
       <c r="E210" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tag/oxford</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tag/ireland</v>
       </c>
       <c r="F210" t="b">
         <v>1</v>
@@ -5867,19 +5867,19 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B211" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tag/ireland</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tag/oxford</v>
       </c>
       <c r="C211" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tag/ireland</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tag/oxford</v>
       </c>
       <c r="D211" t="b">
         <v>0</v>
       </c>
       <c r="E211" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tag/ireland</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tag/oxford</v>
       </c>
       <c r="F211" t="b">
         <v>1</v>
@@ -5893,7 +5893,7 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B212" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tag/photos</v>
@@ -5919,19 +5919,19 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B213" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/reunion</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/geneseo-dance-ensemble</v>
       </c>
       <c r="C213" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/reunion</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/geneseo-dance-ensemble</v>
       </c>
       <c r="D213" t="b">
         <v>0</v>
       </c>
       <c r="E213" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/reunion</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/geneseo-dance-ensemble</v>
       </c>
       <c r="F213" t="b">
         <v>1</v>
@@ -5945,19 +5945,19 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B214" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/geneseo-dance-ensemble</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/reunion</v>
       </c>
       <c r="C214" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/geneseo-dance-ensemble</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/reunion</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
       </c>
       <c r="E214" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/geneseo-dance-ensemble</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/reunion</v>
       </c>
       <c r="F214" t="b">
         <v>1</v>
@@ -6026,16 +6026,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B217" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/property_control/inventory_procedures</v>
+        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-educator-resources</v>
       </c>
       <c r="C217" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/property_control/inventory_procedures</v>
+        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-educator-resources</v>
       </c>
       <c r="D217" t="b">
         <v>0</v>
       </c>
       <c r="E217" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/property_control/inventory_procedures</v>
+        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-educator-resources</v>
       </c>
       <c r="F217" t="b">
         <v>1</v>
@@ -6052,16 +6052,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B218" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-educator-resources</v>
+        <v>http://geneseo-drupal.ddev.site:33000/property_control/inventory_procedures</v>
       </c>
       <c r="C218" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-educator-resources</v>
+        <v>http://geneseo-drupal.ddev.site:33000/property_control/inventory_procedures</v>
       </c>
       <c r="D218" t="b">
         <v>0</v>
       </c>
       <c r="E218" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-educator-resources</v>
+        <v>http://geneseo-drupal.ddev.site:33000/property_control/inventory_procedures</v>
       </c>
       <c r="F218" t="b">
         <v>1</v>
@@ -6104,16 +6104,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B220" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_minor</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_concentration</v>
       </c>
       <c r="C220" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_minor</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_concentration</v>
       </c>
       <c r="D220" t="b">
         <v>0</v>
       </c>
       <c r="E220" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_minor</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_concentration</v>
       </c>
       <c r="F220" t="b">
         <v>1</v>
@@ -6130,16 +6130,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B221" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_concentration</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_minor</v>
       </c>
       <c r="C221" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_concentration</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_minor</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
       </c>
       <c r="E221" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_concentration</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_minor</v>
       </c>
       <c r="F221" t="b">
         <v>1</v>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B223" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/hillel/engagementinternship</v>
@@ -6205,7 +6205,7 @@
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B224" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/hillel-/birthright-taglit</v>
@@ -6231,19 +6231,19 @@
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B225" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/get-involved</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/eventsandprograms</v>
       </c>
       <c r="C225" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/get-involved</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/eventsandprograms</v>
       </c>
       <c r="D225" t="b">
         <v>0</v>
       </c>
       <c r="E225" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/get-involved</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/eventsandprograms</v>
       </c>
       <c r="F225" t="b">
         <v>1</v>
@@ -6257,19 +6257,19 @@
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B226" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/eventsandprograms</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/get-involved</v>
       </c>
       <c r="C226" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/eventsandprograms</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/get-involved</v>
       </c>
       <c r="D226" t="b">
         <v>0</v>
       </c>
       <c r="E226" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/eventsandprograms</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/get-involved</v>
       </c>
       <c r="F226" t="b">
         <v>1</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B227" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/hillel/high-holidays-2020-class-absence-form</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B228" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/hillel/jlf</v>
@@ -6335,19 +6335,19 @@
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B229" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/microgrant</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/opportunities</v>
       </c>
       <c r="C229" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/microgrant</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/opportunities</v>
       </c>
       <c r="D229" t="b">
         <v>0</v>
       </c>
       <c r="E229" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/microgrant</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/opportunities</v>
       </c>
       <c r="F229" t="b">
         <v>1</v>
@@ -6361,19 +6361,19 @@
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B230" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/opportunities</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/microgrant</v>
       </c>
       <c r="C230" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/opportunities</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/microgrant</v>
       </c>
       <c r="D230" t="b">
         <v>0</v>
       </c>
       <c r="E230" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/opportunities</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/microgrant</v>
       </c>
       <c r="F230" t="b">
         <v>1</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B231" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/hillel/passover</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B232" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/hillel/provosts-message-faculty</v>
@@ -6468,16 +6468,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B234" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/campus-colleague-connection-ccc</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/upcoming-programs</v>
       </c>
       <c r="C234" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/campus-colleague-connection-ccc</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/upcoming-programs</v>
       </c>
       <c r="D234" t="b">
         <v>0</v>
       </c>
       <c r="E234" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/campus-colleague-connection-ccc</v>
+        <v>http://geneseo-drupal.ddev.site:33000/hillel/upcoming-programs</v>
       </c>
       <c r="F234" t="b">
         <v>1</v>
@@ -6491,19 +6491,19 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B235" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/upcoming-programs</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/campus-colleague-connection-ccc</v>
       </c>
       <c r="C235" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/upcoming-programs</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/campus-colleague-connection-ccc</v>
       </c>
       <c r="D235" t="b">
         <v>0</v>
       </c>
       <c r="E235" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/hillel/upcoming-programs</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/campus-colleague-connection-ccc</v>
       </c>
       <c r="F235" t="b">
         <v>1</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B237" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tlc/milne208</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B238" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre_major</v>
@@ -6595,7 +6595,7 @@
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B239" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_planning/projects-shelved-later-construction</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B240" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/eap/links</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B241" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/handbook/handbook_appendix_i</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B242" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/GOLDLeaderMentor</v>
@@ -6702,16 +6702,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B243" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gsc/global-studies-cluster-who-we-are</v>
+        <v>http://geneseo-drupal.ddev.site:33000/gsc/meet-global-cluster</v>
       </c>
       <c r="C243" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gsc/global-studies-cluster-who-we-are</v>
+        <v>http://geneseo-drupal.ddev.site:33000/gsc/meet-global-cluster</v>
       </c>
       <c r="D243" t="b">
         <v>0</v>
       </c>
       <c r="E243" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gsc/global-studies-cluster-who-we-are</v>
+        <v>http://geneseo-drupal.ddev.site:33000/gsc/meet-global-cluster</v>
       </c>
       <c r="F243" t="b">
         <v>1</v>
@@ -6728,16 +6728,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B244" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gsc/meet-global-cluster</v>
+        <v>http://geneseo-drupal.ddev.site:33000/gsc/global-studies-cluster-who-we-are</v>
       </c>
       <c r="C244" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gsc/meet-global-cluster</v>
+        <v>http://geneseo-drupal.ddev.site:33000/gsc/global-studies-cluster-who-we-are</v>
       </c>
       <c r="D244" t="b">
         <v>0</v>
       </c>
       <c r="E244" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gsc/meet-global-cluster</v>
+        <v>http://geneseo-drupal.ddev.site:33000/gsc/global-studies-cluster-who-we-are</v>
       </c>
       <c r="F244" t="b">
         <v>1</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B245" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/hot_work</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B246" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/student-resources-emergency</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B247" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/orientation/welcome-knight-life-new-student-podcast</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B252" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/orientation/knights-serve</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B253" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/silica-safety</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B254" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/provost/respond-to-student-stresses-wig</v>
@@ -7037,7 +7037,7 @@
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B256" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tlc/learning-clusters</v>
@@ -7063,7 +7063,7 @@
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B257" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/president/college-council-meeting-minutes-december-9-2022</v>
@@ -7089,7 +7089,7 @@
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B258" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/performance-calendar</v>
@@ -7167,19 +7167,19 @@
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B261" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-carpenter-sg12</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/just-facs</v>
       </c>
       <c r="C261" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-carpenter-sg12</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/just-facs</v>
       </c>
       <c r="D261" t="b">
         <v>0</v>
       </c>
       <c r="E261" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-carpenter-sg12</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/just-facs</v>
       </c>
       <c r="F261" t="b">
         <v>1</v>
@@ -7193,19 +7193,19 @@
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B262" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/just-facs</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-carpenter-sg12</v>
       </c>
       <c r="C262" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/just-facs</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-carpenter-sg12</v>
       </c>
       <c r="D262" t="b">
         <v>0</v>
       </c>
       <c r="E262" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/just-facs</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-carpenter-sg12</v>
       </c>
       <c r="F262" t="b">
         <v>1</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B263" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-electrician-sg-12</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B264" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-carpenter-sg-12</v>
@@ -7271,19 +7271,19 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B265" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-general-mechanic-sg-12-cores</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-electronic-equipment-mechanic-sg-12</v>
       </c>
       <c r="C265" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-general-mechanic-sg-12-cores</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-electronic-equipment-mechanic-sg-12</v>
       </c>
       <c r="D265" t="b">
         <v>0</v>
       </c>
       <c r="E265" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-general-mechanic-sg-12-cores</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-electronic-equipment-mechanic-sg-12</v>
       </c>
       <c r="F265" t="b">
         <v>1</v>
@@ -7297,19 +7297,19 @@
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B266" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-electronic-equipment-mechanic-sg-12</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-general-mechanic-sg-12-cores</v>
       </c>
       <c r="C266" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-electronic-equipment-mechanic-sg-12</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-general-mechanic-sg-12-cores</v>
       </c>
       <c r="D266" t="b">
         <v>0</v>
       </c>
       <c r="E266" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-electronic-equipment-mechanic-sg-12</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-general-mechanic-sg-12-cores</v>
       </c>
       <c r="F266" t="b">
         <v>1</v>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B267" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-assistant-sg-09</v>
@@ -7349,7 +7349,7 @@
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B268" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-locksmith-sg-12</v>
@@ -7375,19 +7375,19 @@
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B269" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-supervisor-2-sg-17</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-helper-sg-06</v>
       </c>
       <c r="C269" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-supervisor-2-sg-17</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-helper-sg-06</v>
       </c>
       <c r="D269" t="b">
         <v>0</v>
       </c>
       <c r="E269" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-supervisor-2-sg-17</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-helper-sg-06</v>
       </c>
       <c r="F269" t="b">
         <v>1</v>
@@ -7401,19 +7401,19 @@
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B270" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-helper-sg-06</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-supervisor-2-sg-17</v>
       </c>
       <c r="C270" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-helper-sg-06</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-supervisor-2-sg-17</v>
       </c>
       <c r="D270" t="b">
         <v>0</v>
       </c>
       <c r="E270" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-helper-sg-06</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-maintenance-supervisor-2-sg-17</v>
       </c>
       <c r="F270" t="b">
         <v>1</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B271" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-painter-sg-12</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B272" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-core-shop-motor-vehicle-operator-sg-07</v>
@@ -7479,19 +7479,19 @@
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B273" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-head-janitor-sg-15</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-cleaner</v>
       </c>
       <c r="C273" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-head-janitor-sg-15</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-cleaner</v>
       </c>
       <c r="D273" t="b">
         <v>0</v>
       </c>
       <c r="E273" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-head-janitor-sg-15</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-cleaner</v>
       </c>
       <c r="F273" t="b">
         <v>1</v>
@@ -7505,19 +7505,19 @@
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B274" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-cleaner</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-head-janitor-sg-15</v>
       </c>
       <c r="C274" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-cleaner</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-head-janitor-sg-15</v>
       </c>
       <c r="D274" t="b">
         <v>0</v>
       </c>
       <c r="E274" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-cleaner</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-head-janitor-sg-15</v>
       </c>
       <c r="F274" t="b">
         <v>1</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B275" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-supervising-janitor-sg-11</v>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B276" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-custodial-janitor-sg-07</v>
@@ -7583,19 +7583,19 @@
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B277" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-grounds-worker-sg-06</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-construction-equipment-operator-sg-08</v>
       </c>
       <c r="C277" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-grounds-worker-sg-06</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-construction-equipment-operator-sg-08</v>
       </c>
       <c r="D277" t="b">
         <v>0</v>
       </c>
       <c r="E277" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-grounds-worker-sg-06</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-construction-equipment-operator-sg-08</v>
       </c>
       <c r="F277" t="b">
         <v>1</v>
@@ -7609,19 +7609,19 @@
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B278" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-construction-equipment-operator-sg-08</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-grounds-worker-sg-06</v>
       </c>
       <c r="C278" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-construction-equipment-operator-sg-08</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-grounds-worker-sg-06</v>
       </c>
       <c r="D278" t="b">
         <v>0</v>
       </c>
       <c r="E278" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-construction-equipment-operator-sg-08</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-grounds-worker-sg-06</v>
       </c>
       <c r="F278" t="b">
         <v>1</v>
@@ -7635,7 +7635,7 @@
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B279" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-laborer-sg-06</v>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B280" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-head-grounds-supervisor-sg-14</v>
@@ -7687,19 +7687,19 @@
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B281" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-maintenance-assistant-sg-09-mechanic</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-maintenance-assistant-sg-09</v>
       </c>
       <c r="C281" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-maintenance-assistant-sg-09-mechanic</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-maintenance-assistant-sg-09</v>
       </c>
       <c r="D281" t="b">
         <v>0</v>
       </c>
       <c r="E281" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-maintenance-assistant-sg-09-mechanic</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-maintenance-assistant-sg-09</v>
       </c>
       <c r="F281" t="b">
         <v>1</v>
@@ -7713,19 +7713,19 @@
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B282" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-maintenance-assistant-sg-09</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-maintenance-assistant-sg-09-mechanic</v>
       </c>
       <c r="C282" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-maintenance-assistant-sg-09</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-maintenance-assistant-sg-09-mechanic</v>
       </c>
       <c r="D282" t="b">
         <v>0</v>
       </c>
       <c r="E282" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-maintenance-assistant-sg-09</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-maintenance-assistant-sg-09-mechanic</v>
       </c>
       <c r="F282" t="b">
         <v>1</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B283" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-senior-grounds-worker-sg-09</v>
@@ -7765,7 +7765,7 @@
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B284" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-grounds-motor-equipment-mechanic-sg-12</v>
@@ -7791,19 +7791,19 @@
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B285" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-engineer-1-sg-14</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-assistant-sg-09</v>
       </c>
       <c r="C285" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-engineer-1-sg-14</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-assistant-sg-09</v>
       </c>
       <c r="D285" t="b">
         <v>0</v>
       </c>
       <c r="E285" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-engineer-1-sg-14</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-assistant-sg-09</v>
       </c>
       <c r="F285" t="b">
         <v>1</v>
@@ -7817,19 +7817,19 @@
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B286" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-assistant-sg-09</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-engineer-1-sg-14</v>
       </c>
       <c r="C286" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-assistant-sg-09</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-engineer-1-sg-14</v>
       </c>
       <c r="D286" t="b">
         <v>0</v>
       </c>
       <c r="E286" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-assistant-sg-09</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-engineer-1-sg-14</v>
       </c>
       <c r="F286" t="b">
         <v>1</v>
@@ -7843,7 +7843,7 @@
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B287" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-engineer-3-sg-19</v>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B288" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-engineer-2-sg-16</v>
@@ -7895,19 +7895,19 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B289" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-maintenance-supervisor-2-sg-17</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-helper-sg-06</v>
       </c>
       <c r="C289" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-maintenance-supervisor-2-sg-17</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-helper-sg-06</v>
       </c>
       <c r="D289" t="b">
         <v>0</v>
       </c>
       <c r="E289" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-maintenance-supervisor-2-sg-17</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-helper-sg-06</v>
       </c>
       <c r="F289" t="b">
         <v>1</v>
@@ -7921,19 +7921,19 @@
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B290" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-helper-sg-06</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-maintenance-supervisor-2-sg-17</v>
       </c>
       <c r="C290" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-helper-sg-06</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-maintenance-supervisor-2-sg-17</v>
       </c>
       <c r="D290" t="b">
         <v>0</v>
       </c>
       <c r="E290" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-heating-plant-plant-utilities-helper-sg-06</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-maintenance-supervisor-2-sg-17</v>
       </c>
       <c r="F290" t="b">
         <v>1</v>
@@ -7947,7 +7947,7 @@
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B291" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-assistant-carpenter-sg-09</v>
@@ -7973,7 +7973,7 @@
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B292" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-general-mechanic-sg-12</v>
@@ -7999,19 +7999,19 @@
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B293" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-supervisor-2-sg-17</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-assistant-sg-09</v>
       </c>
       <c r="C293" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-supervisor-2-sg-17</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-assistant-sg-09</v>
       </c>
       <c r="D293" t="b">
         <v>0</v>
       </c>
       <c r="E293" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-supervisor-2-sg-17</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-assistant-sg-09</v>
       </c>
       <c r="F293" t="b">
         <v>1</v>
@@ -8025,19 +8025,19 @@
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B294" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-assistant-sg-09</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-supervisor-2-sg-17</v>
       </c>
       <c r="C294" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-assistant-sg-09</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-supervisor-2-sg-17</v>
       </c>
       <c r="D294" t="b">
         <v>0</v>
       </c>
       <c r="E294" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-assistant-sg-09</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-maintenance-supervisor-2-sg-17</v>
       </c>
       <c r="F294" t="b">
         <v>1</v>
@@ -8054,16 +8054,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B295" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-descriptions</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-plumber-steamfitter-sg-12</v>
       </c>
       <c r="C295" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-descriptions</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-plumber-steamfitter-sg-12</v>
       </c>
       <c r="D295" t="b">
         <v>0</v>
       </c>
       <c r="E295" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-descriptions</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-plumber-steamfitter-sg-12</v>
       </c>
       <c r="F295" t="b">
         <v>1</v>
@@ -8080,16 +8080,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B296" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-plumber-steamfitter-sg-12</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-descriptions</v>
       </c>
       <c r="C296" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-plumber-steamfitter-sg-12</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-descriptions</v>
       </c>
       <c r="D296" t="b">
         <v>0</v>
       </c>
       <c r="E296" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-description-zones-plumber-steamfitter-sg-12</v>
+        <v>http://geneseo-drupal.ddev.site:33000/facilities_services/position-descriptions</v>
       </c>
       <c r="F296" t="b">
         <v>1</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B297" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tlc/fall-2021-spring-2022</v>
@@ -8314,16 +8314,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B305" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2023-undergraduate-commencement-remarks</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2022-undergraduate-commencement-remarks</v>
       </c>
       <c r="C305" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2023-undergraduate-commencement-remarks</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2022-undergraduate-commencement-remarks</v>
       </c>
       <c r="D305" t="b">
         <v>0</v>
       </c>
       <c r="E305" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2023-undergraduate-commencement-remarks</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2022-undergraduate-commencement-remarks</v>
       </c>
       <c r="F305" t="b">
         <v>1</v>
@@ -8340,16 +8340,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B306" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2022-undergraduate-commencement-remarks</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2023-undergraduate-commencement-remarks</v>
       </c>
       <c r="C306" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2022-undergraduate-commencement-remarks</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2023-undergraduate-commencement-remarks</v>
       </c>
       <c r="D306" t="b">
         <v>0</v>
       </c>
       <c r="E306" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/president/2022-undergraduate-commencement-remarks</v>
+        <v>http://geneseo-drupal.ddev.site:33000/president/2023-undergraduate-commencement-remarks</v>
       </c>
       <c r="F306" t="b">
         <v>1</v>
@@ -8389,7 +8389,7 @@
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B308" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/pepband/pep-0</v>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B309" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/asbestos</v>
@@ -8444,16 +8444,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B310" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-choral-ensembles</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-ensembles-and-lessons-fall-2020</v>
       </c>
       <c r="C310" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-choral-ensembles</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-ensembles-and-lessons-fall-2020</v>
       </c>
       <c r="D310" t="b">
         <v>0</v>
       </c>
       <c r="E310" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-choral-ensembles</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-ensembles-and-lessons-fall-2020</v>
       </c>
       <c r="F310" t="b">
         <v>1</v>
@@ -8470,16 +8470,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B311" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-ensembles-and-lessons-fall-2020</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-choral-ensembles</v>
       </c>
       <c r="C311" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-ensembles-and-lessons-fall-2020</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-choral-ensembles</v>
       </c>
       <c r="D311" t="b">
         <v>0</v>
       </c>
       <c r="E311" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-ensembles-and-lessons-fall-2020</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-choral-ensembles</v>
       </c>
       <c r="F311" t="b">
         <v>1</v>
@@ -8496,16 +8496,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B312" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/info_security</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/summer-2020-pd</v>
       </c>
       <c r="C312" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/info_security</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/summer-2020-pd</v>
       </c>
       <c r="D312" t="b">
         <v>0</v>
       </c>
       <c r="E312" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/info_security</v>
+        <v>http://geneseo-drupal.ddev.site:33000/tlc/summer-2020-pd</v>
       </c>
       <c r="F312" t="b">
         <v>1</v>
@@ -8522,16 +8522,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B313" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/summer-2020-pd</v>
+        <v>http://geneseo-drupal.ddev.site:33000/info_security</v>
       </c>
       <c r="C313" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/summer-2020-pd</v>
+        <v>http://geneseo-drupal.ddev.site:33000/info_security</v>
       </c>
       <c r="D313" t="b">
         <v>0</v>
       </c>
       <c r="E313" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/tlc/summer-2020-pd</v>
+        <v>http://geneseo-drupal.ddev.site:33000/info_security</v>
       </c>
       <c r="F313" t="b">
         <v>1</v>
@@ -8545,7 +8545,7 @@
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B314" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cil/genesee-valley-rural-innovation-institute</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B315" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/info_security/moveit</v>
@@ -8600,16 +8600,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B316" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/computer-repair-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/admin_finance/departments</v>
       </c>
       <c r="C316" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/computer-repair-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/admin_finance/departments</v>
       </c>
       <c r="D316" t="b">
         <v>0</v>
       </c>
       <c r="E316" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/computer-repair-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/admin_finance/departments</v>
       </c>
       <c r="F316" t="b">
         <v>1</v>
@@ -8626,16 +8626,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B317" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/access-and-authorization-information-systems</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/computer-repair-procedure</v>
       </c>
       <c r="C317" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/access-and-authorization-information-systems</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/computer-repair-procedure</v>
       </c>
       <c r="D317" t="b">
         <v>0</v>
       </c>
       <c r="E317" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/access-and-authorization-information-systems</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/computer-repair-procedure</v>
       </c>
       <c r="F317" t="b">
         <v>1</v>
@@ -8652,16 +8652,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B318" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/admin_finance/departments</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/access-and-authorization-information-systems</v>
       </c>
       <c r="C318" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/admin_finance/departments</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/access-and-authorization-information-systems</v>
       </c>
       <c r="D318" t="b">
         <v>0</v>
       </c>
       <c r="E318" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/admin_finance/departments</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/access-and-authorization-information-systems</v>
       </c>
       <c r="F318" t="b">
         <v>1</v>
@@ -8727,7 +8727,7 @@
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B321" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cit/radio-frequencies</v>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B324" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/president/geneseo-redefining-honors-experience</v>
@@ -8857,7 +8857,7 @@
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B326" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/lets-talk</v>
@@ -8886,16 +8886,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B327" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/accounting/college-accounting-department-home</v>
+        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-student-support-groups</v>
       </c>
       <c r="C327" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/accounting/college-accounting-department-home</v>
+        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-student-support-groups</v>
       </c>
       <c r="D327" t="b">
         <v>0</v>
       </c>
       <c r="E327" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/accounting/college-accounting-department-home</v>
+        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-student-support-groups</v>
       </c>
       <c r="F327" t="b">
         <v>1</v>
@@ -8909,19 +8909,19 @@
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B328" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-student-support-groups</v>
+        <v>http://geneseo-drupal.ddev.site:33000/accounting/college-accounting-department-home</v>
       </c>
       <c r="C328" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-student-support-groups</v>
+        <v>http://geneseo-drupal.ddev.site:33000/accounting/college-accounting-department-home</v>
       </c>
       <c r="D328" t="b">
         <v>0</v>
       </c>
       <c r="E328" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-student-support-groups</v>
+        <v>http://geneseo-drupal.ddev.site:33000/accounting/college-accounting-department-home</v>
       </c>
       <c r="F328" t="b">
         <v>1</v>
@@ -8935,7 +8935,7 @@
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B329" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cit/student-printing-policies</v>
@@ -9013,7 +9013,7 @@
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B332" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/provost/academic-affairs-initiatives-2022-23</v>
@@ -9039,7 +9039,7 @@
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B333" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/preferred-suppliers-office-supplies-printing-supplies-and-business-cards-letterhead-and-e</v>
@@ -9117,7 +9117,7 @@
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B336" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-073a-corporate-procurement-cards-purchases-0-2500</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B337" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-074-purchases-between-2500-10000</v>
@@ -9169,19 +9169,19 @@
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B338" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-077</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-076</v>
       </c>
       <c r="C338" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-077</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-076</v>
       </c>
       <c r="D338" t="b">
         <v>0</v>
       </c>
       <c r="E338" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-077</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-076</v>
       </c>
       <c r="F338" t="b">
         <v>1</v>
@@ -9195,19 +9195,19 @@
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B339" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-076</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-075-general-procurements-between-10000-50000</v>
       </c>
       <c r="C339" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-076</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-075-general-procurements-between-10000-50000</v>
       </c>
       <c r="D339" t="b">
         <v>0</v>
       </c>
       <c r="E339" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-076</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-075-general-procurements-between-10000-50000</v>
       </c>
       <c r="F339" t="b">
         <v>1</v>
@@ -9221,19 +9221,19 @@
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B340" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-075-general-procurements-between-10000-50000</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-077</v>
       </c>
       <c r="C340" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-075-general-procurements-between-10000-50000</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-077</v>
       </c>
       <c r="D340" t="b">
         <v>0</v>
       </c>
       <c r="E340" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-075-general-procurements-between-10000-50000</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-077</v>
       </c>
       <c r="F340" t="b">
         <v>1</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B341" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-078</v>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B342" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/contracting-former-nys-employees</v>
@@ -9299,7 +9299,7 @@
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B343" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/damages</v>
@@ -9325,19 +9325,19 @@
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B344" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/interest_accrual</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/state_employee_owned</v>
       </c>
       <c r="C344" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/interest_accrual</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/state_employee_owned</v>
       </c>
       <c r="D344" t="b">
         <v>0</v>
       </c>
       <c r="E344" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/interest_accrual</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/state_employee_owned</v>
       </c>
       <c r="F344" t="b">
         <v>1</v>
@@ -9354,16 +9354,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B345" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/vendor_relations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/interest_accrual</v>
       </c>
       <c r="C345" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/vendor_relations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/interest_accrual</v>
       </c>
       <c r="D345" t="b">
         <v>0</v>
       </c>
       <c r="E345" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/vendor_relations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/interest_accrual</v>
       </c>
       <c r="F345" t="b">
         <v>1</v>
@@ -9380,16 +9380,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B346" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/state_employee_owned</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/vendor_relations</v>
       </c>
       <c r="C346" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/state_employee_owned</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/vendor_relations</v>
       </c>
       <c r="D346" t="b">
         <v>0</v>
       </c>
       <c r="E346" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/state_employee_owned</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/vendor_relations</v>
       </c>
       <c r="F346" t="b">
         <v>1</v>
@@ -9403,7 +9403,7 @@
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B347" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/livingston-cares</v>
@@ -9455,7 +9455,7 @@
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B349" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/appliance-purchases-employee-use</v>
@@ -9507,7 +9507,7 @@
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B351" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/independent-contractors</v>
@@ -9585,7 +9585,7 @@
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B354" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/minoritywomen-owned-business-program</v>
@@ -9611,7 +9611,7 @@
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B355" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/memberships-professional-organizations</v>
@@ -9637,19 +9637,19 @@
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B356" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-050-authorized-signatures</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/preferred-sources</v>
       </c>
       <c r="C356" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-050-authorized-signatures</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/preferred-sources</v>
       </c>
       <c r="D356" t="b">
         <v>0</v>
       </c>
       <c r="E356" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-050-authorized-signatures</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/preferred-sources</v>
       </c>
       <c r="F356" t="b">
         <v>1</v>
@@ -9663,19 +9663,19 @@
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B357" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/preferred-sources</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-050-authorized-signatures</v>
       </c>
       <c r="C357" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/preferred-sources</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-050-authorized-signatures</v>
       </c>
       <c r="D357" t="b">
         <v>0</v>
       </c>
       <c r="E357" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/purchasing/preferred-sources</v>
+        <v>http://geneseo-drupal.ddev.site:33000/purchasing/procurement-policy-p-050-authorized-signatures</v>
       </c>
       <c r="F357" t="b">
         <v>1</v>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B358" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/single-or-sole-source-justification</v>
@@ -9767,7 +9767,7 @@
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B361" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/enrolling_in_dance_courses</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B362" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_application_info</v>
@@ -9819,7 +9819,7 @@
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B363" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/president/college-council-meeting-minutes-february-10-2023</v>
@@ -9949,7 +9949,7 @@
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B368" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cit/services/hardware</v>
@@ -10004,16 +10004,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B370" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/loaner-laptops-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/where-do-we-go/intended-outcomes</v>
       </c>
       <c r="C370" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/loaner-laptops-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/where-do-we-go/intended-outcomes</v>
       </c>
       <c r="D370" t="b">
         <v>0</v>
       </c>
       <c r="E370" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/loaner-laptops-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/where-do-we-go/intended-outcomes</v>
       </c>
       <c r="F370" t="b">
         <v>1</v>
@@ -10030,16 +10030,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B371" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/where-do-we-go/intended-outcomes</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/loaner-laptops-procedure</v>
       </c>
       <c r="C371" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/where-do-we-go/intended-outcomes</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/loaner-laptops-procedure</v>
       </c>
       <c r="D371" t="b">
         <v>0</v>
       </c>
       <c r="E371" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/where-do-we-go/intended-outcomes</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/loaner-laptops-procedure</v>
       </c>
       <c r="F371" t="b">
         <v>1</v>
@@ -10053,19 +10053,19 @@
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B372" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/website-hosting-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/multi-factor-authentication</v>
       </c>
       <c r="C372" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/website-hosting-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/multi-factor-authentication</v>
       </c>
       <c r="D372" t="b">
         <v>0</v>
       </c>
       <c r="E372" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/website-hosting-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/multi-factor-authentication</v>
       </c>
       <c r="F372" t="b">
         <v>1</v>
@@ -10079,19 +10079,19 @@
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B373" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/website-services-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/website-hosting-procedure</v>
       </c>
       <c r="C373" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/website-services-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/website-hosting-procedure</v>
       </c>
       <c r="D373" t="b">
         <v>0</v>
       </c>
       <c r="E373" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/website-services-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/website-hosting-procedure</v>
       </c>
       <c r="F373" t="b">
         <v>1</v>
@@ -10108,16 +10108,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B374" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/wordpress-services-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/website-services-procedure</v>
       </c>
       <c r="C374" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/wordpress-services-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/website-services-procedure</v>
       </c>
       <c r="D374" t="b">
         <v>0</v>
       </c>
       <c r="E374" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/wordpress-services-procedure</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/website-services-procedure</v>
       </c>
       <c r="F374" t="b">
         <v>1</v>
@@ -10134,16 +10134,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B375" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/multi-factor-authentication</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/wordpress-services-procedure</v>
       </c>
       <c r="C375" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/multi-factor-authentication</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/wordpress-services-procedure</v>
       </c>
       <c r="D375" t="b">
         <v>0</v>
       </c>
       <c r="E375" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/multi-factor-authentication</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/wordpress-services-procedure</v>
       </c>
       <c r="F375" t="b">
         <v>1</v>
@@ -10186,16 +10186,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B377" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/powered-industrial-trucks-pits-0</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/remote-and-vpn-access-contractors-vendors</v>
       </c>
       <c r="C377" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/powered-industrial-trucks-pits-0</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/remote-and-vpn-access-contractors-vendors</v>
       </c>
       <c r="D377" t="b">
         <v>0</v>
       </c>
       <c r="E377" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/powered-industrial-trucks-pits-0</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/remote-and-vpn-access-contractors-vendors</v>
       </c>
       <c r="F377" t="b">
         <v>1</v>
@@ -10212,16 +10212,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B378" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/remote-and-vpn-access-contractors-vendors</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/powered-industrial-trucks-pits-0</v>
       </c>
       <c r="C378" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/remote-and-vpn-access-contractors-vendors</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/powered-industrial-trucks-pits-0</v>
       </c>
       <c r="D378" t="b">
         <v>0</v>
       </c>
       <c r="E378" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/remote-and-vpn-access-contractors-vendors</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/powered-industrial-trucks-pits-0</v>
       </c>
       <c r="F378" t="b">
         <v>1</v>
@@ -10238,16 +10238,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B379" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/services/network-and-wireless</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/firewall</v>
       </c>
       <c r="C379" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/services/network-and-wireless</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/firewall</v>
       </c>
       <c r="D379" t="b">
         <v>0</v>
       </c>
       <c r="E379" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/services/network-and-wireless</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/firewall</v>
       </c>
       <c r="F379" t="b">
         <v>1</v>
@@ -10264,16 +10264,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B380" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/firewall</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/services/network-and-wireless</v>
       </c>
       <c r="C380" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/firewall</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/services/network-and-wireless</v>
       </c>
       <c r="D380" t="b">
         <v>0</v>
       </c>
       <c r="E380" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/firewall</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/services/network-and-wireless</v>
       </c>
       <c r="F380" t="b">
         <v>1</v>
@@ -10339,7 +10339,7 @@
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B383" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career-design/internships/political</v>
@@ -10365,7 +10365,7 @@
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B384" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/phietas</v>
@@ -10469,7 +10469,7 @@
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B388" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tlc/resources-antiracist-pedagogy</v>
@@ -10495,7 +10495,7 @@
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B389" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/anthropology/syllabi</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B392" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/president/actions-toward-becoming-more-racially-equitable-and-inclusive-college</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B393" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/lgbtq/resources-lgbtq-students</v>
@@ -10625,7 +10625,7 @@
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B394" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/property_control/available-items</v>
@@ -10651,7 +10651,7 @@
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B395" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/phietas/information</v>
@@ -10677,7 +10677,7 @@
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B396" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/emergency-response</v>
@@ -10807,19 +10807,19 @@
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B401" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/spill_response</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/recycling</v>
       </c>
       <c r="C401" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/spill_response</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/recycling</v>
       </c>
       <c r="D401" t="b">
         <v>0</v>
       </c>
       <c r="E401" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/spill_response</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/recycling</v>
       </c>
       <c r="F401" t="b">
         <v>1</v>
@@ -10833,19 +10833,19 @@
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B402" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/recycling</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/spill_response</v>
       </c>
       <c r="C402" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/recycling</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/spill_response</v>
       </c>
       <c r="D402" t="b">
         <v>0</v>
       </c>
       <c r="E402" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ehs/recycling</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ehs/spill_response</v>
       </c>
       <c r="F402" t="b">
         <v>1</v>
@@ -10859,7 +10859,7 @@
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B403" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/info_security/phishing</v>
@@ -10885,7 +10885,7 @@
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B404" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/provost/comprehensive-individualized-transition-wig</v>
@@ -10911,19 +10911,19 @@
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B405" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gsc</v>
+        <v>http://geneseo-drupal.ddev.site:33000/makeyourmark</v>
       </c>
       <c r="C405" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gsc</v>
+        <v>http://geneseo-drupal.ddev.site:33000/makeyourmark</v>
       </c>
       <c r="D405" t="b">
         <v>0</v>
       </c>
       <c r="E405" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gsc</v>
+        <v>http://geneseo-drupal.ddev.site:33000/makeyourmark</v>
       </c>
       <c r="F405" t="b">
         <v>1</v>
@@ -10937,19 +10937,19 @@
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B406" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/makeyourmark</v>
+        <v>http://geneseo-drupal.ddev.site:33000/gsc</v>
       </c>
       <c r="C406" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/makeyourmark</v>
+        <v>http://geneseo-drupal.ddev.site:33000/gsc</v>
       </c>
       <c r="D406" t="b">
         <v>0</v>
       </c>
       <c r="E406" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/makeyourmark</v>
+        <v>http://geneseo-drupal.ddev.site:33000/gsc</v>
       </c>
       <c r="F406" t="b">
         <v>1</v>
@@ -10963,7 +10963,7 @@
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B407" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/events</v>
@@ -11015,7 +11015,7 @@
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B409" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/makeyourmark/meet_the_chairs</v>
@@ -11067,7 +11067,7 @@
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B411" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career-design/internships/math</v>
@@ -11145,7 +11145,7 @@
     </row>
     <row r="414">
       <c r="A414" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B414" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cit/access-and-authorization</v>
@@ -11171,7 +11171,7 @@
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B415" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cil/black-history-black-futures-book-club-superior-angela-saini</v>
@@ -11197,7 +11197,7 @@
     </row>
     <row r="416">
       <c r="A416" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B416" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career-design/internship_links_communications</v>
@@ -11249,7 +11249,7 @@
     </row>
     <row r="418">
       <c r="A418" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B418" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career-design/contact-career-design-center</v>
@@ -11301,7 +11301,7 @@
     </row>
     <row r="420">
       <c r="A420" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B420" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/education/ability-completers-be-hired</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="421">
       <c r="A421" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B421" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/president/2024-undergraduate-commencement-remarks-may-18-2024</v>
@@ -11353,7 +11353,7 @@
     </row>
     <row r="422">
       <c r="A422" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B422" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/student_employment/related-links</v>
@@ -11405,7 +11405,7 @@
     </row>
     <row r="424">
       <c r="A424" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B424" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career-design/jobs-by-location</v>
@@ -11431,19 +11431,19 @@
     </row>
     <row r="425">
       <c r="A425" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B425" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/alumni/2000</v>
+        <v>http://geneseo-drupal.ddev.site:33000/gma/about</v>
       </c>
       <c r="C425" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/alumni/2000</v>
+        <v>http://geneseo-drupal.ddev.site:33000/gma/about</v>
       </c>
       <c r="D425" t="b">
         <v>0</v>
       </c>
       <c r="E425" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/alumni/2000</v>
+        <v>http://geneseo-drupal.ddev.site:33000/gma/about</v>
       </c>
       <c r="F425" t="b">
         <v>1</v>
@@ -11460,16 +11460,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B426" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gma/about</v>
+        <v>http://geneseo-drupal.ddev.site:33000/greek/delta-kappa-tau</v>
       </c>
       <c r="C426" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gma/about</v>
+        <v>http://geneseo-drupal.ddev.site:33000/greek/delta-kappa-tau</v>
       </c>
       <c r="D426" t="b">
         <v>0</v>
       </c>
       <c r="E426" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gma/about</v>
+        <v>http://geneseo-drupal.ddev.site:33000/greek/delta-kappa-tau</v>
       </c>
       <c r="F426" t="b">
         <v>1</v>
@@ -11486,16 +11486,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B427" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/greek/delta-kappa-tau</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/alumni/2000</v>
       </c>
       <c r="C427" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/greek/delta-kappa-tau</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/alumni/2000</v>
       </c>
       <c r="D427" t="b">
         <v>0</v>
       </c>
       <c r="E427" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/greek/delta-kappa-tau</v>
+        <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/alumni/2000</v>
       </c>
       <c r="F427" t="b">
         <v>1</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="430">
       <c r="A430" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B430" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/how-request-service-printers</v>
@@ -11665,7 +11665,7 @@
     </row>
     <row r="434">
       <c r="A434" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B434" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tlc/archives</v>
@@ -11691,7 +11691,7 @@
     </row>
     <row r="435">
       <c r="A435" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B435" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/info_security/101-course</v>
@@ -11717,7 +11717,7 @@
     </row>
     <row r="436">
       <c r="A436" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B436" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tlc/resources-support-specific-pedagogies</v>
@@ -11743,7 +11743,7 @@
     </row>
     <row r="437">
       <c r="A437" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B437" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career-design/internship_links_arts</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="438">
       <c r="A438" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B438" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/academic-and-degree-programs</v>
@@ -11795,7 +11795,7 @@
     </row>
     <row r="439">
       <c r="A439" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B439" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/faculty-ensembles-0</v>
@@ -11821,19 +11821,19 @@
     </row>
     <row r="440">
       <c r="A440" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B440" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/music-ba-jazz-american-music-studies-track</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/music-conducting-track</v>
       </c>
       <c r="C440" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/music-ba-jazz-american-music-studies-track</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/music-conducting-track</v>
       </c>
       <c r="D440" t="b">
         <v>0</v>
       </c>
       <c r="E440" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/music-ba-jazz-american-music-studies-track</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/music-conducting-track</v>
       </c>
       <c r="F440" t="b">
         <v>1</v>
@@ -11847,19 +11847,19 @@
     </row>
     <row r="441">
       <c r="A441" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B441" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/music-conducting-track</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/music-ba-jazz-american-music-studies-track</v>
       </c>
       <c r="C441" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/music-conducting-track</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/music-ba-jazz-american-music-studies-track</v>
       </c>
       <c r="D441" t="b">
         <v>0</v>
       </c>
       <c r="E441" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/music-conducting-track</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/music-ba-jazz-american-music-studies-track</v>
       </c>
       <c r="F441" t="b">
         <v>1</v>
@@ -11873,7 +11873,7 @@
     </row>
     <row r="442">
       <c r="A442" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B442" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career-design/internships/history-anthropology</v>
@@ -11899,7 +11899,7 @@
     </row>
     <row r="443">
       <c r="A443" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B443" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/internet_resources</v>
@@ -11980,16 +11980,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B446" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/past-musical-theatre-productions</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/our-musical-theatre-vision</v>
       </c>
       <c r="C446" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/past-musical-theatre-productions</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/our-musical-theatre-vision</v>
       </c>
       <c r="D446" t="b">
         <v>0</v>
       </c>
       <c r="E446" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/past-musical-theatre-productions</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/our-musical-theatre-vision</v>
       </c>
       <c r="F446" t="b">
         <v>1</v>
@@ -12006,16 +12006,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B447" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/our-musical-theatre-vision</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/past-musical-theatre-productions</v>
       </c>
       <c r="C447" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/our-musical-theatre-vision</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/past-musical-theatre-productions</v>
       </c>
       <c r="D447" t="b">
         <v>0</v>
       </c>
       <c r="E447" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/our-musical-theatre-vision</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/past-musical-theatre-productions</v>
       </c>
       <c r="F447" t="b">
         <v>1</v>
@@ -12029,7 +12029,7 @@
     </row>
     <row r="448">
       <c r="A448" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B448" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-department-ensembles-and-lessons-non-majors</v>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="451">
       <c r="A451" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B451" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/president/message-president-denise-battles-august-23-2024</v>
@@ -12159,7 +12159,7 @@
     </row>
     <row r="453">
       <c r="A453" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B453" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/property_control/staff</v>
@@ -12237,7 +12237,7 @@
     </row>
     <row r="456">
       <c r="A456" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B456" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cit/computer-data-disposal-procedure</v>
@@ -12263,7 +12263,7 @@
     </row>
     <row r="457">
       <c r="A457" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B457" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career-design/internships/science-medicine</v>
@@ -12289,7 +12289,7 @@
     </row>
     <row r="458">
       <c r="A458" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B458" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/greek/forms_menu</v>
@@ -12315,7 +12315,7 @@
     </row>
     <row r="459">
       <c r="A459" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B459" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/music-ba-audition-information</v>
@@ -12341,7 +12341,7 @@
     </row>
     <row r="460">
       <c r="A460" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B460" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/facultystaff-resources-enviornmental</v>
@@ -12367,7 +12367,7 @@
     </row>
     <row r="461">
       <c r="A461" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B461" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/purchasing/business-cards-letterhead-and-envelopes</v>
@@ -12445,7 +12445,7 @@
     </row>
     <row r="464">
       <c r="A464" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B464" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/dean_students/message-regarding-governors-mandate-nov-13-2020</v>
@@ -12471,19 +12471,19 @@
     </row>
     <row r="465">
       <c r="A465" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B465" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/dean_students/movers-and-storage-units</v>
+        <v>http://geneseo-drupal.ddev.site:33000/dean_students/ongoing-surveillance-testing-email-sept-1-2021</v>
       </c>
       <c r="C465" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/dean_students/movers-and-storage-units</v>
+        <v>http://geneseo-drupal.ddev.site:33000/dean_students/ongoing-surveillance-testing-email-sept-1-2021</v>
       </c>
       <c r="D465" t="b">
         <v>0</v>
       </c>
       <c r="E465" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/dean_students/movers-and-storage-units</v>
+        <v>http://geneseo-drupal.ddev.site:33000/dean_students/ongoing-surveillance-testing-email-sept-1-2021</v>
       </c>
       <c r="F465" t="b">
         <v>1</v>
@@ -12497,19 +12497,19 @@
     </row>
     <row r="466">
       <c r="A466" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B466" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/dean_students/ongoing-surveillance-testing-email-sept-1-2021</v>
+        <v>http://geneseo-drupal.ddev.site:33000/dean_students/movers-and-storage-units</v>
       </c>
       <c r="C466" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/dean_students/ongoing-surveillance-testing-email-sept-1-2021</v>
+        <v>http://geneseo-drupal.ddev.site:33000/dean_students/movers-and-storage-units</v>
       </c>
       <c r="D466" t="b">
         <v>0</v>
       </c>
       <c r="E466" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/dean_students/ongoing-surveillance-testing-email-sept-1-2021</v>
+        <v>http://geneseo-drupal.ddev.site:33000/dean_students/movers-and-storage-units</v>
       </c>
       <c r="F466" t="b">
         <v>1</v>
@@ -12523,7 +12523,7 @@
     </row>
     <row r="467">
       <c r="A467" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B467" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/dean_students/pooled-testing-requirements</v>
@@ -12549,7 +12549,7 @@
     </row>
     <row r="468">
       <c r="A468" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B468" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/dean_students/prohibited-campus-gathering-hosts</v>
@@ -12575,19 +12575,19 @@
     </row>
     <row r="469">
       <c r="A469" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B469" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/dean_students/remote-learning-period-permission-stay-rules-and-regulations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/dean_students/st-patricks-day-message</v>
       </c>
       <c r="C469" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/dean_students/remote-learning-period-permission-stay-rules-and-regulations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/dean_students/st-patricks-day-message</v>
       </c>
       <c r="D469" t="b">
         <v>0</v>
       </c>
       <c r="E469" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/dean_students/remote-learning-period-permission-stay-rules-and-regulations</v>
+        <v>http://geneseo-drupal.ddev.site:33000/dean_students/st-patricks-day-message</v>
       </c>
       <c r="F469" t="b">
         <v>1</v>
@@ -12601,19 +12601,19 @@
     </row>
     <row r="470">
       <c r="A470" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B470" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/dean_students/st-patricks-day-message</v>
+        <v>http://geneseo-drupal.ddev.site:33000/dean_students/remote-learning-period-permission-stay-rules-and-regulations</v>
       </c>
       <c r="C470" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/dean_students/st-patricks-day-message</v>
+        <v>http://geneseo-drupal.ddev.site:33000/dean_students/remote-learning-period-permission-stay-rules-and-regulations</v>
       </c>
       <c r="D470" t="b">
         <v>0</v>
       </c>
       <c r="E470" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/dean_students/st-patricks-day-message</v>
+        <v>http://geneseo-drupal.ddev.site:33000/dean_students/remote-learning-period-permission-stay-rules-and-regulations</v>
       </c>
       <c r="F470" t="b">
         <v>1</v>
@@ -12627,7 +12627,7 @@
     </row>
     <row r="471">
       <c r="A471" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B471" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/dean_students/travel-policy-spring-2021-expires-june-1-2021</v>
@@ -12653,7 +12653,7 @@
     </row>
     <row r="472">
       <c r="A472" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B472" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/hazardous_waste</v>
@@ -12679,7 +12679,7 @@
     </row>
     <row r="473">
       <c r="A473" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B473" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/sefa/charities-united-way-greater-rocheser-and-finger-lakes</v>
@@ -12731,7 +12731,7 @@
     </row>
     <row r="475">
       <c r="A475" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B475" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cit/services/printing</v>
@@ -12809,7 +12809,7 @@
     </row>
     <row r="478">
       <c r="A478" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B478" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance_course_offerings</v>
@@ -12835,7 +12835,7 @@
     </row>
     <row r="479">
       <c r="A479" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B479" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/bfa-musical-theatre</v>
@@ -12887,7 +12887,7 @@
     </row>
     <row r="481">
       <c r="A481" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B481" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/staff</v>
@@ -12913,7 +12913,7 @@
     </row>
     <row r="482">
       <c r="A482" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B482" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/education/call-third-party-comment</v>
@@ -12939,7 +12939,7 @@
     </row>
     <row r="483">
       <c r="A483" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B483" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/forms</v>
@@ -12965,19 +12965,19 @@
     </row>
     <row r="484">
       <c r="A484" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B484" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/cit-managed-devices</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/access-approved-job-roles</v>
       </c>
       <c r="C484" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/cit-managed-devices</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/access-approved-job-roles</v>
       </c>
       <c r="D484" t="b">
         <v>0</v>
       </c>
       <c r="E484" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/cit-managed-devices</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/access-approved-job-roles</v>
       </c>
       <c r="F484" t="b">
         <v>1</v>
@@ -12994,16 +12994,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B485" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/access-approved-job-roles</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/cit-managed-devices</v>
       </c>
       <c r="C485" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/access-approved-job-roles</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/cit-managed-devices</v>
       </c>
       <c r="D485" t="b">
         <v>0</v>
       </c>
       <c r="E485" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/access-approved-job-roles</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/cit-managed-devices</v>
       </c>
       <c r="F485" t="b">
         <v>1</v>
@@ -13017,7 +13017,7 @@
     </row>
     <row r="486">
       <c r="A486" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B486" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cit/device-encryption-procedure</v>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="488">
       <c r="A488" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B488" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/arboretum/news-events</v>
@@ -13173,7 +13173,7 @@
     </row>
     <row r="492">
       <c r="A492" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B492" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ire/suny-student-satisfaction-survey</v>
@@ -13277,7 +13277,7 @@
     </row>
     <row r="496">
       <c r="A496" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B496" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/student-resources</v>
@@ -13329,7 +13329,7 @@
     </row>
     <row r="498">
       <c r="A498" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B498" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ire/archived-factbooks</v>
@@ -13381,7 +13381,7 @@
     </row>
     <row r="500">
       <c r="A500" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B500" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/where-do-we-go/assesstivus-archives</v>
@@ -13407,7 +13407,7 @@
     </row>
     <row r="501">
       <c r="A501" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B501" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/facultystaff-resources-fire</v>
@@ -13459,19 +13459,19 @@
     </row>
     <row r="503">
       <c r="A503" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B503" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ire/contact-us</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ire/cds_07_08</v>
       </c>
       <c r="C503" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ire/contact-us</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ire/cds_07_08</v>
       </c>
       <c r="D503" t="b">
         <v>0</v>
       </c>
       <c r="E503" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ire/contact-us</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ire/cds_07_08</v>
       </c>
       <c r="F503" t="b">
         <v>1</v>
@@ -13485,19 +13485,19 @@
     </row>
     <row r="504">
       <c r="A504" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B504" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ire/cds_07_08</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ire/contact-us</v>
       </c>
       <c r="C504" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ire/cds_07_08</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ire/contact-us</v>
       </c>
       <c r="D504" t="b">
         <v>0</v>
       </c>
       <c r="E504" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/ire/cds_07_08</v>
+        <v>http://geneseo-drupal.ddev.site:33000/ire/contact-us</v>
       </c>
       <c r="F504" t="b">
         <v>1</v>
@@ -13563,7 +13563,7 @@
     </row>
     <row r="507">
       <c r="A507" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B507" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/mission-dance-studies-program</v>
@@ -13589,7 +13589,7 @@
     </row>
     <row r="508">
       <c r="A508" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B508" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/esl/services</v>
@@ -13615,7 +13615,7 @@
     </row>
     <row r="509">
       <c r="A509" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B509" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career-design/resume-review-process-student-teaching-candidate</v>
@@ -13641,7 +13641,7 @@
     </row>
     <row r="510">
       <c r="A510" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B510" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/apca/assesstivus-2020-schedule</v>
@@ -13719,19 +13719,19 @@
     </row>
     <row r="513">
       <c r="A513" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B513" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs</v>
       </c>
       <c r="C513" t="str">
-        <v>https://login.microsoftonline.com/02ce934f-066a-4d00-b828-cedba7cf4f79/oauth2/authorize?client%5Fid=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;response%5Fmode=form%5Fpost&amp;response%5Ftype=code%20id%5Ftoken&amp;resource=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;scope=openid&amp;nonce=7FDDA4E1A4A255DC6AFFA964BE4B672C9913A0AA69A648F1%2DB771C81361DFD8D14257DD6BB0634628DB2BECEB1C89B119B86B1B759301E11A&amp;redirect%5Furi=https%3A%2F%2Fsunygeneseo%2Esharepoint%2Ecom%2F%5Fforms%2Fdefault%2Easpx&amp;state=OD0w&amp;claims=%7B%22id%5Ftoken%22%3A%7B%22xms%5Fcc%22%3A%7B%22values%22%3A%5B%22CP1%22%5D%7D%7D%7D&amp;wsucxt=1&amp;cobrandid=11bd8083%2D87e0%2D41b5%2Dbb78%2D0bc43c8a8e8a&amp;client%2Drequest%2Did=1332d2a1%2D1001%2D0000%2D017a%2D1e0a7d448fbb</v>
+        <v>https://login.microsoftonline.com/02ce934f-066a-4d00-b828-cedba7cf4f79/oauth2/authorize?client%5Fid=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;response%5Fmode=form%5Fpost&amp;response%5Ftype=code%20id%5Ftoken&amp;resource=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;scope=openid&amp;nonce=D7CDF2FC77A14E3044E2657A80FD7AEC791294F5B9E46C25%2DB0E159E3EB112DCC0AAB613D0977EA9D369A045A2D4F949BAEE55B38027C3F36&amp;redirect%5Furi=https%3A%2F%2Fsunygeneseo%2Esharepoint%2Ecom%2F%5Fforms%2Fdefault%2Easpx&amp;state=OD0w&amp;claims=%7B%22id%5Ftoken%22%3A%7B%22xms%5Fcc%22%3A%7B%22values%22%3A%5B%22CP1%22%5D%7D%7D%7D&amp;wsucxt=1&amp;cobrandid=11bd8083%2D87e0%2D41b5%2Dbb78%2D0bc43c8a8e8a&amp;client%2Drequest%2Did=0c2cd3a1%2D60b5%2D0000%2D017a%2D16f923760c13</v>
       </c>
       <c r="D513" t="b">
         <v>1</v>
       </c>
       <c r="E513" t="str">
-        <v>https://login.microsoftonline.com/02ce934f-066a-4d00-b828-cedba7cf4f79/oauth2/authorize?client%5Fid=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;response%5Fmode=form%5Fpost&amp;response%5Ftype=code%20id%5Ftoken&amp;resource=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;scope=openid&amp;nonce=7FDDA4E1A4A255DC6AFFA964BE4B672C9913A0AA69A648F1%2DB771C81361DFD8D14257DD6BB0634628DB2BECEB1C89B119B86B1B759301E11A&amp;redirect%5Furi=https%3A%2F%2Fsunygeneseo%2Esharepoint%2Ecom%2F%5Fforms%2Fdefault%2Easpx&amp;state=OD0w&amp;claims=%7B%22id%5Ftoken%22%3A%7B%22xms%5Fcc%22%3A%7B%22values%22%3A%5B%22CP1%22%5D%7D%7D%7D&amp;wsucxt=1&amp;cobrandid=11bd8083%2D87e0%2D41b5%2Dbb78%2D0bc43c8a8e8a&amp;client%2Drequest%2Did=1332d2a1%2D1001%2D0000%2D017a%2D1e0a7d448fbb</v>
+        <v>https://login.microsoftonline.com/02ce934f-066a-4d00-b828-cedba7cf4f79/oauth2/authorize?client%5Fid=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;response%5Fmode=form%5Fpost&amp;response%5Ftype=code%20id%5Ftoken&amp;resource=00000003%2D0000%2D0ff1%2Dce00%2D000000000000&amp;scope=openid&amp;nonce=D7CDF2FC77A14E3044E2657A80FD7AEC791294F5B9E46C25%2DB0E159E3EB112DCC0AAB613D0977EA9D369A045A2D4F949BAEE55B38027C3F36&amp;redirect%5Furi=https%3A%2F%2Fsunygeneseo%2Esharepoint%2Ecom%2F%5Fforms%2Fdefault%2Easpx&amp;state=OD0w&amp;claims=%7B%22id%5Ftoken%22%3A%7B%22xms%5Fcc%22%3A%7B%22values%22%3A%5B%22CP1%22%5D%7D%7D%7D&amp;wsucxt=1&amp;cobrandid=11bd8083%2D87e0%2D41b5%2Dbb78%2D0bc43c8a8e8a&amp;client%2Drequest%2Did=0c2cd3a1%2D60b5%2D0000%2D017a%2D16f923760c13</v>
       </c>
       <c r="F513" t="b">
         <v>1</v>
@@ -13797,7 +13797,7 @@
     </row>
     <row r="516">
       <c r="A516" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B516" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/art_history/art-history-symposium</v>
@@ -13823,7 +13823,7 @@
     </row>
     <row r="517">
       <c r="A517" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B517" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/audition-information-ba-musical-theatre</v>
@@ -13849,7 +13849,7 @@
     </row>
     <row r="518">
       <c r="A518" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B518" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cit/software_purchasing_info</v>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="521">
       <c r="A521" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B521" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/irc/committees</v>
@@ -14031,7 +14031,7 @@
     </row>
     <row r="525">
       <c r="A525" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B525" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/instrumental-ensembles</v>
@@ -14057,7 +14057,7 @@
     </row>
     <row r="526">
       <c r="A526" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B526" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/academic-support-services</v>
@@ -14112,16 +14112,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B528" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/ba-music-music-performance</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information</v>
       </c>
       <c r="C528" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/ba-music-music-performance</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information</v>
       </c>
       <c r="D528" t="b">
         <v>0</v>
       </c>
       <c r="E528" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/ba-music-music-performance</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information</v>
       </c>
       <c r="F528" t="b">
         <v>1</v>
@@ -14135,19 +14135,19 @@
     </row>
     <row r="529">
       <c r="A529" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B529" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/ba-music-music-performance</v>
       </c>
       <c r="C529" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/ba-music-music-performance</v>
       </c>
       <c r="D529" t="b">
         <v>0</v>
       </c>
       <c r="E529" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/music/audition-information</v>
+        <v>http://geneseo-drupal.ddev.site:33000/music/ba-music-music-performance</v>
       </c>
       <c r="F529" t="b">
         <v>1</v>
@@ -14161,7 +14161,7 @@
     </row>
     <row r="530">
       <c r="A530" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B530" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/music-ba-music-education-track</v>
@@ -14187,7 +14187,7 @@
     </row>
     <row r="531">
       <c r="A531" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B531" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/choral-ensembles</v>
@@ -14239,7 +14239,7 @@
     </row>
     <row r="533">
       <c r="A533" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B533" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/facilities_planning/reports</v>
@@ -14265,7 +14265,7 @@
     </row>
     <row r="534">
       <c r="A534" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B534" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/organizations</v>
@@ -14291,7 +14291,7 @@
     </row>
     <row r="535">
       <c r="A535" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B535" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/music-ba-music-business-recording-and-production-track</v>
@@ -14317,7 +14317,7 @@
     </row>
     <row r="536">
       <c r="A536" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B536" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/music-ba-history-theory-ethnography-and-criticism-hitec</v>
@@ -14343,7 +14343,7 @@
     </row>
     <row r="537">
       <c r="A537" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B537" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/advising/current-dean-and-president-lists</v>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="538">
       <c r="A538" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B538" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career-design/resume-review-checklist-student-teaching-candidates</v>
@@ -14421,7 +14421,7 @@
     </row>
     <row r="540">
       <c r="A540" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B540" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/electronic-recycling</v>
@@ -14525,7 +14525,7 @@
     </row>
     <row r="544">
       <c r="A544" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B544" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/president/tribute-president-dahl</v>
@@ -14577,7 +14577,7 @@
     </row>
     <row r="546">
       <c r="A546" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B546" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/theatre_concentration</v>
@@ -14658,16 +14658,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B549" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/admissions/think-yourself</v>
+        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/brooklyn-march-2017</v>
       </c>
       <c r="C549" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/admissions/think-yourself</v>
+        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/brooklyn-march-2017</v>
       </c>
       <c r="D549" t="b">
         <v>0</v>
       </c>
       <c r="E549" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/admissions/think-yourself</v>
+        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/brooklyn-march-2017</v>
       </c>
       <c r="F549" t="b">
         <v>1</v>
@@ -14684,16 +14684,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B550" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/brooklyn-march-2017</v>
+        <v>http://geneseo-drupal.ddev.site:33000/admissions/think-yourself</v>
       </c>
       <c r="C550" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/brooklyn-march-2017</v>
+        <v>http://geneseo-drupal.ddev.site:33000/admissions/think-yourself</v>
       </c>
       <c r="D550" t="b">
         <v>0</v>
       </c>
       <c r="E550" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/brooklyn-march-2017</v>
+        <v>http://geneseo-drupal.ddev.site:33000/admissions/think-yourself</v>
       </c>
       <c r="F550" t="b">
         <v>1</v>
@@ -14785,19 +14785,19 @@
     </row>
     <row r="554">
       <c r="A554" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B554" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/candidate-competency-completion</v>
+        <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/completer-effectiveness</v>
       </c>
       <c r="C554" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/candidate-competency-completion</v>
+        <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/completer-effectiveness</v>
       </c>
       <c r="D554" t="b">
         <v>0</v>
       </c>
       <c r="E554" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/candidate-competency-completion</v>
+        <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/completer-effectiveness</v>
       </c>
       <c r="F554" t="b">
         <v>1</v>
@@ -14811,19 +14811,19 @@
     </row>
     <row r="555">
       <c r="A555" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B555" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/completer-effectiveness</v>
+        <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/candidate-competency-completion</v>
       </c>
       <c r="C555" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/completer-effectiveness</v>
+        <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/candidate-competency-completion</v>
       </c>
       <c r="D555" t="b">
         <v>0</v>
       </c>
       <c r="E555" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/completer-effectiveness</v>
+        <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/candidate-competency-completion</v>
       </c>
       <c r="F555" t="b">
         <v>1</v>
@@ -14837,7 +14837,7 @@
     </row>
     <row r="556">
       <c r="A556" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B556" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/education/accreditation-process/satisfaction-employers-and-stakeholder-involvement</v>
@@ -14889,7 +14889,7 @@
     </row>
     <row r="558">
       <c r="A558" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B558" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/president/addresses</v>
@@ -14993,7 +14993,7 @@
     </row>
     <row r="562">
       <c r="A562" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B562" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/theatre_dance/dance</v>
@@ -15071,7 +15071,7 @@
     </row>
     <row r="565">
       <c r="A565" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B565" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/puerto-rico-march-2018</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="568">
       <c r="A568" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B568" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/music/our-commitment-racial-justice</v>
@@ -15201,7 +15201,7 @@
     </row>
     <row r="570">
       <c r="A570" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B570" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cas/sushi-platters</v>
@@ -15230,16 +15230,16 @@
         <v>B1-W1</v>
       </c>
       <c r="B571" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/middlestates/self-study-institutional-priorities-and-institutional-outcomes</v>
+        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-faculty-and-staff-association</v>
       </c>
       <c r="C571" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/middlestates/self-study-institutional-priorities-and-institutional-outcomes</v>
+        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-faculty-and-staff-association</v>
       </c>
       <c r="D571" t="b">
         <v>0</v>
       </c>
       <c r="E571" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/middlestates/self-study-institutional-priorities-and-institutional-outcomes</v>
+        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-faculty-and-staff-association</v>
       </c>
       <c r="F571" t="b">
         <v>1</v>
@@ -15256,16 +15256,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B572" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-faculty-and-staff-association</v>
+        <v>http://geneseo-drupal.ddev.site:33000/middlestates/self-study-institutional-priorities-and-institutional-outcomes</v>
       </c>
       <c r="C572" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-faculty-and-staff-association</v>
+        <v>http://geneseo-drupal.ddev.site:33000/middlestates/self-study-institutional-priorities-and-institutional-outcomes</v>
       </c>
       <c r="D572" t="b">
         <v>0</v>
       </c>
       <c r="E572" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/lgbtq/lgbtq-faculty-and-staff-association</v>
+        <v>http://geneseo-drupal.ddev.site:33000/middlestates/self-study-institutional-priorities-and-institutional-outcomes</v>
       </c>
       <c r="F572" t="b">
         <v>1</v>
@@ -15305,7 +15305,7 @@
     </row>
     <row r="574">
       <c r="A574" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B574" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/tlc/fall-2019-spring-2020</v>
@@ -15383,19 +15383,19 @@
     </row>
     <row r="577">
       <c r="A577" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B577" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/florida-keys-january-2019</v>
+        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/houston-tx-january-2019</v>
       </c>
       <c r="C577" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/florida-keys-january-2019</v>
+        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/houston-tx-january-2019</v>
       </c>
       <c r="D577" t="b">
         <v>0</v>
       </c>
       <c r="E577" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/florida-keys-january-2019</v>
+        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/houston-tx-january-2019</v>
       </c>
       <c r="F577" t="b">
         <v>1</v>
@@ -15409,19 +15409,19 @@
     </row>
     <row r="578">
       <c r="A578" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B578" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/houston-tx-january-2019</v>
+        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/florida-keys-january-2019</v>
       </c>
       <c r="C578" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/houston-tx-january-2019</v>
+        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/florida-keys-january-2019</v>
       </c>
       <c r="D578" t="b">
         <v>0</v>
       </c>
       <c r="E578" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/houston-tx-january-2019</v>
+        <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/florida-keys-january-2019</v>
       </c>
       <c r="F578" t="b">
         <v>1</v>
@@ -15435,7 +15435,7 @@
     </row>
     <row r="579">
       <c r="A579" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B579" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/livingston-cares/puerto-rico-may-2019</v>
@@ -15461,7 +15461,7 @@
     </row>
     <row r="580">
       <c r="A580" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B580" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/middlestates/working-groups</v>
@@ -15565,19 +15565,19 @@
     </row>
     <row r="584">
       <c r="A584" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B584" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/immediate-deletion-account</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/banner-account-access-student-workers</v>
       </c>
       <c r="C584" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/immediate-deletion-account</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/banner-account-access-student-workers</v>
       </c>
       <c r="D584" t="b">
         <v>0</v>
       </c>
       <c r="E584" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/immediate-deletion-account</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/banner-account-access-student-workers</v>
       </c>
       <c r="F584" t="b">
         <v>1</v>
@@ -15591,19 +15591,19 @@
     </row>
     <row r="585">
       <c r="A585" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B585" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/banner-account-access-student-workers</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/immediate-deletion-account</v>
       </c>
       <c r="C585" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/banner-account-access-student-workers</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/immediate-deletion-account</v>
       </c>
       <c r="D585" t="b">
         <v>0</v>
       </c>
       <c r="E585" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/banner-account-access-student-workers</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/immediate-deletion-account</v>
       </c>
       <c r="F585" t="b">
         <v>1</v>
@@ -15617,7 +15617,7 @@
     </row>
     <row r="586">
       <c r="A586" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B586" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cit/it-asset-management</v>
@@ -15643,7 +15643,7 @@
     </row>
     <row r="587">
       <c r="A587" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B587" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/cit/instructional-design</v>
@@ -15669,19 +15669,19 @@
     </row>
     <row r="588">
       <c r="A588" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B588" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/outgoing-access-changes</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/lms-data-management</v>
       </c>
       <c r="C588" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/outgoing-access-changes</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/lms-data-management</v>
       </c>
       <c r="D588" t="b">
         <v>0</v>
       </c>
       <c r="E588" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/outgoing-access-changes</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/lms-data-management</v>
       </c>
       <c r="F588" t="b">
         <v>1</v>
@@ -15695,19 +15695,19 @@
     </row>
     <row r="589">
       <c r="A589" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B589" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/lms-data-management</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/outgoing-access-changes</v>
       </c>
       <c r="C589" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/lms-data-management</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/outgoing-access-changes</v>
       </c>
       <c r="D589" t="b">
         <v>0</v>
       </c>
       <c r="E589" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cit/lms-data-management</v>
+        <v>http://geneseo-drupal.ddev.site:33000/cit/outgoing-access-changes</v>
       </c>
       <c r="F589" t="b">
         <v>1</v>
@@ -15721,7 +15721,7 @@
     </row>
     <row r="590">
       <c r="A590" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B590" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/discoverycafe/about</v>
@@ -15747,7 +15747,7 @@
     </row>
     <row r="591">
       <c r="A591" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B591" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/greek/pillar-resources</v>
@@ -15799,7 +15799,7 @@
     </row>
     <row r="593">
       <c r="A593" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B593" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/provost/technology-fee-funded-projectsequipment</v>
@@ -15851,7 +15851,7 @@
     </row>
     <row r="595">
       <c r="A595" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B595" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/sa/faxmachine</v>
@@ -15903,7 +15903,7 @@
     </row>
     <row r="597">
       <c r="A597" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B597" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/inter_greek_council/alpha-delta-epsilon</v>
@@ -15929,7 +15929,7 @@
     </row>
     <row r="598">
       <c r="A598" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B598" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/inter_greek_council/alpha-kappa-phi</v>
@@ -15955,7 +15955,7 @@
     </row>
     <row r="599">
       <c r="A599" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B599" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career_design_center/internship_faq</v>
@@ -15981,7 +15981,7 @@
     </row>
     <row r="600">
       <c r="A600" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B600" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/ehs/battery-recycling</v>
@@ -16007,7 +16007,7 @@
     </row>
     <row r="601">
       <c r="A601" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B601" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/greek/award-structure</v>
@@ -16059,7 +16059,7 @@
     </row>
     <row r="603">
       <c r="A603" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B603" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/pepband/about-pep-band</v>
@@ -16085,7 +16085,7 @@
     </row>
     <row r="604">
       <c r="A604" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B604" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/pops/lesson-6</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="610">
       <c r="A610" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B610" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/mail_services/frequently-asked-questions</v>
@@ -16293,7 +16293,7 @@
     </row>
     <row r="612">
       <c r="A612" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B612" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/career-design/for-faculty</v>
@@ -16371,7 +16371,7 @@
     </row>
     <row r="615">
       <c r="A615" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B615" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/phishbowl</v>
@@ -16400,16 +16400,16 @@
         <v>B1-W2</v>
       </c>
       <c r="B616" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/safety/committee_members</v>
+        <v>http://geneseo-drupal.ddev.site:33000/safety</v>
       </c>
       <c r="C616" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/safety/committee_members</v>
+        <v>http://geneseo-drupal.ddev.site:33000/safety</v>
       </c>
       <c r="D616" t="b">
         <v>0</v>
       </c>
       <c r="E616" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/safety/committee_members</v>
+        <v>http://geneseo-drupal.ddev.site:33000/safety</v>
       </c>
       <c r="F616" t="b">
         <v>1</v>
@@ -16423,19 +16423,19 @@
     </row>
     <row r="617">
       <c r="A617" t="str">
-        <v>B1-W2</v>
+        <v>B1-W1</v>
       </c>
       <c r="B617" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/safety</v>
+        <v>http://geneseo-drupal.ddev.site:33000/safety/committee_members</v>
       </c>
       <c r="C617" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/safety</v>
+        <v>http://geneseo-drupal.ddev.site:33000/safety/committee_members</v>
       </c>
       <c r="D617" t="b">
         <v>0</v>
       </c>
       <c r="E617" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/safety</v>
+        <v>http://geneseo-drupal.ddev.site:33000/safety/committee_members</v>
       </c>
       <c r="F617" t="b">
         <v>1</v>
@@ -16449,7 +16449,7 @@
     </row>
     <row r="618">
       <c r="A618" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B618" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/student_employment/guidelines</v>
@@ -16501,7 +16501,7 @@
     </row>
     <row r="620">
       <c r="A620" t="str">
-        <v>B1-W1</v>
+        <v>B1-W2</v>
       </c>
       <c r="B620" t="str">
         <v>http://geneseo-drupal.ddev.site:33000/eap/eap-events</v>
@@ -16551,113 +16551,9 @@
         <v>404</v>
       </c>
     </row>
-    <row r="622">
-      <c r="A622" t="str">
-        <v>B1-W1</v>
-      </c>
-      <c r="B622" t="str">
-        <v>https://www.geneseo.edu/gsc/global-studies-cluster-member-profiles</v>
-      </c>
-      <c r="C622" t="str">
-        <v>https://www.geneseo.edu/gsc/global-studies-cluster-member-profiles</v>
-      </c>
-      <c r="D622" t="b">
-        <v>0</v>
-      </c>
-      <c r="E622" t="str">
-        <v>https://www.geneseo.edu/gsc/global-studies-cluster-member-profiles</v>
-      </c>
-      <c r="F622" t="b">
-        <v>1</v>
-      </c>
-      <c r="G622" t="str">
-        <v>failed</v>
-      </c>
-      <c r="H622">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="str">
-        <v>B1-W2</v>
-      </c>
-      <c r="B623" t="str">
-        <v>https://www.geneseo.edu/cognitive_science/faculty-staff</v>
-      </c>
-      <c r="C623" t="str">
-        <v>https://www.geneseo.edu/cognitive_science/faculty-staff</v>
-      </c>
-      <c r="D623" t="b">
-        <v>0</v>
-      </c>
-      <c r="E623" t="str">
-        <v>https://www.geneseo.edu/cognitive_science/faculty-staff</v>
-      </c>
-      <c r="F623" t="b">
-        <v>1</v>
-      </c>
-      <c r="G623" t="str">
-        <v>failed</v>
-      </c>
-      <c r="H623">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="str">
-        <v>B1-W1</v>
-      </c>
-      <c r="B624" t="str">
-        <v>https://www.geneseo.edu/human_development</v>
-      </c>
-      <c r="C624" t="str">
-        <v>https://www.geneseo.edu/human_development</v>
-      </c>
-      <c r="D624" t="b">
-        <v>0</v>
-      </c>
-      <c r="E624" t="str">
-        <v>https://www.geneseo.edu/human_development</v>
-      </c>
-      <c r="F624" t="b">
-        <v>1</v>
-      </c>
-      <c r="G624" t="str">
-        <v>failed</v>
-      </c>
-      <c r="H624">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="str">
-        <v>B1-W2</v>
-      </c>
-      <c r="B625" t="str">
-        <v>https://www.geneseo.edu/circus-club</v>
-      </c>
-      <c r="C625" t="str">
-        <v>https://www.geneseo.edu/circus-club</v>
-      </c>
-      <c r="D625" t="b">
-        <v>0</v>
-      </c>
-      <c r="E625" t="str">
-        <v>https://www.geneseo.edu/circus-club</v>
-      </c>
-      <c r="F625" t="b">
-        <v>1</v>
-      </c>
-      <c r="G625" t="str">
-        <v>failed</v>
-      </c>
-      <c r="H625">
-        <v>404</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I625"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I621"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-artifacts/url-reports/broken-slugs.xlsx
+++ b/test-artifacts/url-reports/broken-slugs.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>browserId</v>
+        <v>CPT</v>
       </c>
       <c r="B1" t="str">
         <v>originalUrl</v>
@@ -433,19 +433,19 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>B2-W2</v>
+        <v>Basic Page</v>
       </c>
       <c r="B2" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gsc/global-studies-cluster-member-profiles</v>
+        <v>http://localhost/test/apca/AcademicPolicies</v>
       </c>
       <c r="C2" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gsc/global-studies-cluster-member-profiles</v>
+        <v>http://localhost/test/apca/AcademicPolicies</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/gsc/global-studies-cluster-member-profiles</v>
+        <v>http://localhost/test/apca/AcademicPolicies</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -457,21 +457,18 @@
         <v>404</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>B1-W1</v>
+        <v>Basic Page</v>
       </c>
       <c r="B3" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cognitive_science/faculty-staff</v>
+        <v>http://localhost/test/gened/LOC_OtherWorld</v>
       </c>
       <c r="C3" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cognitive_science/faculty-staff</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/cognitive_science/faculty-staff</v>
+        <v>http://localhost/test/gened/LOC_OtherWorld</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -479,25 +476,28 @@
       <c r="G3" t="str">
         <v>failed</v>
       </c>
-      <c r="H3">
-        <v>404</v>
+      <c r="I3" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/gened/LOC_OtherWorld
+Call log:
+_x001b_[2m  - navigating to "http://localhost/test/gened/LOC_OtherWorld", waiting until "domcontentloaded"_x001b_[22m
+</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>B1-W2</v>
+        <v>Basic Page</v>
       </c>
       <c r="B4" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/human_development</v>
+        <v>http://localhost/test/languages_literatures/alumni_resources</v>
       </c>
       <c r="C4" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/human_development</v>
+        <v>http://localhost/test/languages_literatures/alumni_resources</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/human_development</v>
+        <v>http://localhost/test/languages_literatures/alumni_resources</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -511,19 +511,19 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>B2-W3</v>
+        <v>Basic Page</v>
       </c>
       <c r="B5" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/circus-club</v>
+        <v>http://localhost/test/languages_literatures/stay_connected</v>
       </c>
       <c r="C5" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/circus-club</v>
+        <v>http://localhost/test/languages_literatures/stay_connected</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>http://geneseo-drupal.ddev.site:33000/circus-club</v>
+        <v>http://localhost/test/languages_literatures/stay_connected</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -532,12 +532,4146 @@
         <v>failed</v>
       </c>
       <c r="H5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B6" t="str">
+        <v>http://localhost/test/languages_literatures/Willard%20Heller%20receives%20Anthony%20J.%20Papalia%20Award</v>
+      </c>
+      <c r="C6" t="str">
+        <v>http://localhost/test/languages_literatures/Willard%20Heller%20receives%20Anthony%20J.%20Papalia%20Award</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>http://localhost/test/languages_literatures/Willard%20Heller%20receives%20Anthony%20J.%20Papalia%20Award</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H6">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B7" t="str">
+        <v>http://localhost/test/oip</v>
+      </c>
+      <c r="C7" t="str">
+        <v>http://localhost/test/oip</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>http://localhost/test/oip</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B8" t="str">
+        <v>http://localhost/test/police/crime-incident-report</v>
+      </c>
+      <c r="C8" t="str">
+        <v>http://localhost/test/police/crime-incident-report</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>http://localhost/test/police/crime-incident-report</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B9" t="str">
+        <v>http://localhost/test/pops</v>
+      </c>
+      <c r="C9" t="str">
+        <v>http://localhost/test/pops</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>http://localhost/test/pops</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H9">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B10" t="str">
+        <v>http://localhost/test/pops/drop-vs-launch</v>
+      </c>
+      <c r="C10" t="str">
+        <v>http://localhost/test/pops/drop-vs-launch</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>http://localhost/test/pops/drop-vs-launch</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H10">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B11" t="str">
+        <v>http://localhost/test/pops/generator</v>
+      </c>
+      <c r="C11" t="str">
+        <v>http://localhost/test/pops/generator</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>http://localhost/test/pops/generator</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H11">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B12" t="str">
+        <v>http://localhost/test/pops/lesson-2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>http://localhost/test/pops/lesson-2</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v>http://localhost/test/pops/lesson-2</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H12">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B13" t="str">
+        <v>http://localhost/test/pops/lesson-3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>http://localhost/test/pops/lesson-3</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v>http://localhost/test/pops/lesson-3</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H13">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B14" t="str">
+        <v>http://localhost/test/pops/lesson-4</v>
+      </c>
+      <c r="C14" t="str">
+        <v>http://localhost/test/pops/lesson-4</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <v>http://localhost/test/pops/lesson-4</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H14">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B15" t="str">
+        <v>http://localhost/test/pops/lesson-5</v>
+      </c>
+      <c r="C15" t="str">
+        <v>http://localhost/test/pops/lesson-5</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <v>http://localhost/test/pops/lesson-5</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H15">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B16" t="str">
+        <v>http://localhost/test/pops/partner-school-districts</v>
+      </c>
+      <c r="C16" t="str">
+        <v>http://localhost/test/pops/partner-school-districts</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <v>http://localhost/test/pops/partner-school-districts</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H16">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B17" t="str">
+        <v>http://localhost/test/pops/power-physical-science</v>
+      </c>
+      <c r="C17" t="str">
+        <v>http://localhost/test/pops/power-physical-science</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v>http://localhost/test/pops/power-physical-science</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H17">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B18" t="str">
+        <v>http://localhost/test/pops/references</v>
+      </c>
+      <c r="C18" t="str">
+        <v>http://localhost/test/pops/references</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <v>http://localhost/test/pops/references</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H18">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B19" t="str">
+        <v>http://localhost/test/president/2015-convocation-address</v>
+      </c>
+      <c r="C19" t="str">
+        <v>http://localhost/test/president/2015-convocation-address</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <v>http://localhost/test/president/2015-convocation-address</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H19">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B20" t="str">
+        <v>http://localhost/test/president/2016-commencement-address</v>
+      </c>
+      <c r="C20" t="str">
+        <v>http://localhost/test/president/2016-commencement-address</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="str">
+        <v>http://localhost/test/president/2016-commencement-address</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H20">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B21" t="str">
+        <v>http://localhost/test/president/2016-convocation-address</v>
+      </c>
+      <c r="C21" t="str">
+        <v>http://localhost/test/president/2016-convocation-address</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <v>http://localhost/test/president/2016-convocation-address</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H21">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B22" t="str">
+        <v>http://localhost/test/president/2017-commencement-address</v>
+      </c>
+      <c r="C22" t="str">
+        <v>http://localhost/test/president/2017-commencement-address</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
+        <v>http://localhost/test/president/2017-commencement-address</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H22">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B23" t="str">
+        <v>http://localhost/test/president/2017-convocation-address</v>
+      </c>
+      <c r="C23" t="str">
+        <v>http://localhost/test/president/2017-convocation-address</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <v>http://localhost/test/president/2017-convocation-address</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H23">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B24" t="str">
+        <v>http://localhost/test/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
+      </c>
+      <c r="C24" t="str">
+        <v>http://localhost/test/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <v>http://localhost/test/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H24">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B25" t="str">
+        <v>http://localhost/test/president/2018-convocation-address</v>
+      </c>
+      <c r="C25" t="str">
+        <v>http://localhost/test/president/2018-convocation-address</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="str">
+        <v>http://localhost/test/president/2018-convocation-address</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B26" t="str">
+        <v>http://localhost/test/president/2018-commencement-address</v>
+      </c>
+      <c r="C26" t="str">
+        <v>http://localhost/test/president/2018-commencement-address</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="str">
+        <v>http://localhost/test/president/2018-commencement-address</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H26">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B27" t="str">
+        <v>http://localhost/test/president/2020-senior-send-remarks-may-16-2020</v>
+      </c>
+      <c r="C27" t="str">
+        <v>http://localhost/test/president/2020-senior-send-remarks-may-16-2020</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>http://localhost/test/president/2020-senior-send-remarks-may-16-2020</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H27">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B28" t="str">
+        <v>http://localhost/test/president/college-council-april-12-2019</v>
+      </c>
+      <c r="C28" t="str">
+        <v>http://localhost/test/president/college-council-april-12-2019</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <v>http://localhost/test/president/college-council-april-12-2019</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H28">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B29" t="str">
+        <v>http://localhost/test/president/college-council-april-16-2021</v>
+      </c>
+      <c r="C29" t="str">
+        <v>http://localhost/test/president/college-council-april-16-2021</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>http://localhost/test/president/college-council-april-16-2021</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H29">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B30" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-december-3-2021</v>
+      </c>
+      <c r="C30" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-december-3-2021</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-december-3-2021</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H30">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B31" t="str">
+        <v>http://localhost/test/president/college-council-december-4-2020</v>
+      </c>
+      <c r="C31" t="str">
+        <v>http://localhost/test/president/college-council-december-4-2020</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>http://localhost/test/president/college-council-december-4-2020</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H31">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B32" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-october-1-2021</v>
+      </c>
+      <c r="C32" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-october-1-2021</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-october-1-2021</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H32">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B33" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-february-11-2022</v>
+      </c>
+      <c r="C33" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-february-11-2022</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-february-11-2022</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H33">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B34" t="str">
+        <v>http://localhost/test/president/geneseo-150-taking-long-view</v>
+      </c>
+      <c r="C34" t="str">
+        <v>http://localhost/test/president/geneseo-150-taking-long-view</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <v>http://localhost/test/president/geneseo-150-taking-long-view</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H34">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B35" t="str">
+        <v>http://localhost/test/president/college-council-october-16-2020</v>
+      </c>
+      <c r="C35" t="str">
+        <v>http://localhost/test/president/college-council-october-16-2020</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <v>http://localhost/test/president/college-council-october-16-2020</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B36" t="str">
+        <v>http://localhost/test/tag/music</v>
+      </c>
+      <c r="C36" t="str">
+        <v>http://localhost/test/tag/music</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <v>http://localhost/test/tag/music</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H36">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B37" t="str">
+        <v>http://localhost/test/theatre_dance/alumni/2006</v>
+      </c>
+      <c r="C37" t="str">
+        <v>http://localhost/test/theatre_dance/alumni/2006</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <v>http://localhost/test/theatre_dance/alumni/2006</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H37">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B38" t="str">
+        <v>http://localhost/test/theatre_dance/alumni/1980</v>
+      </c>
+      <c r="C38" t="str">
+        <v>http://localhost/test/theatre_dance/alumni/1980</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <v>http://localhost/test/theatre_dance/alumni/1980</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H38">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B39" t="str">
+        <v>http://localhost/test/theatre_dance/scholarships</v>
+      </c>
+      <c r="C39" t="str">
+        <v>http://localhost/test/theatre_dance/scholarships</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <v>http://localhost/test/theatre_dance/scholarships</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H39">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B40" t="str">
+        <v>http://localhost/test/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
+      </c>
+      <c r="C40" t="str">
+        <v>http://localhost/test/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <v>http://localhost/test/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H40">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B41" t="str">
+        <v>http://localhost/test/comparative_literature</v>
+      </c>
+      <c r="C41" t="str">
+        <v>http://localhost/test/comparative_literature</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <v>http://localhost/test/comparative_literature</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H41">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B42" t="str">
+        <v>http://localhost/test/events_office/celebrate-world-kindness-day</v>
+      </c>
+      <c r="C42" t="str">
+        <v>http://localhost/test/events_office/celebrate-world-kindness-day</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <v>http://localhost/test/events_office/celebrate-world-kindness-day</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H42">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B43" t="str">
+        <v>http://localhost/test/president/high-expectations-exceptional-outcomes</v>
+      </c>
+      <c r="C43" t="str">
+        <v>http://localhost/test/president/high-expectations-exceptional-outcomes</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>http://localhost/test/president/high-expectations-exceptional-outcomes</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H43">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B44" t="str">
+        <v>http://localhost/test/tag/humanities-athens-2011</v>
+      </c>
+      <c r="C44" t="str">
+        <v>http://localhost/test/tag/humanities-athens-2011</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <v>http://localhost/test/tag/humanities-athens-2011</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H44">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B45" t="str">
+        <v>http://localhost/test/tag/oxford</v>
+      </c>
+      <c r="C45" t="str">
+        <v>http://localhost/test/tag/oxford</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <v>http://localhost/test/tag/oxford</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H45">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B46" t="str">
+        <v>http://localhost/test/tag/ireland</v>
+      </c>
+      <c r="C46" t="str">
+        <v>http://localhost/test/tag/ireland</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <v>http://localhost/test/tag/ireland</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H46">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B47" t="str">
+        <v>http://localhost/test/theatre_dance/contact2</v>
+      </c>
+      <c r="C47" t="str">
+        <v>http://localhost/test/theatre_dance/contact2</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <v>http://localhost/test/theatre_dance/contact2</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H47">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B48" t="str">
+        <v>http://localhost/test/tag/photos</v>
+      </c>
+      <c r="C48" t="str">
+        <v>http://localhost/test/tag/photos</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <v>http://localhost/test/tag/photos</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H48">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B49" t="str">
+        <v>http://localhost/test/node/6664</v>
+      </c>
+      <c r="C49" t="str">
+        <v>http://localhost/test/node/6664</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <v>http://localhost/test/node/6664</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H49">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B50" t="str">
+        <v>http://localhost/test/president/advancing-our-distinction-bold-vision-geneseo</v>
+      </c>
+      <c r="C50" t="str">
+        <v>http://localhost/test/president/advancing-our-distinction-bold-vision-geneseo</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <v>http://localhost/test/president/advancing-our-distinction-bold-vision-geneseo</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H50">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B51" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-october-28-2022</v>
+      </c>
+      <c r="C51" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-october-28-2022</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-october-28-2022</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H51">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B52" t="str">
+        <v>http://localhost/test/provost/enhance-campus-infrastructure-help-students-navigate-college-wig</v>
+      </c>
+      <c r="C52" t="str">
+        <v>http://localhost/test/provost/enhance-campus-infrastructure-help-students-navigate-college-wig</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <v>http://localhost/test/provost/enhance-campus-infrastructure-help-students-navigate-college-wig</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H52">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B53" t="str">
+        <v>http://localhost/test/provost/respond-to-student-stresses-wig</v>
+      </c>
+      <c r="C53" t="str">
+        <v>http://localhost/test/provost/respond-to-student-stresses-wig</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>http://localhost/test/provost/respond-to-student-stresses-wig</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H53">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B54" t="str">
+        <v>http://localhost/test/art_history</v>
+      </c>
+      <c r="C54" t="str">
+        <v>http://localhost/test/art_history</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>http://localhost/test/art_history</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H54">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B55" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-december-9-2022</v>
+      </c>
+      <c r="C55" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-december-9-2022</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-december-9-2022</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H55">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B56" t="str">
+        <v>http://localhost/test/safety/final_reports</v>
+      </c>
+      <c r="C56" t="str">
+        <v>http://localhost/test/safety/final_reports</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>http://localhost/test/safety/final_reports</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H56">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B57" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-april-8-2022</v>
+      </c>
+      <c r="C57" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-april-8-2022</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-april-8-2022</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H57">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B58" t="str">
+        <v>http://localhost/test/theatre_dance/scholarship-recipients</v>
+      </c>
+      <c r="C58" t="str">
+        <v>http://localhost/test/theatre_dance/scholarship-recipients</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <v>http://localhost/test/theatre_dance/scholarship-recipients</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H58">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B59" t="str">
+        <v>http://localhost/test/president/2021-undergraduate-commencement-remarks</v>
+      </c>
+      <c r="C59" t="str">
+        <v>http://localhost/test/president/2021-undergraduate-commencement-remarks</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <v>http://localhost/test/president/2021-undergraduate-commencement-remarks</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H59">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B60" t="str">
+        <v>http://localhost/test/president/2022-undergraduate-commencement-remarks</v>
+      </c>
+      <c r="C60" t="str">
+        <v>http://localhost/test/president/2022-undergraduate-commencement-remarks</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <v>http://localhost/test/president/2022-undergraduate-commencement-remarks</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H60">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B61" t="str">
+        <v>http://localhost/test/president/2023-undergraduate-commencement-remarks</v>
+      </c>
+      <c r="C61" t="str">
+        <v>http://localhost/test/president/2023-undergraduate-commencement-remarks</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <v>http://localhost/test/president/2023-undergraduate-commencement-remarks</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H61">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B62" t="str">
+        <v>http://localhost/test/apca/curriculum-links</v>
+      </c>
+      <c r="C62" t="str">
+        <v>http://localhost/test/apca/curriculum-links</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <v>http://localhost/test/apca/curriculum-links</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H62">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B63" t="str">
+        <v>http://localhost/test/president/geneseo-redefining-honors-experience</v>
+      </c>
+      <c r="C63" t="str">
+        <v>http://localhost/test/president/geneseo-redefining-honors-experience</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <v>http://localhost/test/president/geneseo-redefining-honors-experience</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H63">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B64" t="str">
+        <v>http://localhost/test/lets-talk</v>
+      </c>
+      <c r="C64" t="str">
+        <v>http://localhost/test/lets-talk</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <v>http://localhost/test/lets-talk</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H64">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B65" t="str">
+        <v>http://localhost/test/accessibility-office/how-schedule-test-testing-center</v>
+      </c>
+      <c r="C65" t="str">
+        <v>http://localhost/test/accessibility-office/how-schedule-test-testing-center</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <v>http://localhost/test/accessibility-office/how-schedule-test-testing-center</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H65">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B66" t="str">
+        <v>http://localhost/test/lgbtq/alumni-network</v>
+      </c>
+      <c r="C66" t="str">
+        <v>http://localhost/test/lgbtq/alumni-network</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <v>http://localhost/test/lgbtq/alumni-network</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H66">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B67" t="str">
+        <v>http://localhost/test/theatre_dance</v>
+      </c>
+      <c r="C67" t="str">
+        <v>http://localhost/test/theatre_dance</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <v>http://localhost/test/theatre_dance</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H67">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B68" t="str">
+        <v>http://localhost/test/sustainability/about-the-commission</v>
+      </c>
+      <c r="C68" t="str">
+        <v>http://localhost/test/sustainability/about-the-commission</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <v>http://localhost/test/sustainability/about-the-commission</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H68">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B69" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-february-10-2023</v>
+      </c>
+      <c r="C69" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-february-10-2023</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-february-10-2023</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H69">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B70" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-may-5-2023</v>
+      </c>
+      <c r="C70" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-may-5-2023</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-may-5-2023</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H70">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B71" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-october-6-2023</v>
+      </c>
+      <c r="C71" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-october-6-2023</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <v>http://localhost/test/president/college-council-meeting-minutes-october-6-2023</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H71">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B72" t="str">
+        <v>http://localhost/test/business/newsletter</v>
+      </c>
+      <c r="C72" t="str">
+        <v>http://localhost/test/business/newsletter</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v>http://localhost/test/business/newsletter</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H72">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B73" t="str">
+        <v>http://localhost/test/apca/OnlineCourses</v>
+      </c>
+      <c r="C73" t="str">
+        <v>http://localhost/test/apca/OnlineCourses</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <v>http://localhost/test/apca/OnlineCourses</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H73">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B74" t="str">
+        <v>http://localhost/test/business/school-business-our-commitment-dei</v>
+      </c>
+      <c r="C74" t="str">
+        <v>http://localhost/test/business/school-business-our-commitment-dei</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <v>http://localhost/test/business/school-business-our-commitment-dei</v>
+      </c>
+      <c r="F74" t="b">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H74">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B75" t="str">
+        <v>http://localhost/test/apca/CurrPoliRevision</v>
+      </c>
+      <c r="C75" t="str">
+        <v>http://localhost/test/apca/CurrPoliRevision</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v>http://localhost/test/apca/CurrPoliRevision</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H75">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B76" t="str">
+        <v>http://localhost/test/president/actions-toward-becoming-more-racially-equitable-and-inclusive-college</v>
+      </c>
+      <c r="C76" t="str">
+        <v>http://localhost/test/president/actions-toward-becoming-more-racially-equitable-and-inclusive-college</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <v>http://localhost/test/president/actions-toward-becoming-more-racially-equitable-and-inclusive-college</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H76">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B77" t="str">
+        <v>http://localhost/test/president/enduring-power-liberal-arts-education</v>
+      </c>
+      <c r="C77" t="str">
+        <v>http://localhost/test/president/enduring-power-liberal-arts-education</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <v>http://localhost/test/president/enduring-power-liberal-arts-education</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H77">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B78" t="str">
+        <v>http://localhost/test/career-design/contact-career-design-center</v>
+      </c>
+      <c r="C78" t="str">
+        <v>http://localhost/test/career-design/contact-career-design-center</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <v>http://localhost/test/career-design/contact-career-design-center</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H78">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B79" t="str">
+        <v>http://localhost/test/president/2024-undergraduate-commencement-remarks-may-18-2024</v>
+      </c>
+      <c r="C79" t="str">
+        <v>http://localhost/test/president/2024-undergraduate-commencement-remarks-may-18-2024</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <v>http://localhost/test/president/2024-undergraduate-commencement-remarks-may-18-2024</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H79">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B80" t="str">
+        <v>http://localhost/test/education/ability-completers-be-hired</v>
+      </c>
+      <c r="C80" t="str">
+        <v>http://localhost/test/education/ability-completers-be-hired</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <v>http://localhost/test/education/ability-completers-be-hired</v>
+      </c>
+      <c r="F80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H80">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B81" t="str">
+        <v>http://localhost/test/apca/assessment-and-curriculum</v>
+      </c>
+      <c r="C81" t="str">
+        <v>http://localhost/test/apca/assessment-and-curriculum</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <v>http://localhost/test/apca/assessment-and-curriculum</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H81">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B82" t="str">
+        <v>http://localhost/test/president/message-president-denise-battles-august-23-2024</v>
+      </c>
+      <c r="C82" t="str">
+        <v>http://localhost/test/president/message-president-denise-battles-august-23-2024</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <v>http://localhost/test/president/message-president-denise-battles-august-23-2024</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H82">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B83" t="str">
+        <v>http://localhost/test/president/presidential-statements</v>
+      </c>
+      <c r="C83" t="str">
+        <v>http://localhost/test/president/presidential-statements</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <v>http://localhost/test/president/presidential-statements</v>
+      </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H83">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B84" t="str">
+        <v>http://localhost/test/apca/graduate_studies</v>
+      </c>
+      <c r="C84" t="str">
+        <v/>
+      </c>
+      <c r="E84" t="str">
+        <v>http://localhost/test/apca/graduate_studies</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I84" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/apca/graduate_studies
+Call log:
+_x001b_[2m  - navigating to "http://localhost/test/apca/graduate_studies", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B85" t="str">
+        <v>http://localhost/test/sefa/charities-united-way-greater-rocheser-and-finger-lakes</v>
+      </c>
+      <c r="C85" t="str">
+        <v>http://localhost/test/sefa/charities-united-way-greater-rocheser-and-finger-lakes</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <v>http://localhost/test/sefa/charities-united-way-greater-rocheser-and-finger-lakes</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H85">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B86" t="str">
+        <v>http://localhost/test/sefa/letters-support</v>
+      </c>
+      <c r="C86" t="str">
+        <v>http://localhost/test/sefa/letters-support</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <v>http://localhost/test/sefa/letters-support</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H86">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B87" t="str">
+        <v>http://localhost/test/student_employment/student-faq</v>
+      </c>
+      <c r="C87" t="str">
+        <v>http://localhost/test/student_employment/student-faq</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <v>http://localhost/test/student_employment/student-faq</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H87">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B88" t="str">
+        <v>http://localhost/test/education/call-third-party-comment</v>
+      </c>
+      <c r="C88" t="str">
+        <v>http://localhost/test/education/call-third-party-comment</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <v>http://localhost/test/education/call-third-party-comment</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H88">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B89" t="str">
+        <v>http://localhost/test/cit/telephone</v>
+      </c>
+      <c r="C89" t="str">
+        <v>http://localhost/test/cit/telephone</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <v>http://localhost/test/cit/telephone</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H89">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B90" t="str">
+        <v>http://localhost/test/writing-program/meet-our-wlc-tutors</v>
+      </c>
+      <c r="C90" t="str">
+        <v>http://localhost/test/writing-program/meet-our-wlc-tutors</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <v>http://localhost/test/writing-program/meet-our-wlc-tutors</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H90">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B91" t="str">
+        <v>http://localhost/test/international/international-student-scholar-services-office</v>
+      </c>
+      <c r="C91" t="str">
+        <v>http://localhost/test/international/international-student-scholar-services-office</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <v>http://localhost/test/international/international-student-scholar-services-office</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H91">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B92" t="str">
+        <v>http://localhost/test/uaa/leadership-council-directory-fall-2024</v>
+      </c>
+      <c r="C92" t="str">
+        <v>http://localhost/test/uaa/leadership-council-directory-fall-2024</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <v>http://localhost/test/uaa/leadership-council-directory-fall-2024</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H92">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B93" t="str">
+        <v>http://localhost/test/ehs</v>
+      </c>
+      <c r="C93" t="str">
+        <v>http://localhost/test/ehs</v>
+      </c>
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <v>http://localhost/test/ehs</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H93">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B94" t="str">
+        <v>http://localhost/test/theatre_dance/alumni</v>
+      </c>
+      <c r="C94" t="str">
+        <v>http://localhost/test/theatre_dance/alumni</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <v>http://localhost/test/theatre_dance/alumni</v>
+      </c>
+      <c r="F94" t="b">
+        <v>1</v>
+      </c>
+      <c r="G94" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H94">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B95" t="str">
+        <v>http://localhost/test/student_employment</v>
+      </c>
+      <c r="C95" t="str">
+        <v>http://localhost/test/student_employment</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <v>http://localhost/test/student_employment</v>
+      </c>
+      <c r="F95" t="b">
+        <v>1</v>
+      </c>
+      <c r="G95" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H95">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B96" t="str">
+        <v>http://localhost/test/political_science</v>
+      </c>
+      <c r="C96" t="str">
+        <v>http://localhost/test/political_science</v>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <v>http://localhost/test/political_science</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H96">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B97" t="str">
+        <v>http://localhost/test/advising/current-dean-and-president-lists</v>
+      </c>
+      <c r="C97" t="str">
+        <v>http://localhost/test/advising/current-dean-and-president-lists</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <v>http://localhost/test/advising/current-dean-and-president-lists</v>
+      </c>
+      <c r="F97" t="b">
+        <v>1</v>
+      </c>
+      <c r="G97" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H97">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B98" t="str">
+        <v>http://localhost/test/music/certificate-programs-music</v>
+      </c>
+      <c r="C98" t="str">
+        <v>http://localhost/test/music/certificate-programs-music</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <v>http://localhost/test/music/certificate-programs-music</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H98">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B99" t="str">
+        <v>http://localhost/test/gened/LOC_Lang</v>
+      </c>
+      <c r="C99" t="str">
+        <v/>
+      </c>
+      <c r="E99" t="str">
+        <v>http://localhost/test/gened/LOC_Lang</v>
+      </c>
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I99" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/gened/LOC_Lang
+Call log:
+_x001b_[2m  - navigating to "http://localhost/test/gened/LOC_Lang", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B100" t="str">
+        <v>http://localhost/test/president/tribute-president-dahl</v>
+      </c>
+      <c r="C100" t="str">
+        <v>http://localhost/test/president/tribute-president-dahl</v>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <v>http://localhost/test/president/tribute-president-dahl</v>
+      </c>
+      <c r="F100" t="b">
+        <v>1</v>
+      </c>
+      <c r="G100" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H100">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B101" t="str">
+        <v>http://localhost/test/sociology/sociology-alumni-0</v>
+      </c>
+      <c r="C101" t="str">
+        <v>http://localhost/test/sociology/sociology-alumni-0</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="str">
+        <v>http://localhost/test/sociology/sociology-alumni-0</v>
+      </c>
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+      <c r="G101" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H101">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B102" t="str">
+        <v>http://localhost/test/residence-life/move-information-spring-2025</v>
+      </c>
+      <c r="C102" t="str">
+        <v>http://localhost/test/residence-life/move-information-spring-2025</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="str">
+        <v>http://localhost/test/residence-life/move-information-spring-2025</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H102">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B103" t="str">
+        <v>http://localhost/test/education/accreditation-process/candidate-competency-completion</v>
+      </c>
+      <c r="C103" t="str">
+        <v>http://localhost/test/education/accreditation-process/candidate-competency-completion</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <v>http://localhost/test/education/accreditation-process/candidate-competency-completion</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+      <c r="G103" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H103">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B104" t="str">
+        <v>http://localhost/test/education/accreditation-process/completer-effectiveness</v>
+      </c>
+      <c r="C104" t="str">
+        <v>http://localhost/test/education/accreditation-process/completer-effectiveness</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="str">
+        <v>http://localhost/test/education/accreditation-process/completer-effectiveness</v>
+      </c>
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H104">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B105" t="str">
+        <v>http://localhost/test/education/accreditation-process/satisfaction-employers-and-stakeholder-involvement</v>
+      </c>
+      <c r="C105" t="str">
+        <v>http://localhost/test/education/accreditation-process/satisfaction-employers-and-stakeholder-involvement</v>
+      </c>
+      <c r="D105" t="b">
+        <v>0</v>
+      </c>
+      <c r="E105" t="str">
+        <v>http://localhost/test/education/accreditation-process/satisfaction-employers-and-stakeholder-involvement</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H105">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B106" t="str">
+        <v>http://localhost/test/sociomedical_sciences/study-abroadaway-sociomedical-sciences-student</v>
+      </c>
+      <c r="C106" t="str">
+        <v>http://localhost/test/sociomedical_sciences/study-abroadaway-sociomedical-sciences-student</v>
+      </c>
+      <c r="D106" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" t="str">
+        <v>http://localhost/test/sociomedical_sciences/study-abroadaway-sociomedical-sciences-student</v>
+      </c>
+      <c r="F106" t="b">
+        <v>1</v>
+      </c>
+      <c r="G106" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H106">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B107" t="str">
+        <v>http://localhost/test/writing-program/writing-learning-center</v>
+      </c>
+      <c r="C107" t="str">
+        <v>http://localhost/test/writing-program/writing-learning-center</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="str">
+        <v>http://localhost/test/writing-program/writing-learning-center</v>
+      </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H107">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B108" t="str">
+        <v>http://localhost/test/president/addresses</v>
+      </c>
+      <c r="C108" t="str">
+        <v>http://localhost/test/president/addresses</v>
+      </c>
+      <c r="D108" t="b">
+        <v>0</v>
+      </c>
+      <c r="E108" t="str">
+        <v>http://localhost/test/president/addresses</v>
+      </c>
+      <c r="F108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H108">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B109" t="str">
+        <v>http://localhost/test/president/opening-convocation-address-geneseo-generations</v>
+      </c>
+      <c r="C109" t="str">
+        <v>http://localhost/test/president/opening-convocation-address-geneseo-generations</v>
+      </c>
+      <c r="D109" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" t="str">
+        <v>http://localhost/test/president/opening-convocation-address-geneseo-generations</v>
+      </c>
+      <c r="F109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H109">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B110" t="str">
+        <v>http://localhost/test/admissions/essay-elevate-ibee-summer-essay-workshop</v>
+      </c>
+      <c r="C110" t="str">
+        <v>http://localhost/test/admissions/essay-elevate-ibee-summer-essay-workshop</v>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="str">
+        <v>http://localhost/test/admissions/essay-elevate-ibee-summer-essay-workshop</v>
+      </c>
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H110">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B111" t="str">
+        <v>http://localhost/test/cas/sushi-platters</v>
+      </c>
+      <c r="C111" t="str">
+        <v>http://localhost/test/cas/sushi-platters</v>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="str">
+        <v>http://localhost/test/cas/sushi-platters</v>
+      </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H111">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B112" t="str">
+        <v>http://localhost/test/languages_literatures/Nosotros%20-%20About%20us</v>
+      </c>
+      <c r="C112" t="str">
+        <v>http://localhost/test/languages_literatures/Nosotros%20-%20About%20us</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="str">
+        <v>http://localhost/test/languages_literatures/Nosotros%20-%20About%20us</v>
+      </c>
+      <c r="F112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H112">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B113" t="str">
+        <v>http://localhost/test/president/2015-inaugural-address</v>
+      </c>
+      <c r="C113" t="str">
+        <v>http://localhost/test/president/2015-inaugural-address</v>
+      </c>
+      <c r="D113" t="b">
+        <v>0</v>
+      </c>
+      <c r="E113" t="str">
+        <v>http://localhost/test/president/2015-inaugural-address</v>
+      </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H113">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
+      <c r="A114" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B114" t="str">
+        <v>http://localhost/test/comparative_literature/faq</v>
+      </c>
+      <c r="C114" t="str">
+        <v/>
+      </c>
+      <c r="E114" t="str">
+        <v>http://localhost/test/comparative_literature/faq</v>
+      </c>
+      <c r="F114" t="b">
+        <v>1</v>
+      </c>
+      <c r="G114" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I114" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/comparative_literature/faq
+Call log:
+_x001b_[2m  - navigating to "http://localhost/test/comparative_literature/faq", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="115" xml:space="preserve">
+      <c r="A115" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B115" t="str">
+        <v>http://localhost/test/gened/LOC_Writing</v>
+      </c>
+      <c r="C115" t="str">
+        <v/>
+      </c>
+      <c r="E115" t="str">
+        <v>http://localhost/test/gened/LOC_Writing</v>
+      </c>
+      <c r="F115" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I115" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/gened/LOC_Writing
+Call log:
+_x001b_[2m  - navigating to "http://localhost/test/gened/LOC_Writing", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B116" t="str">
+        <v>http://localhost/test/pops/lesson-6</v>
+      </c>
+      <c r="C116" t="str">
+        <v>http://localhost/test/pops/lesson-6</v>
+      </c>
+      <c r="D116" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" t="str">
+        <v>http://localhost/test/pops/lesson-6</v>
+      </c>
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
+      <c r="G116" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H116">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B117" t="str">
+        <v>http://localhost/test/pops/state-standards</v>
+      </c>
+      <c r="C117" t="str">
+        <v>http://localhost/test/pops/state-standards</v>
+      </c>
+      <c r="D117" t="b">
+        <v>0</v>
+      </c>
+      <c r="E117" t="str">
+        <v>http://localhost/test/pops/state-standards</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H117">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B118" t="str">
+        <v>http://localhost/test/ire/institutional-research-discovery-dashboards</v>
+      </c>
+      <c r="C118" t="str">
+        <v>http://localhost/test/ire/institutional-research-discovery-dashboards</v>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="str">
+        <v>http://localhost/test/ire/institutional-research-discovery-dashboards</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H118">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B119" t="str">
+        <v>http://localhost/test/cil/explore-ial-experiences</v>
+      </c>
+      <c r="C119" t="str">
+        <v>http://localhost/test/cil/explore-ial-experiences</v>
+      </c>
+      <c r="D119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" t="str">
+        <v>http://localhost/test/cil/explore-ial-experiences</v>
+      </c>
+      <c r="F119" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H119">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Basic Page</v>
+      </c>
+      <c r="B120" t="str">
+        <v>http://localhost/test/volunteer_center/pantry-coordinators</v>
+      </c>
+      <c r="C120" t="str">
+        <v>http://localhost/test/volunteer_center/pantry-coordinators</v>
+      </c>
+      <c r="D120" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" t="str">
+        <v>http://localhost/test/volunteer_center/pantry-coordinators</v>
+      </c>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H120">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Advanced Page</v>
+      </c>
+      <c r="B121" t="str">
+        <v>http://localhost/test/global-languages-cultures/global-languages-cultures-department-news</v>
+      </c>
+      <c r="C121" t="str">
+        <v>http://localhost/test/global-languages-cultures/global-languages-cultures-department-news</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="str">
+        <v>http://localhost/test/global-languages-cultures/global-languages-cultures-department-news</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H121">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B122" t="str">
+        <v>http://localhost/test/academic-program-finder/womens-and-gender-studies</v>
+      </c>
+      <c r="C122" t="str">
+        <v>http://localhost/test/academic-program-finder/womens-and-gender-studies</v>
+      </c>
+      <c r="D122" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" t="str">
+        <v>http://localhost/test/academic-program-finder/womens-and-gender-studies</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H122">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Department News</v>
+      </c>
+      <c r="B123" t="str">
+        <v>http://localhost/test/theatre_dance/randy-barbara-kaplan-included-rochester-women-who-changed-world-exhibit</v>
+      </c>
+      <c r="C123" t="str">
+        <v>http://localhost/test/theatre_dance/randy-barbara-kaplan-included-rochester-women-who-changed-world-exhibit</v>
+      </c>
+      <c r="D123" t="b">
+        <v>0</v>
+      </c>
+      <c r="E123" t="str">
+        <v>http://localhost/test/theatre_dance/randy-barbara-kaplan-included-rochester-women-who-changed-world-exhibit</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H123">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Department News</v>
+      </c>
+      <c r="B124" t="str">
+        <v>http://localhost/test/theatre_dance/well-known-actor-bd-wong-shows-support-genseng</v>
+      </c>
+      <c r="C124" t="str">
+        <v>http://localhost/test/theatre_dance/well-known-actor-bd-wong-shows-support-genseng</v>
+      </c>
+      <c r="D124" t="b">
+        <v>0</v>
+      </c>
+      <c r="E124" t="str">
+        <v>http://localhost/test/theatre_dance/well-known-actor-bd-wong-shows-support-genseng</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H124">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Department News</v>
+      </c>
+      <c r="B125" t="str">
+        <v>http://localhost/test/global-languages-cultures/supporting-ukraine-diversity-summit-0</v>
+      </c>
+      <c r="C125" t="str">
+        <v>http://localhost/test/global-languages-cultures/supporting-ukraine-diversity-summit-0</v>
+      </c>
+      <c r="D125" t="b">
+        <v>0</v>
+      </c>
+      <c r="E125" t="str">
+        <v>http://localhost/test/global-languages-cultures/supporting-ukraine-diversity-summit-0</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H125">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Department News</v>
+      </c>
+      <c r="B126" t="str">
+        <v>http://localhost/test/provost/geneseo-dance-department-students-attend-suny-undergraduate-research-conference</v>
+      </c>
+      <c r="C126" t="str">
+        <v>http://localhost/test/provost/geneseo-dance-department-students-attend-suny-undergraduate-research-conference</v>
+      </c>
+      <c r="D126" t="b">
+        <v>0</v>
+      </c>
+      <c r="E126" t="str">
+        <v>http://localhost/test/provost/geneseo-dance-department-students-attend-suny-undergraduate-research-conference</v>
+      </c>
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H126">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>News Article</v>
+      </c>
+      <c r="B127" t="str">
+        <v>http://localhost/test/news/creative-writing-student-earns-fulbright-award-israel</v>
+      </c>
+      <c r="C127" t="str">
+        <v>http://localhost/test/news/creative-writing-student-earns-fulbright-award-israel</v>
+      </c>
+      <c r="D127" t="b">
+        <v>0</v>
+      </c>
+      <c r="E127" t="str">
+        <v>http://localhost/test/news/creative-writing-student-earns-fulbright-award-israel</v>
+      </c>
+      <c r="F127" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H127">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B128" t="str">
+        <v>http://localhost/test/theatre_dance/cferrell</v>
+      </c>
+      <c r="C128" t="str">
+        <v>http://localhost/test/theatre_dance/cferrell</v>
+      </c>
+      <c r="D128" t="b">
+        <v>0</v>
+      </c>
+      <c r="E128" t="str">
+        <v>http://localhost/test/theatre_dance/cferrell</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H128">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B129" t="str">
+        <v>http://localhost/test/theatre_dance/mccausland</v>
+      </c>
+      <c r="C129" t="str">
+        <v>http://localhost/test/theatre_dance/mccausland</v>
+      </c>
+      <c r="D129" t="b">
+        <v>0</v>
+      </c>
+      <c r="E129" t="str">
+        <v>http://localhost/test/theatre_dance/mccausland</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H129">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B130" t="str">
+        <v>http://localhost/test/theatre_dance/wesp</v>
+      </c>
+      <c r="C130" t="str">
+        <v>http://localhost/test/theatre_dance/wesp</v>
+      </c>
+      <c r="D130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E130" t="str">
+        <v>http://localhost/test/theatre_dance/wesp</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H130">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B131" t="str">
+        <v>http://localhost/test/math/christopher-leary</v>
+      </c>
+      <c r="C131" t="str">
+        <v>http://localhost/test/math/christopher-leary</v>
+      </c>
+      <c r="D131" t="b">
+        <v>0</v>
+      </c>
+      <c r="E131" t="str">
+        <v>http://localhost/test/math/christopher-leary</v>
+      </c>
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H131">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B132" t="str">
+        <v>http://localhost/test/business/rozbeh-madadi</v>
+      </c>
+      <c r="C132" t="str">
+        <v>http://localhost/test/business/rozbeh-madadi</v>
+      </c>
+      <c r="D132" t="b">
+        <v>0</v>
+      </c>
+      <c r="E132" t="str">
+        <v>http://localhost/test/business/rozbeh-madadi</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H132">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B133" t="str">
+        <v>http://localhost/test/business/jeffrey-donlon</v>
+      </c>
+      <c r="C133" t="str">
+        <v>http://localhost/test/business/jeffrey-donlon</v>
+      </c>
+      <c r="D133" t="b">
+        <v>0</v>
+      </c>
+      <c r="E133" t="str">
+        <v>http://localhost/test/business/jeffrey-donlon</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H133">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B134" t="str">
+        <v>http://localhost/test/business/stephen-miskell</v>
+      </c>
+      <c r="C134" t="str">
+        <v>http://localhost/test/business/stephen-miskell</v>
+      </c>
+      <c r="D134" t="b">
+        <v>0</v>
+      </c>
+      <c r="E134" t="str">
+        <v>http://localhost/test/business/stephen-miskell</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H134">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B135" t="str">
+        <v>http://localhost/test/node/84669</v>
+      </c>
+      <c r="C135" t="str">
+        <v>http://localhost/test/node/84669</v>
+      </c>
+      <c r="D135" t="b">
+        <v>0</v>
+      </c>
+      <c r="E135" t="str">
+        <v>http://localhost/test/node/84669</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H135">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B136" t="str">
+        <v>http://localhost/test/communication/sarah-devito</v>
+      </c>
+      <c r="C136" t="str">
+        <v>http://localhost/test/communication/sarah-devito</v>
+      </c>
+      <c r="D136" t="b">
+        <v>0</v>
+      </c>
+      <c r="E136" t="str">
+        <v>http://localhost/test/communication/sarah-devito</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H136">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B137" t="str">
+        <v>http://localhost/test/chang</v>
+      </c>
+      <c r="C137" t="str">
+        <v>http://localhost/test/chang</v>
+      </c>
+      <c r="D137" t="b">
+        <v>0</v>
+      </c>
+      <c r="E137" t="str">
+        <v>http://localhost/test/chang</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H137">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B138" t="str">
+        <v>http://localhost/test/music/russell-scarbrough</v>
+      </c>
+      <c r="C138" t="str">
+        <v>http://localhost/test/music/russell-scarbrough</v>
+      </c>
+      <c r="D138" t="b">
+        <v>0</v>
+      </c>
+      <c r="E138" t="str">
+        <v>http://localhost/test/music/russell-scarbrough</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H138">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B139" t="str">
+        <v>http://localhost/test/music/nathan-ukens</v>
+      </c>
+      <c r="C139" t="str">
+        <v>http://localhost/test/music/nathan-ukens</v>
+      </c>
+      <c r="D139" t="b">
+        <v>0</v>
+      </c>
+      <c r="E139" t="str">
+        <v>http://localhost/test/music/nathan-ukens</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H139">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B140" t="str">
+        <v>http://localhost/test/residence-life/philip-brookes</v>
+      </c>
+      <c r="C140" t="str">
+        <v>http://localhost/test/residence-life/philip-brookes</v>
+      </c>
+      <c r="D140" t="b">
+        <v>0</v>
+      </c>
+      <c r="E140" t="str">
+        <v>http://localhost/test/residence-life/philip-brookes</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H140">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B141" t="str">
+        <v>http://localhost/test/provost/mary-c-toale</v>
+      </c>
+      <c r="C141" t="str">
+        <v>http://localhost/test/provost/mary-c-toale</v>
+      </c>
+      <c r="D141" t="b">
+        <v>0</v>
+      </c>
+      <c r="E141" t="str">
+        <v>http://localhost/test/provost/mary-c-toale</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H141">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B142" t="str">
+        <v>http://localhost/test/music/tiller</v>
+      </c>
+      <c r="C142" t="str">
+        <v>http://localhost/test/music/tiller</v>
+      </c>
+      <c r="D142" t="b">
+        <v>0</v>
+      </c>
+      <c r="E142" t="str">
+        <v>http://localhost/test/music/tiller</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H142">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B143" t="str">
+        <v>http://localhost/test/music/tiberio</v>
+      </c>
+      <c r="C143" t="str">
+        <v>http://localhost/test/music/tiberio</v>
+      </c>
+      <c r="D143" t="b">
+        <v>0</v>
+      </c>
+      <c r="E143" t="str">
+        <v>http://localhost/test/music/tiberio</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H143">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B144" t="str">
+        <v>http://localhost/test/psychology/anjoo-sikka</v>
+      </c>
+      <c r="C144" t="str">
+        <v>http://localhost/test/psychology/anjoo-sikka</v>
+      </c>
+      <c r="D144" t="b">
+        <v>0</v>
+      </c>
+      <c r="E144" t="str">
+        <v>http://localhost/test/psychology/anjoo-sikka</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H144">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B145" t="str">
+        <v>http://localhost/test/global-languages-cultures/isaac-veysey-white</v>
+      </c>
+      <c r="C145" t="str">
+        <v>http://localhost/test/global-languages-cultures/isaac-veysey-white</v>
+      </c>
+      <c r="D145" t="b">
+        <v>0</v>
+      </c>
+      <c r="E145" t="str">
+        <v>http://localhost/test/global-languages-cultures/isaac-veysey-white</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H145">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B146" t="str">
+        <v>http://localhost/test/sociology/anne-eisenberg</v>
+      </c>
+      <c r="C146" t="str">
+        <v>http://localhost/test/sociology/anne-eisenberg</v>
+      </c>
+      <c r="D146" t="b">
+        <v>0</v>
+      </c>
+      <c r="E146" t="str">
+        <v>http://localhost/test/sociology/anne-eisenberg</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H146">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B147" t="str">
+        <v>http://localhost/test/education/morgan</v>
+      </c>
+      <c r="C147" t="str">
+        <v>http://localhost/test/education/morgan</v>
+      </c>
+      <c r="D147" t="b">
+        <v>0</v>
+      </c>
+      <c r="E147" t="str">
+        <v>http://localhost/test/education/morgan</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H147">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B148" t="str">
+        <v>http://localhost/test/music/sholl</v>
+      </c>
+      <c r="C148" t="str">
+        <v>http://localhost/test/music/sholl</v>
+      </c>
+      <c r="D148" t="b">
+        <v>0</v>
+      </c>
+      <c r="E148" t="str">
+        <v>http://localhost/test/music/sholl</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H148">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B149" t="str">
+        <v>http://localhost/test/gsc/andrew-hart</v>
+      </c>
+      <c r="C149" t="str">
+        <v>http://localhost/test/gsc/andrew-hart</v>
+      </c>
+      <c r="D149" t="b">
+        <v>0</v>
+      </c>
+      <c r="E149" t="str">
+        <v>http://localhost/test/gsc/andrew-hart</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H149">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B150" t="str">
+        <v>http://localhost/test/business/xiaoshuai-sharon-yang</v>
+      </c>
+      <c r="C150" t="str">
+        <v>http://localhost/test/business/xiaoshuai-sharon-yang</v>
+      </c>
+      <c r="D150" t="b">
+        <v>0</v>
+      </c>
+      <c r="E150" t="str">
+        <v>http://localhost/test/business/xiaoshuai-sharon-yang</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H150">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B151" t="str">
+        <v>http://localhost/test/math/leary</v>
+      </c>
+      <c r="C151" t="str">
+        <v>http://localhost/test/math/leary</v>
+      </c>
+      <c r="D151" t="b">
+        <v>0</v>
+      </c>
+      <c r="E151" t="str">
+        <v>http://localhost/test/math/leary</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H151">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B152" t="str">
+        <v>http://localhost/test/political_science/turner</v>
+      </c>
+      <c r="C152" t="str">
+        <v>http://localhost/test/political_science/turner</v>
+      </c>
+      <c r="D152" t="b">
+        <v>0</v>
+      </c>
+      <c r="E152" t="str">
+        <v>http://localhost/test/political_science/turner</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H152">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="153" xml:space="preserve">
+      <c r="A153" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B153" t="str">
+        <v>http://localhost/test/theatre_dance/matthew-nicosia</v>
+      </c>
+      <c r="C153" t="str">
+        <v/>
+      </c>
+      <c r="E153" t="str">
+        <v>http://localhost/test/theatre_dance/matthew-nicosia</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I153" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/theatre_dance/matthew-nicosia
+Call log:
+_x001b_[2m  - navigating to "http://localhost/test/theatre_dance/matthew-nicosia", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="154" xml:space="preserve">
+      <c r="A154" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B154" t="str">
+        <v>http://localhost/test/music/bergevin</v>
+      </c>
+      <c r="C154" t="str">
+        <v/>
+      </c>
+      <c r="E154" t="str">
+        <v>http://localhost/test/music/bergevin</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I154" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/music/bergevin
+Call log:
+_x001b_[2m  - navigating to "http://localhost/test/music/bergevin", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B155" t="str">
+        <v>http://localhost/test/music/kot</v>
+      </c>
+      <c r="C155" t="str">
+        <v>http://localhost/test/music/kot</v>
+      </c>
+      <c r="D155" t="b">
+        <v>0</v>
+      </c>
+      <c r="E155" t="str">
+        <v>http://localhost/test/music/kot</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H155">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B156" t="str">
+        <v>http://localhost/test/business/farooqsheikh</v>
+      </c>
+      <c r="C156" t="str">
+        <v>http://localhost/test/business/farooqsheikh</v>
+      </c>
+      <c r="D156" t="b">
+        <v>0</v>
+      </c>
+      <c r="E156" t="str">
+        <v>http://localhost/test/business/farooqsheikh</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H156">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B157" t="str">
+        <v>http://localhost/test/art_history/bosch</v>
+      </c>
+      <c r="C157" t="str">
+        <v>http://localhost/test/art_history/bosch</v>
+      </c>
+      <c r="D157" t="b">
+        <v>0</v>
+      </c>
+      <c r="E157" t="str">
+        <v>http://localhost/test/art_history/bosch</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H157">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B158" t="str">
+        <v>http://localhost/test/music/jfloriano</v>
+      </c>
+      <c r="C158" t="str">
+        <v>http://localhost/test/music/jfloriano</v>
+      </c>
+      <c r="D158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E158" t="str">
+        <v>http://localhost/test/music/jfloriano</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H158">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B159" t="str">
+        <v>http://localhost/test/music/gfloriano</v>
+      </c>
+      <c r="C159" t="str">
+        <v>http://localhost/test/music/gfloriano</v>
+      </c>
+      <c r="D159" t="b">
+        <v>0</v>
+      </c>
+      <c r="E159" t="str">
+        <v>http://localhost/test/music/gfloriano</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H159">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B160" t="str">
+        <v>http://localhost/test/music/michael-masci</v>
+      </c>
+      <c r="C160" t="str">
+        <v>http://localhost/test/music/michael-masci</v>
+      </c>
+      <c r="D160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E160" t="str">
+        <v>http://localhost/test/music/michael-masci</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H160">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B161" t="str">
+        <v>http://localhost/test/music/golec</v>
+      </c>
+      <c r="C161" t="str">
+        <v>http://localhost/test/music/golec</v>
+      </c>
+      <c r="D161" t="b">
+        <v>0</v>
+      </c>
+      <c r="E161" t="str">
+        <v>http://localhost/test/music/golec</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H161">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="162" xml:space="preserve">
+      <c r="A162" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B162" t="str">
+        <v>http://localhost/test/political_science/hanna-brant</v>
+      </c>
+      <c r="C162" t="str">
+        <v/>
+      </c>
+      <c r="E162" t="str">
+        <v>http://localhost/test/political_science/hanna-brant</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="str">
+        <v>failed</v>
+      </c>
+      <c r="I162" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/political_science/hanna-brant
+Call log:
+_x001b_[2m  - navigating to "http://localhost/test/political_science/hanna-brant", waiting until "domcontentloaded"_x001b_[22m
+</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B163" t="str">
+        <v>http://localhost/test/theatre_dance/jferrell</v>
+      </c>
+      <c r="C163" t="str">
+        <v>http://localhost/test/theatre_dance/jferrell</v>
+      </c>
+      <c r="D163" t="b">
+        <v>0</v>
+      </c>
+      <c r="E163" t="str">
+        <v>http://localhost/test/theatre_dance/jferrell</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H163">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B164" t="str">
+        <v>http://localhost/test/theatre_dance/lancos</v>
+      </c>
+      <c r="C164" t="str">
+        <v>http://localhost/test/theatre_dance/lancos</v>
+      </c>
+      <c r="D164" t="b">
+        <v>0</v>
+      </c>
+      <c r="E164" t="str">
+        <v>http://localhost/test/theatre_dance/lancos</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H164">
         <v>404</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I164"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-artifacts/url-reports/broken-slugs.xlsx
+++ b/test-artifacts/url-reports/broken-slugs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,16 +436,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B2" t="str">
-        <v>http://localhost/test/apca/AcademicPolicies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/AcademicPolicies</v>
       </c>
       <c r="C2" t="str">
-        <v>http://localhost/test/apca/AcademicPolicies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/AcademicPolicies</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>http://localhost/test/apca/AcademicPolicies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/AcademicPolicies</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -462,13 +462,13 @@
         <v>Basic Page</v>
       </c>
       <c r="B3" t="str">
-        <v>http://localhost/test/gened/LOC_OtherWorld</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gened/LOC_OtherWorld</v>
       </c>
       <c r="C3" t="str">
         <v/>
       </c>
       <c r="E3" t="str">
-        <v>http://localhost/test/gened/LOC_OtherWorld</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gened/LOC_OtherWorld</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -477,9 +477,9 @@
         <v>failed</v>
       </c>
       <c r="I3" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/gened/LOC_OtherWorld
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at https://dev-suny-geneseo.pantheonsite.io/gened/LOC_OtherWorld
 Call log:
-_x001b_[2m  - navigating to "http://localhost/test/gened/LOC_OtherWorld", waiting until "domcontentloaded"_x001b_[22m
+_x001b_[2m  - navigating to "https://dev-suny-geneseo.pantheonsite.io/gened/LOC_OtherWorld", waiting until "domcontentloaded"_x001b_[22m
 </v>
       </c>
     </row>
@@ -488,16 +488,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B4" t="str">
-        <v>http://localhost/test/languages_literatures/alumni_resources</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/alumni_resources</v>
       </c>
       <c r="C4" t="str">
-        <v>http://localhost/test/languages_literatures/alumni_resources</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/alumni_resources</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>http://localhost/test/languages_literatures/alumni_resources</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/alumni_resources</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -514,16 +514,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B5" t="str">
-        <v>http://localhost/test/languages_literatures/stay_connected</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/stay_connected</v>
       </c>
       <c r="C5" t="str">
-        <v>http://localhost/test/languages_literatures/stay_connected</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/stay_connected</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>http://localhost/test/languages_literatures/stay_connected</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/stay_connected</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B6" t="str">
-        <v>http://localhost/test/languages_literatures/Willard%20Heller%20receives%20Anthony%20J.%20Papalia%20Award</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/Willard%20Heller%20receives%20Anthony%20J.%20Papalia%20Award</v>
       </c>
       <c r="C6" t="str">
-        <v>http://localhost/test/languages_literatures/Willard%20Heller%20receives%20Anthony%20J.%20Papalia%20Award</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/Willard%20Heller%20receives%20Anthony%20J.%20Papalia%20Award</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6" t="str">
-        <v>http://localhost/test/languages_literatures/Willard%20Heller%20receives%20Anthony%20J.%20Papalia%20Award</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/Willard%20Heller%20receives%20Anthony%20J.%20Papalia%20Award</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -566,16 +566,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B7" t="str">
-        <v>http://localhost/test/oip</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/oip</v>
       </c>
       <c r="C7" t="str">
-        <v>http://localhost/test/oip</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/oip</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>http://localhost/test/oip</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/oip</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -592,16 +592,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B8" t="str">
-        <v>http://localhost/test/police/crime-incident-report</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/police/crime-incident-report</v>
       </c>
       <c r="C8" t="str">
-        <v>http://localhost/test/police/crime-incident-report</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/police/crime-incident-report</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>http://localhost/test/police/crime-incident-report</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/police/crime-incident-report</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -618,16 +618,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B9" t="str">
-        <v>http://localhost/test/pops</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops</v>
       </c>
       <c r="C9" t="str">
-        <v>http://localhost/test/pops</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>http://localhost/test/pops</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -644,16 +644,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B10" t="str">
-        <v>http://localhost/test/pops/drop-vs-launch</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/drop-vs-launch</v>
       </c>
       <c r="C10" t="str">
-        <v>http://localhost/test/pops/drop-vs-launch</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/drop-vs-launch</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>http://localhost/test/pops/drop-vs-launch</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/drop-vs-launch</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -670,16 +670,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B11" t="str">
-        <v>http://localhost/test/pops/generator</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/generator</v>
       </c>
       <c r="C11" t="str">
-        <v>http://localhost/test/pops/generator</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/generator</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>http://localhost/test/pops/generator</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/generator</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -696,16 +696,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B12" t="str">
-        <v>http://localhost/test/pops/lesson-2</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-2</v>
       </c>
       <c r="C12" t="str">
-        <v>http://localhost/test/pops/lesson-2</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-2</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>http://localhost/test/pops/lesson-2</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-2</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -722,16 +722,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B13" t="str">
-        <v>http://localhost/test/pops/lesson-3</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-3</v>
       </c>
       <c r="C13" t="str">
-        <v>http://localhost/test/pops/lesson-3</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-3</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>http://localhost/test/pops/lesson-3</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-3</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -748,16 +748,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B14" t="str">
-        <v>http://localhost/test/pops/lesson-4</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-4</v>
       </c>
       <c r="C14" t="str">
-        <v>http://localhost/test/pops/lesson-4</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-4</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>http://localhost/test/pops/lesson-4</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-4</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -774,16 +774,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B15" t="str">
-        <v>http://localhost/test/pops/lesson-5</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-5</v>
       </c>
       <c r="C15" t="str">
-        <v>http://localhost/test/pops/lesson-5</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-5</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>http://localhost/test/pops/lesson-5</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-5</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -800,16 +800,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B16" t="str">
-        <v>http://localhost/test/pops/partner-school-districts</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/power-physical-science</v>
       </c>
       <c r="C16" t="str">
-        <v>http://localhost/test/pops/partner-school-districts</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/power-physical-science</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>http://localhost/test/pops/partner-school-districts</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/power-physical-science</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -826,16 +826,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B17" t="str">
-        <v>http://localhost/test/pops/power-physical-science</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/partner-school-districts</v>
       </c>
       <c r="C17" t="str">
-        <v>http://localhost/test/pops/power-physical-science</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/partner-school-districts</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>http://localhost/test/pops/power-physical-science</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/partner-school-districts</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -852,16 +852,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B18" t="str">
-        <v>http://localhost/test/pops/references</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/references</v>
       </c>
       <c r="C18" t="str">
-        <v>http://localhost/test/pops/references</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/references</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>http://localhost/test/pops/references</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/references</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -878,16 +878,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B19" t="str">
-        <v>http://localhost/test/president/2015-convocation-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2015-convocation-address</v>
       </c>
       <c r="C19" t="str">
-        <v>http://localhost/test/president/2015-convocation-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2015-convocation-address</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>http://localhost/test/president/2015-convocation-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2015-convocation-address</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -904,16 +904,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B20" t="str">
-        <v>http://localhost/test/president/2016-commencement-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2016-commencement-address</v>
       </c>
       <c r="C20" t="str">
-        <v>http://localhost/test/president/2016-commencement-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2016-commencement-address</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>http://localhost/test/president/2016-commencement-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2016-commencement-address</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -930,16 +930,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B21" t="str">
-        <v>http://localhost/test/president/2016-convocation-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2016-convocation-address</v>
       </c>
       <c r="C21" t="str">
-        <v>http://localhost/test/president/2016-convocation-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2016-convocation-address</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>http://localhost/test/president/2016-convocation-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2016-convocation-address</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -956,16 +956,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B22" t="str">
-        <v>http://localhost/test/president/2017-commencement-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2017-convocation-address</v>
       </c>
       <c r="C22" t="str">
-        <v>http://localhost/test/president/2017-commencement-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2017-convocation-address</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <v>http://localhost/test/president/2017-commencement-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2017-convocation-address</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -982,16 +982,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B23" t="str">
-        <v>http://localhost/test/president/2017-convocation-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2017-commencement-address</v>
       </c>
       <c r="C23" t="str">
-        <v>http://localhost/test/president/2017-convocation-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2017-commencement-address</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>http://localhost/test/president/2017-convocation-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2017-commencement-address</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -1008,16 +1008,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B24" t="str">
-        <v>http://localhost/test/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
       </c>
       <c r="C24" t="str">
-        <v>http://localhost/test/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="str">
-        <v>http://localhost/test/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2019-undergraduate-commencement-remarks-may-18-2019</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -1034,16 +1034,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B25" t="str">
-        <v>http://localhost/test/president/2018-convocation-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2018-convocation-address</v>
       </c>
       <c r="C25" t="str">
-        <v>http://localhost/test/president/2018-convocation-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2018-convocation-address</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <v>http://localhost/test/president/2018-convocation-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2018-convocation-address</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -1060,16 +1060,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B26" t="str">
-        <v>http://localhost/test/president/2018-commencement-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2020-senior-send-remarks-may-16-2020</v>
       </c>
       <c r="C26" t="str">
-        <v>http://localhost/test/president/2018-commencement-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2020-senior-send-remarks-may-16-2020</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <v>http://localhost/test/president/2018-commencement-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2020-senior-send-remarks-may-16-2020</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -1086,16 +1086,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B27" t="str">
-        <v>http://localhost/test/president/2020-senior-send-remarks-may-16-2020</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2018-commencement-address</v>
       </c>
       <c r="C27" t="str">
-        <v>http://localhost/test/president/2020-senior-send-remarks-may-16-2020</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2018-commencement-address</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="str">
-        <v>http://localhost/test/president/2020-senior-send-remarks-may-16-2020</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2018-commencement-address</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -1112,16 +1112,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B28" t="str">
-        <v>http://localhost/test/president/college-council-april-12-2019</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-april-12-2019</v>
       </c>
       <c r="C28" t="str">
-        <v>http://localhost/test/president/college-council-april-12-2019</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-april-12-2019</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="str">
-        <v>http://localhost/test/president/college-council-april-12-2019</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-april-12-2019</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -1138,16 +1138,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B29" t="str">
-        <v>http://localhost/test/president/college-council-april-16-2021</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-april-16-2021</v>
       </c>
       <c r="C29" t="str">
-        <v>http://localhost/test/president/college-council-april-16-2021</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-april-16-2021</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
       </c>
       <c r="E29" t="str">
-        <v>http://localhost/test/president/college-council-april-16-2021</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-april-16-2021</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -1164,16 +1164,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B30" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-december-3-2021</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-december-3-2021</v>
       </c>
       <c r="C30" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-december-3-2021</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-december-3-2021</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
       </c>
       <c r="E30" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-december-3-2021</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-december-3-2021</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -1190,16 +1190,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B31" t="str">
-        <v>http://localhost/test/president/college-council-december-4-2020</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-december-4-2020</v>
       </c>
       <c r="C31" t="str">
-        <v>http://localhost/test/president/college-council-december-4-2020</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-december-4-2020</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="str">
-        <v>http://localhost/test/president/college-council-december-4-2020</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-december-4-2020</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -1216,16 +1216,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B32" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-october-1-2021</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-february-11-2022</v>
       </c>
       <c r="C32" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-october-1-2021</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-february-11-2022</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
       </c>
       <c r="E32" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-october-1-2021</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-february-11-2022</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -1242,16 +1242,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B33" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-february-11-2022</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-october-1-2021</v>
       </c>
       <c r="C33" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-february-11-2022</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-october-1-2021</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-february-11-2022</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-october-1-2021</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -1268,16 +1268,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B34" t="str">
-        <v>http://localhost/test/president/geneseo-150-taking-long-view</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/geneseo-150-taking-long-view</v>
       </c>
       <c r="C34" t="str">
-        <v>http://localhost/test/president/geneseo-150-taking-long-view</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/geneseo-150-taking-long-view</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
       </c>
       <c r="E34" t="str">
-        <v>http://localhost/test/president/geneseo-150-taking-long-view</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/geneseo-150-taking-long-view</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -1294,16 +1294,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B35" t="str">
-        <v>http://localhost/test/president/college-council-october-16-2020</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-october-16-2020</v>
       </c>
       <c r="C35" t="str">
-        <v>http://localhost/test/president/college-council-october-16-2020</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-october-16-2020</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="str">
-        <v>http://localhost/test/president/college-council-october-16-2020</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-october-16-2020</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -1320,16 +1320,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B36" t="str">
-        <v>http://localhost/test/tag/music</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/music</v>
       </c>
       <c r="C36" t="str">
-        <v>http://localhost/test/tag/music</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/music</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
       </c>
       <c r="E36" t="str">
-        <v>http://localhost/test/tag/music</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/music</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B37" t="str">
-        <v>http://localhost/test/theatre_dance/alumni/2006</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/alumni/2006</v>
       </c>
       <c r="C37" t="str">
-        <v>http://localhost/test/theatre_dance/alumni/2006</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/alumni/2006</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
       </c>
       <c r="E37" t="str">
-        <v>http://localhost/test/theatre_dance/alumni/2006</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/alumni/2006</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -1372,16 +1372,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B38" t="str">
-        <v>http://localhost/test/theatre_dance/alumni/1980</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/alumni/1980</v>
       </c>
       <c r="C38" t="str">
-        <v>http://localhost/test/theatre_dance/alumni/1980</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/alumni/1980</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
       </c>
       <c r="E38" t="str">
-        <v>http://localhost/test/theatre_dance/alumni/1980</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/alumni/1980</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -1398,16 +1398,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B39" t="str">
-        <v>http://localhost/test/theatre_dance/scholarships</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
       </c>
       <c r="C39" t="str">
-        <v>http://localhost/test/theatre_dance/scholarships</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="str">
-        <v>http://localhost/test/theatre_dance/scholarships</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -1424,16 +1424,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B40" t="str">
-        <v>http://localhost/test/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/scholarships</v>
       </c>
       <c r="C40" t="str">
-        <v>http://localhost/test/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/scholarships</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
       </c>
       <c r="E40" t="str">
-        <v>http://localhost/test/theatre_dance/broomfield-brings-talents-geneseo-through-suny-faculty-diversity-program</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/scholarships</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -1450,16 +1450,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B41" t="str">
-        <v>http://localhost/test/comparative_literature</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/comparative_literature</v>
       </c>
       <c r="C41" t="str">
-        <v>http://localhost/test/comparative_literature</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/comparative_literature</v>
       </c>
       <c r="D41" t="b">
         <v>0</v>
       </c>
       <c r="E41" t="str">
-        <v>http://localhost/test/comparative_literature</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/comparative_literature</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -1476,16 +1476,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B42" t="str">
-        <v>http://localhost/test/events_office/celebrate-world-kindness-day</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/events_office/celebrate-world-kindness-day</v>
       </c>
       <c r="C42" t="str">
-        <v>http://localhost/test/events_office/celebrate-world-kindness-day</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/events_office/celebrate-world-kindness-day</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="str">
-        <v>http://localhost/test/events_office/celebrate-world-kindness-day</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/events_office/celebrate-world-kindness-day</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -1502,16 +1502,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B43" t="str">
-        <v>http://localhost/test/president/high-expectations-exceptional-outcomes</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/high-expectations-exceptional-outcomes</v>
       </c>
       <c r="C43" t="str">
-        <v>http://localhost/test/president/high-expectations-exceptional-outcomes</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/high-expectations-exceptional-outcomes</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="str">
-        <v>http://localhost/test/president/high-expectations-exceptional-outcomes</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/high-expectations-exceptional-outcomes</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -1528,16 +1528,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B44" t="str">
-        <v>http://localhost/test/tag/humanities-athens-2011</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/humanities-athens-2011</v>
       </c>
       <c r="C44" t="str">
-        <v>http://localhost/test/tag/humanities-athens-2011</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/humanities-athens-2011</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="str">
-        <v>http://localhost/test/tag/humanities-athens-2011</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/humanities-athens-2011</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -1554,16 +1554,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B45" t="str">
-        <v>http://localhost/test/tag/oxford</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/ireland</v>
       </c>
       <c r="C45" t="str">
-        <v>http://localhost/test/tag/oxford</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/ireland</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
       </c>
       <c r="E45" t="str">
-        <v>http://localhost/test/tag/oxford</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/ireland</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -1580,16 +1580,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B46" t="str">
-        <v>http://localhost/test/tag/ireland</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/oxford</v>
       </c>
       <c r="C46" t="str">
-        <v>http://localhost/test/tag/ireland</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/oxford</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="str">
-        <v>http://localhost/test/tag/ireland</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/oxford</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -1606,16 +1606,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B47" t="str">
-        <v>http://localhost/test/theatre_dance/contact2</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/contact2</v>
       </c>
       <c r="C47" t="str">
-        <v>http://localhost/test/theatre_dance/contact2</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/contact2</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="str">
-        <v>http://localhost/test/theatre_dance/contact2</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/contact2</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
@@ -1632,16 +1632,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B48" t="str">
-        <v>http://localhost/test/tag/photos</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/photos</v>
       </c>
       <c r="C48" t="str">
-        <v>http://localhost/test/tag/photos</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/photos</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="str">
-        <v>http://localhost/test/tag/photos</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/tag/photos</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
@@ -1658,16 +1658,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B49" t="str">
-        <v>http://localhost/test/node/6664</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/node/6664</v>
       </c>
       <c r="C49" t="str">
-        <v>http://localhost/test/node/6664</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/node/6664</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="str">
-        <v>http://localhost/test/node/6664</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/node/6664</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -1684,16 +1684,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B50" t="str">
-        <v>http://localhost/test/president/advancing-our-distinction-bold-vision-geneseo</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/advancing-our-distinction-bold-vision-geneseo</v>
       </c>
       <c r="C50" t="str">
-        <v>http://localhost/test/president/advancing-our-distinction-bold-vision-geneseo</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/advancing-our-distinction-bold-vision-geneseo</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="str">
-        <v>http://localhost/test/president/advancing-our-distinction-bold-vision-geneseo</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/advancing-our-distinction-bold-vision-geneseo</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -1710,16 +1710,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B51" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-october-28-2022</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-october-28-2022</v>
       </c>
       <c r="C51" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-october-28-2022</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-october-28-2022</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-october-28-2022</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-october-28-2022</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -1736,16 +1736,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B52" t="str">
-        <v>http://localhost/test/provost/enhance-campus-infrastructure-help-students-navigate-college-wig</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/enhance-campus-infrastructure-help-students-navigate-college-wig</v>
       </c>
       <c r="C52" t="str">
-        <v>http://localhost/test/provost/enhance-campus-infrastructure-help-students-navigate-college-wig</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/enhance-campus-infrastructure-help-students-navigate-college-wig</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="str">
-        <v>http://localhost/test/provost/enhance-campus-infrastructure-help-students-navigate-college-wig</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/enhance-campus-infrastructure-help-students-navigate-college-wig</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -1762,16 +1762,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B53" t="str">
-        <v>http://localhost/test/provost/respond-to-student-stresses-wig</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/respond-to-student-stresses-wig</v>
       </c>
       <c r="C53" t="str">
-        <v>http://localhost/test/provost/respond-to-student-stresses-wig</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/respond-to-student-stresses-wig</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
       </c>
       <c r="E53" t="str">
-        <v>http://localhost/test/provost/respond-to-student-stresses-wig</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/respond-to-student-stresses-wig</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -1788,16 +1788,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B54" t="str">
-        <v>http://localhost/test/art_history</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/art_history</v>
       </c>
       <c r="C54" t="str">
-        <v>http://localhost/test/art_history</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/art_history</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="str">
-        <v>http://localhost/test/art_history</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/art_history</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -1814,16 +1814,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B55" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-december-9-2022</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-december-9-2022</v>
       </c>
       <c r="C55" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-december-9-2022</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-december-9-2022</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
       </c>
       <c r="E55" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-december-9-2022</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-december-9-2022</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -1840,16 +1840,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B56" t="str">
-        <v>http://localhost/test/safety/final_reports</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/safety/final_reports</v>
       </c>
       <c r="C56" t="str">
-        <v>http://localhost/test/safety/final_reports</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/safety/final_reports</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="str">
-        <v>http://localhost/test/safety/final_reports</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/safety/final_reports</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -1866,16 +1866,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B57" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-april-8-2022</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-april-8-2022</v>
       </c>
       <c r="C57" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-april-8-2022</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-april-8-2022</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
       </c>
       <c r="E57" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-april-8-2022</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-april-8-2022</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -1892,16 +1892,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B58" t="str">
-        <v>http://localhost/test/theatre_dance/scholarship-recipients</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/scholarship-recipients</v>
       </c>
       <c r="C58" t="str">
-        <v>http://localhost/test/theatre_dance/scholarship-recipients</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/scholarship-recipients</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
       </c>
       <c r="E58" t="str">
-        <v>http://localhost/test/theatre_dance/scholarship-recipients</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/scholarship-recipients</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
@@ -1918,16 +1918,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B59" t="str">
-        <v>http://localhost/test/president/2021-undergraduate-commencement-remarks</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2021-undergraduate-commencement-remarks</v>
       </c>
       <c r="C59" t="str">
-        <v>http://localhost/test/president/2021-undergraduate-commencement-remarks</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2021-undergraduate-commencement-remarks</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
       </c>
       <c r="E59" t="str">
-        <v>http://localhost/test/president/2021-undergraduate-commencement-remarks</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2021-undergraduate-commencement-remarks</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -1944,16 +1944,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B60" t="str">
-        <v>http://localhost/test/president/2022-undergraduate-commencement-remarks</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2023-undergraduate-commencement-remarks</v>
       </c>
       <c r="C60" t="str">
-        <v>http://localhost/test/president/2022-undergraduate-commencement-remarks</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2023-undergraduate-commencement-remarks</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="str">
-        <v>http://localhost/test/president/2022-undergraduate-commencement-remarks</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2023-undergraduate-commencement-remarks</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B61" t="str">
-        <v>http://localhost/test/president/2023-undergraduate-commencement-remarks</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2022-undergraduate-commencement-remarks</v>
       </c>
       <c r="C61" t="str">
-        <v>http://localhost/test/president/2023-undergraduate-commencement-remarks</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2022-undergraduate-commencement-remarks</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
       </c>
       <c r="E61" t="str">
-        <v>http://localhost/test/president/2023-undergraduate-commencement-remarks</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2022-undergraduate-commencement-remarks</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -1996,16 +1996,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B62" t="str">
-        <v>http://localhost/test/apca/curriculum-links</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/curriculum-links</v>
       </c>
       <c r="C62" t="str">
-        <v>http://localhost/test/apca/curriculum-links</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/curriculum-links</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="str">
-        <v>http://localhost/test/apca/curriculum-links</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/curriculum-links</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -2022,16 +2022,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B63" t="str">
-        <v>http://localhost/test/president/geneseo-redefining-honors-experience</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/geneseo-redefining-honors-experience</v>
       </c>
       <c r="C63" t="str">
-        <v>http://localhost/test/president/geneseo-redefining-honors-experience</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/geneseo-redefining-honors-experience</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
       </c>
       <c r="E63" t="str">
-        <v>http://localhost/test/president/geneseo-redefining-honors-experience</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/geneseo-redefining-honors-experience</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -2048,16 +2048,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B64" t="str">
-        <v>http://localhost/test/lets-talk</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/lets-talk</v>
       </c>
       <c r="C64" t="str">
-        <v>http://localhost/test/lets-talk</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/lets-talk</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
       <c r="E64" t="str">
-        <v>http://localhost/test/lets-talk</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/lets-talk</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -2074,16 +2074,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B65" t="str">
-        <v>http://localhost/test/accessibility-office/how-schedule-test-testing-center</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/accessibility-office/how-schedule-test-testing-center</v>
       </c>
       <c r="C65" t="str">
-        <v>http://localhost/test/accessibility-office/how-schedule-test-testing-center</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/accessibility-office/how-schedule-test-testing-center</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" t="str">
-        <v>http://localhost/test/accessibility-office/how-schedule-test-testing-center</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/accessibility-office/how-schedule-test-testing-center</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
@@ -2100,16 +2100,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B66" t="str">
-        <v>http://localhost/test/lgbtq/alumni-network</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/lgbtq/alumni-network</v>
       </c>
       <c r="C66" t="str">
-        <v>http://localhost/test/lgbtq/alumni-network</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/lgbtq/alumni-network</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="str">
-        <v>http://localhost/test/lgbtq/alumni-network</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/lgbtq/alumni-network</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
@@ -2126,16 +2126,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B67" t="str">
-        <v>http://localhost/test/theatre_dance</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance</v>
       </c>
       <c r="C67" t="str">
-        <v>http://localhost/test/theatre_dance</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
       </c>
       <c r="E67" t="str">
-        <v>http://localhost/test/theatre_dance</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -2152,16 +2152,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B68" t="str">
-        <v>http://localhost/test/sustainability/about-the-commission</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sustainability/about-the-commission</v>
       </c>
       <c r="C68" t="str">
-        <v>http://localhost/test/sustainability/about-the-commission</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sustainability/about-the-commission</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
       </c>
       <c r="E68" t="str">
-        <v>http://localhost/test/sustainability/about-the-commission</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sustainability/about-the-commission</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
@@ -2178,16 +2178,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B69" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-february-10-2023</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-february-10-2023</v>
       </c>
       <c r="C69" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-february-10-2023</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-february-10-2023</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
       </c>
       <c r="E69" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-february-10-2023</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-february-10-2023</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -2204,16 +2204,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B70" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-may-5-2023</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-october-6-2023</v>
       </c>
       <c r="C70" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-may-5-2023</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-october-6-2023</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
       </c>
       <c r="E70" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-may-5-2023</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-october-6-2023</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -2230,16 +2230,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B71" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-october-6-2023</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-may-5-2023</v>
       </c>
       <c r="C71" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-october-6-2023</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-may-5-2023</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
       </c>
       <c r="E71" t="str">
-        <v>http://localhost/test/president/college-council-meeting-minutes-october-6-2023</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/college-council-meeting-minutes-may-5-2023</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
@@ -2256,16 +2256,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B72" t="str">
-        <v>http://localhost/test/business/newsletter</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/newsletter</v>
       </c>
       <c r="C72" t="str">
-        <v>http://localhost/test/business/newsletter</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/newsletter</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
       </c>
       <c r="E72" t="str">
-        <v>http://localhost/test/business/newsletter</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/newsletter</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
@@ -2282,16 +2282,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B73" t="str">
-        <v>http://localhost/test/apca/OnlineCourses</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/OnlineCourses</v>
       </c>
       <c r="C73" t="str">
-        <v>http://localhost/test/apca/OnlineCourses</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/OnlineCourses</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
       </c>
       <c r="E73" t="str">
-        <v>http://localhost/test/apca/OnlineCourses</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/OnlineCourses</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
@@ -2308,16 +2308,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B74" t="str">
-        <v>http://localhost/test/business/school-business-our-commitment-dei</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/school-business-our-commitment-dei</v>
       </c>
       <c r="C74" t="str">
-        <v>http://localhost/test/business/school-business-our-commitment-dei</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/school-business-our-commitment-dei</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
       </c>
       <c r="E74" t="str">
-        <v>http://localhost/test/business/school-business-our-commitment-dei</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/school-business-our-commitment-dei</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
@@ -2334,16 +2334,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B75" t="str">
-        <v>http://localhost/test/apca/CurrPoliRevision</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/CurrPoliRevision</v>
       </c>
       <c r="C75" t="str">
-        <v>http://localhost/test/apca/CurrPoliRevision</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/CurrPoliRevision</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="str">
-        <v>http://localhost/test/apca/CurrPoliRevision</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/CurrPoliRevision</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
@@ -2360,16 +2360,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B76" t="str">
-        <v>http://localhost/test/president/actions-toward-becoming-more-racially-equitable-and-inclusive-college</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/actions-toward-becoming-more-racially-equitable-and-inclusive-college</v>
       </c>
       <c r="C76" t="str">
-        <v>http://localhost/test/president/actions-toward-becoming-more-racially-equitable-and-inclusive-college</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/actions-toward-becoming-more-racially-equitable-and-inclusive-college</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
       </c>
       <c r="E76" t="str">
-        <v>http://localhost/test/president/actions-toward-becoming-more-racially-equitable-and-inclusive-college</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/actions-toward-becoming-more-racially-equitable-and-inclusive-college</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -2386,16 +2386,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B77" t="str">
-        <v>http://localhost/test/president/enduring-power-liberal-arts-education</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/enduring-power-liberal-arts-education</v>
       </c>
       <c r="C77" t="str">
-        <v>http://localhost/test/president/enduring-power-liberal-arts-education</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/enduring-power-liberal-arts-education</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
       </c>
       <c r="E77" t="str">
-        <v>http://localhost/test/president/enduring-power-liberal-arts-education</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/enduring-power-liberal-arts-education</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
@@ -2412,16 +2412,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B78" t="str">
-        <v>http://localhost/test/career-design/contact-career-design-center</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/career-design/contact-career-design-center</v>
       </c>
       <c r="C78" t="str">
-        <v>http://localhost/test/career-design/contact-career-design-center</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/career-design/contact-career-design-center</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="str">
-        <v>http://localhost/test/career-design/contact-career-design-center</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/career-design/contact-career-design-center</v>
       </c>
       <c r="F78" t="b">
         <v>1</v>
@@ -2438,16 +2438,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B79" t="str">
-        <v>http://localhost/test/president/2024-undergraduate-commencement-remarks-may-18-2024</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/ability-completers-be-hired</v>
       </c>
       <c r="C79" t="str">
-        <v>http://localhost/test/president/2024-undergraduate-commencement-remarks-may-18-2024</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/ability-completers-be-hired</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="str">
-        <v>http://localhost/test/president/2024-undergraduate-commencement-remarks-may-18-2024</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/ability-completers-be-hired</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
@@ -2464,16 +2464,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B80" t="str">
-        <v>http://localhost/test/education/ability-completers-be-hired</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2024-undergraduate-commencement-remarks-may-18-2024</v>
       </c>
       <c r="C80" t="str">
-        <v>http://localhost/test/education/ability-completers-be-hired</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2024-undergraduate-commencement-remarks-may-18-2024</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="str">
-        <v>http://localhost/test/education/ability-completers-be-hired</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2024-undergraduate-commencement-remarks-may-18-2024</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
@@ -2490,16 +2490,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B81" t="str">
-        <v>http://localhost/test/apca/assessment-and-curriculum</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/assessment-and-curriculum</v>
       </c>
       <c r="C81" t="str">
-        <v>http://localhost/test/apca/assessment-and-curriculum</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/assessment-and-curriculum</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
       </c>
       <c r="E81" t="str">
-        <v>http://localhost/test/apca/assessment-and-curriculum</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/assessment-and-curriculum</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
@@ -2516,16 +2516,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B82" t="str">
-        <v>http://localhost/test/president/message-president-denise-battles-august-23-2024</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/message-president-denise-battles-august-23-2024</v>
       </c>
       <c r="C82" t="str">
-        <v>http://localhost/test/president/message-president-denise-battles-august-23-2024</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/message-president-denise-battles-august-23-2024</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="str">
-        <v>http://localhost/test/president/message-president-denise-battles-august-23-2024</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/message-president-denise-battles-august-23-2024</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
@@ -2542,16 +2542,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B83" t="str">
-        <v>http://localhost/test/president/presidential-statements</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/presidential-statements</v>
       </c>
       <c r="C83" t="str">
-        <v>http://localhost/test/president/presidential-statements</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/presidential-statements</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="str">
-        <v>http://localhost/test/president/presidential-statements</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/presidential-statements</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
@@ -2568,13 +2568,13 @@
         <v>Basic Page</v>
       </c>
       <c r="B84" t="str">
-        <v>http://localhost/test/apca/graduate_studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/graduate_studies</v>
       </c>
       <c r="C84" t="str">
         <v/>
       </c>
       <c r="E84" t="str">
-        <v>http://localhost/test/apca/graduate_studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/apca/graduate_studies</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
@@ -2583,9 +2583,9 @@
         <v>failed</v>
       </c>
       <c r="I84" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/apca/graduate_studies
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at https://dev-suny-geneseo.pantheonsite.io/apca/graduate_studies
 Call log:
-_x001b_[2m  - navigating to "http://localhost/test/apca/graduate_studies", waiting until "domcontentloaded"_x001b_[22m
+_x001b_[2m  - navigating to "https://dev-suny-geneseo.pantheonsite.io/apca/graduate_studies", waiting until "domcontentloaded"_x001b_[22m
 </v>
       </c>
     </row>
@@ -2594,16 +2594,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B85" t="str">
-        <v>http://localhost/test/sefa/charities-united-way-greater-rocheser-and-finger-lakes</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sefa/charities-united-way-greater-rocheser-and-finger-lakes</v>
       </c>
       <c r="C85" t="str">
-        <v>http://localhost/test/sefa/charities-united-way-greater-rocheser-and-finger-lakes</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sefa/charities-united-way-greater-rocheser-and-finger-lakes</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="str">
-        <v>http://localhost/test/sefa/charities-united-way-greater-rocheser-and-finger-lakes</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sefa/charities-united-way-greater-rocheser-and-finger-lakes</v>
       </c>
       <c r="F85" t="b">
         <v>1</v>
@@ -2620,16 +2620,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B86" t="str">
-        <v>http://localhost/test/sefa/letters-support</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sefa/letters-support</v>
       </c>
       <c r="C86" t="str">
-        <v>http://localhost/test/sefa/letters-support</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sefa/letters-support</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
       </c>
       <c r="E86" t="str">
-        <v>http://localhost/test/sefa/letters-support</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sefa/letters-support</v>
       </c>
       <c r="F86" t="b">
         <v>1</v>
@@ -2646,16 +2646,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B87" t="str">
-        <v>http://localhost/test/student_employment/student-faq</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/student_employment/student-faq</v>
       </c>
       <c r="C87" t="str">
-        <v>http://localhost/test/student_employment/student-faq</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/student_employment/student-faq</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
       </c>
       <c r="E87" t="str">
-        <v>http://localhost/test/student_employment/student-faq</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/student_employment/student-faq</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
@@ -2672,16 +2672,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B88" t="str">
-        <v>http://localhost/test/education/call-third-party-comment</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/call-third-party-comment</v>
       </c>
       <c r="C88" t="str">
-        <v>http://localhost/test/education/call-third-party-comment</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/call-third-party-comment</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="str">
-        <v>http://localhost/test/education/call-third-party-comment</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/call-third-party-comment</v>
       </c>
       <c r="F88" t="b">
         <v>1</v>
@@ -2698,16 +2698,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B89" t="str">
-        <v>http://localhost/test/cit/telephone</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cit/telephone</v>
       </c>
       <c r="C89" t="str">
-        <v>http://localhost/test/cit/telephone</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cit/telephone</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" t="str">
-        <v>http://localhost/test/cit/telephone</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cit/telephone</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
@@ -2724,16 +2724,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B90" t="str">
-        <v>http://localhost/test/writing-program/meet-our-wlc-tutors</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/writing-program/meet-our-wlc-tutors</v>
       </c>
       <c r="C90" t="str">
-        <v>http://localhost/test/writing-program/meet-our-wlc-tutors</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/writing-program/meet-our-wlc-tutors</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
       </c>
       <c r="E90" t="str">
-        <v>http://localhost/test/writing-program/meet-our-wlc-tutors</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/writing-program/meet-our-wlc-tutors</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
@@ -2750,16 +2750,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B91" t="str">
-        <v>http://localhost/test/international/international-student-scholar-services-office</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/international/international-student-scholar-services-office</v>
       </c>
       <c r="C91" t="str">
-        <v>http://localhost/test/international/international-student-scholar-services-office</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/international/international-student-scholar-services-office</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="str">
-        <v>http://localhost/test/international/international-student-scholar-services-office</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/international/international-student-scholar-services-office</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
@@ -2776,16 +2776,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B92" t="str">
-        <v>http://localhost/test/uaa/leadership-council-directory-fall-2024</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/uaa/leadership-council-directory-fall-2024</v>
       </c>
       <c r="C92" t="str">
-        <v>http://localhost/test/uaa/leadership-council-directory-fall-2024</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/uaa/leadership-council-directory-fall-2024</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="str">
-        <v>http://localhost/test/uaa/leadership-council-directory-fall-2024</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/uaa/leadership-council-directory-fall-2024</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
@@ -2802,16 +2802,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B93" t="str">
-        <v>http://localhost/test/ehs</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ehs</v>
       </c>
       <c r="C93" t="str">
-        <v>http://localhost/test/ehs</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ehs</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
       </c>
       <c r="E93" t="str">
-        <v>http://localhost/test/ehs</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ehs</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
@@ -2828,16 +2828,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B94" t="str">
-        <v>http://localhost/test/theatre_dance/alumni</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/alumni</v>
       </c>
       <c r="C94" t="str">
-        <v>http://localhost/test/theatre_dance/alumni</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/alumni</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" t="str">
-        <v>http://localhost/test/theatre_dance/alumni</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/alumni</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
@@ -2854,16 +2854,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B95" t="str">
-        <v>http://localhost/test/student_employment</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/student_employment</v>
       </c>
       <c r="C95" t="str">
-        <v>http://localhost/test/student_employment</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/student_employment</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="str">
-        <v>http://localhost/test/student_employment</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/student_employment</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
@@ -2880,16 +2880,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B96" t="str">
-        <v>http://localhost/test/political_science</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/political_science</v>
       </c>
       <c r="C96" t="str">
-        <v>http://localhost/test/political_science</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/political_science</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="str">
-        <v>http://localhost/test/political_science</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/political_science</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
@@ -2906,16 +2906,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B97" t="str">
-        <v>http://localhost/test/advising/current-dean-and-president-lists</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/advising/current-dean-and-president-lists</v>
       </c>
       <c r="C97" t="str">
-        <v>http://localhost/test/advising/current-dean-and-president-lists</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/advising/current-dean-and-president-lists</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="str">
-        <v>http://localhost/test/advising/current-dean-and-president-lists</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/advising/current-dean-and-president-lists</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
@@ -2932,16 +2932,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B98" t="str">
-        <v>http://localhost/test/music/certificate-programs-music</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/certificate-programs-music</v>
       </c>
       <c r="C98" t="str">
-        <v>http://localhost/test/music/certificate-programs-music</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/certificate-programs-music</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="str">
-        <v>http://localhost/test/music/certificate-programs-music</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/certificate-programs-music</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
@@ -2958,13 +2958,13 @@
         <v>Basic Page</v>
       </c>
       <c r="B99" t="str">
-        <v>http://localhost/test/gened/LOC_Lang</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gened/LOC_Lang</v>
       </c>
       <c r="C99" t="str">
         <v/>
       </c>
       <c r="E99" t="str">
-        <v>http://localhost/test/gened/LOC_Lang</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gened/LOC_Lang</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
@@ -2973,9 +2973,9 @@
         <v>failed</v>
       </c>
       <c r="I99" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/gened/LOC_Lang
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at https://dev-suny-geneseo.pantheonsite.io/gened/LOC_Lang
 Call log:
-_x001b_[2m  - navigating to "http://localhost/test/gened/LOC_Lang", waiting until "domcontentloaded"_x001b_[22m
+_x001b_[2m  - navigating to "https://dev-suny-geneseo.pantheonsite.io/gened/LOC_Lang", waiting until "domcontentloaded"_x001b_[22m
 </v>
       </c>
     </row>
@@ -2984,16 +2984,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B100" t="str">
-        <v>http://localhost/test/president/tribute-president-dahl</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/tribute-president-dahl</v>
       </c>
       <c r="C100" t="str">
-        <v>http://localhost/test/president/tribute-president-dahl</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/tribute-president-dahl</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" t="str">
-        <v>http://localhost/test/president/tribute-president-dahl</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/tribute-president-dahl</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
@@ -3010,16 +3010,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B101" t="str">
-        <v>http://localhost/test/sociology/sociology-alumni-0</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sociology/sociology-alumni-0</v>
       </c>
       <c r="C101" t="str">
-        <v>http://localhost/test/sociology/sociology-alumni-0</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sociology/sociology-alumni-0</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" t="str">
-        <v>http://localhost/test/sociology/sociology-alumni-0</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sociology/sociology-alumni-0</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
@@ -3036,16 +3036,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B102" t="str">
-        <v>http://localhost/test/residence-life/move-information-spring-2025</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/residence-life/move-information-spring-2025</v>
       </c>
       <c r="C102" t="str">
-        <v>http://localhost/test/residence-life/move-information-spring-2025</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/residence-life/move-information-spring-2025</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
       </c>
       <c r="E102" t="str">
-        <v>http://localhost/test/residence-life/move-information-spring-2025</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/residence-life/move-information-spring-2025</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
@@ -3062,16 +3062,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B103" t="str">
-        <v>http://localhost/test/education/accreditation-process/candidate-competency-completion</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/accreditation-process/candidate-competency-completion</v>
       </c>
       <c r="C103" t="str">
-        <v>http://localhost/test/education/accreditation-process/candidate-competency-completion</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/accreditation-process/candidate-competency-completion</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
       </c>
       <c r="E103" t="str">
-        <v>http://localhost/test/education/accreditation-process/candidate-competency-completion</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/accreditation-process/candidate-competency-completion</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
@@ -3088,16 +3088,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B104" t="str">
-        <v>http://localhost/test/education/accreditation-process/completer-effectiveness</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/accreditation-process/completer-effectiveness</v>
       </c>
       <c r="C104" t="str">
-        <v>http://localhost/test/education/accreditation-process/completer-effectiveness</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/accreditation-process/completer-effectiveness</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104" t="str">
-        <v>http://localhost/test/education/accreditation-process/completer-effectiveness</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/accreditation-process/completer-effectiveness</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
@@ -3114,16 +3114,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B105" t="str">
-        <v>http://localhost/test/education/accreditation-process/satisfaction-employers-and-stakeholder-involvement</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/accreditation-process/satisfaction-employers-and-stakeholder-involvement</v>
       </c>
       <c r="C105" t="str">
-        <v>http://localhost/test/education/accreditation-process/satisfaction-employers-and-stakeholder-involvement</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/accreditation-process/satisfaction-employers-and-stakeholder-involvement</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
       </c>
       <c r="E105" t="str">
-        <v>http://localhost/test/education/accreditation-process/satisfaction-employers-and-stakeholder-involvement</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/accreditation-process/satisfaction-employers-and-stakeholder-involvement</v>
       </c>
       <c r="F105" t="b">
         <v>1</v>
@@ -3140,16 +3140,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B106" t="str">
-        <v>http://localhost/test/sociomedical_sciences/study-abroadaway-sociomedical-sciences-student</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sociomedical_sciences/study-abroadaway-sociomedical-sciences-student</v>
       </c>
       <c r="C106" t="str">
-        <v>http://localhost/test/sociomedical_sciences/study-abroadaway-sociomedical-sciences-student</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sociomedical_sciences/study-abroadaway-sociomedical-sciences-student</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
       </c>
       <c r="E106" t="str">
-        <v>http://localhost/test/sociomedical_sciences/study-abroadaway-sociomedical-sciences-student</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sociomedical_sciences/study-abroadaway-sociomedical-sciences-student</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
@@ -3166,16 +3166,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B107" t="str">
-        <v>http://localhost/test/writing-program/writing-learning-center</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/writing-program/writing-learning-center</v>
       </c>
       <c r="C107" t="str">
-        <v>http://localhost/test/writing-program/writing-learning-center</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/writing-program/writing-learning-center</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
       </c>
       <c r="E107" t="str">
-        <v>http://localhost/test/writing-program/writing-learning-center</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/writing-program/writing-learning-center</v>
       </c>
       <c r="F107" t="b">
         <v>1</v>
@@ -3192,16 +3192,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B108" t="str">
-        <v>http://localhost/test/president/addresses</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/opening-convocation-address-geneseo-generations</v>
       </c>
       <c r="C108" t="str">
-        <v>http://localhost/test/president/addresses</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/opening-convocation-address-geneseo-generations</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
       </c>
       <c r="E108" t="str">
-        <v>http://localhost/test/president/addresses</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/opening-convocation-address-geneseo-generations</v>
       </c>
       <c r="F108" t="b">
         <v>1</v>
@@ -3218,16 +3218,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B109" t="str">
-        <v>http://localhost/test/president/opening-convocation-address-geneseo-generations</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/addresses</v>
       </c>
       <c r="C109" t="str">
-        <v>http://localhost/test/president/opening-convocation-address-geneseo-generations</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/addresses</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
       </c>
       <c r="E109" t="str">
-        <v>http://localhost/test/president/opening-convocation-address-geneseo-generations</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/addresses</v>
       </c>
       <c r="F109" t="b">
         <v>1</v>
@@ -3244,16 +3244,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B110" t="str">
-        <v>http://localhost/test/admissions/essay-elevate-ibee-summer-essay-workshop</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/essay-elevate-ibee-summer-essay-workshop</v>
       </c>
       <c r="C110" t="str">
-        <v>http://localhost/test/admissions/essay-elevate-ibee-summer-essay-workshop</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/essay-elevate-ibee-summer-essay-workshop</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
       </c>
       <c r="E110" t="str">
-        <v>http://localhost/test/admissions/essay-elevate-ibee-summer-essay-workshop</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/admissions/essay-elevate-ibee-summer-essay-workshop</v>
       </c>
       <c r="F110" t="b">
         <v>1</v>
@@ -3265,21 +3265,18 @@
         <v>404</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" xml:space="preserve">
       <c r="A111" t="str">
         <v>Basic Page</v>
       </c>
       <c r="B111" t="str">
-        <v>http://localhost/test/cas/sushi-platters</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/diversity/cultivating-community</v>
       </c>
       <c r="C111" t="str">
-        <v>http://localhost/test/cas/sushi-platters</v>
-      </c>
-      <c r="D111" t="b">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E111" t="str">
-        <v>http://localhost/test/cas/sushi-platters</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/diversity/cultivating-community</v>
       </c>
       <c r="F111" t="b">
         <v>1</v>
@@ -3287,8 +3284,11 @@
       <c r="G111" t="str">
         <v>failed</v>
       </c>
-      <c r="H111">
-        <v>404</v>
+      <c r="I111" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: net::ERR_NETWORK_CHANGED at https://dev-suny-geneseo.pantheonsite.io/diversity/cultivating-community
+Call log:
+_x001b_[2m  - navigating to "https://dev-suny-geneseo.pantheonsite.io/diversity/cultivating-community", waiting until "domcontentloaded"_x001b_[22m
+</v>
       </c>
     </row>
     <row r="112">
@@ -3296,16 +3296,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B112" t="str">
-        <v>http://localhost/test/languages_literatures/Nosotros%20-%20About%20us</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cas/sushi-platters</v>
       </c>
       <c r="C112" t="str">
-        <v>http://localhost/test/languages_literatures/Nosotros%20-%20About%20us</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cas/sushi-platters</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
       </c>
       <c r="E112" t="str">
-        <v>http://localhost/test/languages_literatures/Nosotros%20-%20About%20us</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cas/sushi-platters</v>
       </c>
       <c r="F112" t="b">
         <v>1</v>
@@ -3322,16 +3322,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B113" t="str">
-        <v>http://localhost/test/president/2015-inaugural-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/Nosotros%20-%20About%20us</v>
       </c>
       <c r="C113" t="str">
-        <v>http://localhost/test/president/2015-inaugural-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/Nosotros%20-%20About%20us</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
       </c>
       <c r="E113" t="str">
-        <v>http://localhost/test/president/2015-inaugural-address</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/languages_literatures/Nosotros%20-%20About%20us</v>
       </c>
       <c r="F113" t="b">
         <v>1</v>
@@ -3343,18 +3343,21 @@
         <v>404</v>
       </c>
     </row>
-    <row r="114" xml:space="preserve">
+    <row r="114">
       <c r="A114" t="str">
         <v>Basic Page</v>
       </c>
       <c r="B114" t="str">
-        <v>http://localhost/test/comparative_literature/faq</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2015-inaugural-address</v>
       </c>
       <c r="C114" t="str">
-        <v/>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2015-inaugural-address</v>
+      </c>
+      <c r="D114" t="b">
+        <v>0</v>
       </c>
       <c r="E114" t="str">
-        <v>http://localhost/test/comparative_literature/faq</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/president/2015-inaugural-address</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
@@ -3362,11 +3365,8 @@
       <c r="G114" t="str">
         <v>failed</v>
       </c>
-      <c r="I114" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/comparative_literature/faq
-Call log:
-_x001b_[2m  - navigating to "http://localhost/test/comparative_literature/faq", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H114">
+        <v>404</v>
       </c>
     </row>
     <row r="115" xml:space="preserve">
@@ -3374,13 +3374,13 @@
         <v>Basic Page</v>
       </c>
       <c r="B115" t="str">
-        <v>http://localhost/test/gened/LOC_Writing</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/comparative_literature/faq</v>
       </c>
       <c r="C115" t="str">
         <v/>
       </c>
       <c r="E115" t="str">
-        <v>http://localhost/test/gened/LOC_Writing</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/comparative_literature/faq</v>
       </c>
       <c r="F115" t="b">
         <v>1</v>
@@ -3389,27 +3389,24 @@
         <v>failed</v>
       </c>
       <c r="I115" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/gened/LOC_Writing
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at https://dev-suny-geneseo.pantheonsite.io/comparative_literature/faq
 Call log:
-_x001b_[2m  - navigating to "http://localhost/test/gened/LOC_Writing", waiting until "domcontentloaded"_x001b_[22m
+_x001b_[2m  - navigating to "https://dev-suny-geneseo.pantheonsite.io/comparative_literature/faq", waiting until "domcontentloaded"_x001b_[22m
 </v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" xml:space="preserve">
       <c r="A116" t="str">
         <v>Basic Page</v>
       </c>
       <c r="B116" t="str">
-        <v>http://localhost/test/pops/lesson-6</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gened/LOC_Writing</v>
       </c>
       <c r="C116" t="str">
-        <v>http://localhost/test/pops/lesson-6</v>
-      </c>
-      <c r="D116" t="b">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E116" t="str">
-        <v>http://localhost/test/pops/lesson-6</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gened/LOC_Writing</v>
       </c>
       <c r="F116" t="b">
         <v>1</v>
@@ -3417,8 +3414,11 @@
       <c r="G116" t="str">
         <v>failed</v>
       </c>
-      <c r="H116">
-        <v>404</v>
+      <c r="I116" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at https://dev-suny-geneseo.pantheonsite.io/gened/LOC_Writing
+Call log:
+_x001b_[2m  - navigating to "https://dev-suny-geneseo.pantheonsite.io/gened/LOC_Writing", waiting until "domcontentloaded"_x001b_[22m
+</v>
       </c>
     </row>
     <row r="117">
@@ -3426,16 +3426,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B117" t="str">
-        <v>http://localhost/test/pops/state-standards</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-6</v>
       </c>
       <c r="C117" t="str">
-        <v>http://localhost/test/pops/state-standards</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-6</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="str">
-        <v>http://localhost/test/pops/state-standards</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/lesson-6</v>
       </c>
       <c r="F117" t="b">
         <v>1</v>
@@ -3452,16 +3452,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B118" t="str">
-        <v>http://localhost/test/ire/institutional-research-discovery-dashboards</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/state-standards</v>
       </c>
       <c r="C118" t="str">
-        <v>http://localhost/test/ire/institutional-research-discovery-dashboards</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/state-standards</v>
       </c>
       <c r="D118" t="b">
         <v>0</v>
       </c>
       <c r="E118" t="str">
-        <v>http://localhost/test/ire/institutional-research-discovery-dashboards</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/pops/state-standards</v>
       </c>
       <c r="F118" t="b">
         <v>1</v>
@@ -3478,16 +3478,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B119" t="str">
-        <v>http://localhost/test/cil/explore-ial-experiences</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ire/institutional-research-discovery-dashboards</v>
       </c>
       <c r="C119" t="str">
-        <v>http://localhost/test/cil/explore-ial-experiences</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ire/institutional-research-discovery-dashboards</v>
       </c>
       <c r="D119" t="b">
         <v>0</v>
       </c>
       <c r="E119" t="str">
-        <v>http://localhost/test/cil/explore-ial-experiences</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/ire/institutional-research-discovery-dashboards</v>
       </c>
       <c r="F119" t="b">
         <v>1</v>
@@ -3504,16 +3504,16 @@
         <v>Basic Page</v>
       </c>
       <c r="B120" t="str">
-        <v>http://localhost/test/volunteer_center/pantry-coordinators</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cil/explore-ial-experiences</v>
       </c>
       <c r="C120" t="str">
-        <v>http://localhost/test/volunteer_center/pantry-coordinators</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cil/explore-ial-experiences</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
       </c>
       <c r="E120" t="str">
-        <v>http://localhost/test/volunteer_center/pantry-coordinators</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/cil/explore-ial-experiences</v>
       </c>
       <c r="F120" t="b">
         <v>1</v>
@@ -3527,19 +3527,19 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Advanced Page</v>
+        <v>Basic Page</v>
       </c>
       <c r="B121" t="str">
-        <v>http://localhost/test/global-languages-cultures/global-languages-cultures-department-news</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/volunteer_center/pantry-coordinators</v>
       </c>
       <c r="C121" t="str">
-        <v>http://localhost/test/global-languages-cultures/global-languages-cultures-department-news</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/volunteer_center/pantry-coordinators</v>
       </c>
       <c r="D121" t="b">
         <v>0</v>
       </c>
       <c r="E121" t="str">
-        <v>http://localhost/test/global-languages-cultures/global-languages-cultures-department-news</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/volunteer_center/pantry-coordinators</v>
       </c>
       <c r="F121" t="b">
         <v>1</v>
@@ -3553,19 +3553,19 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Academic Program Page</v>
+        <v>Advanced Page</v>
       </c>
       <c r="B122" t="str">
-        <v>http://localhost/test/academic-program-finder/womens-and-gender-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/global-languages-cultures/global-languages-cultures-department-news</v>
       </c>
       <c r="C122" t="str">
-        <v>http://localhost/test/academic-program-finder/womens-and-gender-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/global-languages-cultures/global-languages-cultures-department-news</v>
       </c>
       <c r="D122" t="b">
         <v>0</v>
       </c>
       <c r="E122" t="str">
-        <v>http://localhost/test/academic-program-finder/womens-and-gender-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/global-languages-cultures/global-languages-cultures-department-news</v>
       </c>
       <c r="F122" t="b">
         <v>1</v>
@@ -3579,19 +3579,19 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Department News</v>
+        <v>Academic Program Page</v>
       </c>
       <c r="B123" t="str">
-        <v>http://localhost/test/theatre_dance/randy-barbara-kaplan-included-rochester-women-who-changed-world-exhibit</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/womens-and-gender-studies</v>
       </c>
       <c r="C123" t="str">
-        <v>http://localhost/test/theatre_dance/randy-barbara-kaplan-included-rochester-women-who-changed-world-exhibit</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/womens-and-gender-studies</v>
       </c>
       <c r="D123" t="b">
         <v>0</v>
       </c>
       <c r="E123" t="str">
-        <v>http://localhost/test/theatre_dance/randy-barbara-kaplan-included-rochester-women-who-changed-world-exhibit</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/womens-and-gender-studies</v>
       </c>
       <c r="F123" t="b">
         <v>1</v>
@@ -3608,16 +3608,16 @@
         <v>Department News</v>
       </c>
       <c r="B124" t="str">
-        <v>http://localhost/test/theatre_dance/well-known-actor-bd-wong-shows-support-genseng</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/well-known-actor-bd-wong-shows-support-genseng</v>
       </c>
       <c r="C124" t="str">
-        <v>http://localhost/test/theatre_dance/well-known-actor-bd-wong-shows-support-genseng</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/well-known-actor-bd-wong-shows-support-genseng</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
       </c>
       <c r="E124" t="str">
-        <v>http://localhost/test/theatre_dance/well-known-actor-bd-wong-shows-support-genseng</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/well-known-actor-bd-wong-shows-support-genseng</v>
       </c>
       <c r="F124" t="b">
         <v>1</v>
@@ -3634,16 +3634,16 @@
         <v>Department News</v>
       </c>
       <c r="B125" t="str">
-        <v>http://localhost/test/global-languages-cultures/supporting-ukraine-diversity-summit-0</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/randy-barbara-kaplan-included-rochester-women-who-changed-world-exhibit</v>
       </c>
       <c r="C125" t="str">
-        <v>http://localhost/test/global-languages-cultures/supporting-ukraine-diversity-summit-0</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/randy-barbara-kaplan-included-rochester-women-who-changed-world-exhibit</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="str">
-        <v>http://localhost/test/global-languages-cultures/supporting-ukraine-diversity-summit-0</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/randy-barbara-kaplan-included-rochester-women-who-changed-world-exhibit</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
@@ -3660,16 +3660,16 @@
         <v>Department News</v>
       </c>
       <c r="B126" t="str">
-        <v>http://localhost/test/provost/geneseo-dance-department-students-attend-suny-undergraduate-research-conference</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/global-languages-cultures/supporting-ukraine-diversity-summit-0</v>
       </c>
       <c r="C126" t="str">
-        <v>http://localhost/test/provost/geneseo-dance-department-students-attend-suny-undergraduate-research-conference</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/global-languages-cultures/supporting-ukraine-diversity-summit-0</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="str">
-        <v>http://localhost/test/provost/geneseo-dance-department-students-attend-suny-undergraduate-research-conference</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/global-languages-cultures/supporting-ukraine-diversity-summit-0</v>
       </c>
       <c r="F126" t="b">
         <v>1</v>
@@ -3683,19 +3683,19 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>News Article</v>
+        <v>Department News</v>
       </c>
       <c r="B127" t="str">
-        <v>http://localhost/test/news/creative-writing-student-earns-fulbright-award-israel</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/geneseo-dance-department-students-attend-suny-undergraduate-research-conference</v>
       </c>
       <c r="C127" t="str">
-        <v>http://localhost/test/news/creative-writing-student-earns-fulbright-award-israel</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/geneseo-dance-department-students-attend-suny-undergraduate-research-conference</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
       </c>
       <c r="E127" t="str">
-        <v>http://localhost/test/news/creative-writing-student-earns-fulbright-award-israel</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/geneseo-dance-department-students-attend-suny-undergraduate-research-conference</v>
       </c>
       <c r="F127" t="b">
         <v>1</v>
@@ -3709,19 +3709,19 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Personal Page</v>
+        <v>News Article</v>
       </c>
       <c r="B128" t="str">
-        <v>http://localhost/test/theatre_dance/cferrell</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/news/creative-writing-student-earns-fulbright-award-israel</v>
       </c>
       <c r="C128" t="str">
-        <v>http://localhost/test/theatre_dance/cferrell</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/news/creative-writing-student-earns-fulbright-award-israel</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="str">
-        <v>http://localhost/test/theatre_dance/cferrell</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/news/creative-writing-student-earns-fulbright-award-israel</v>
       </c>
       <c r="F128" t="b">
         <v>1</v>
@@ -3738,16 +3738,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B129" t="str">
-        <v>http://localhost/test/theatre_dance/mccausland</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/cferrell</v>
       </c>
       <c r="C129" t="str">
-        <v>http://localhost/test/theatre_dance/mccausland</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/cferrell</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="str">
-        <v>http://localhost/test/theatre_dance/mccausland</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/cferrell</v>
       </c>
       <c r="F129" t="b">
         <v>1</v>
@@ -3764,16 +3764,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B130" t="str">
-        <v>http://localhost/test/theatre_dance/wesp</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/wesp</v>
       </c>
       <c r="C130" t="str">
-        <v>http://localhost/test/theatre_dance/wesp</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/wesp</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
       </c>
       <c r="E130" t="str">
-        <v>http://localhost/test/theatre_dance/wesp</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/wesp</v>
       </c>
       <c r="F130" t="b">
         <v>1</v>
@@ -3790,16 +3790,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B131" t="str">
-        <v>http://localhost/test/math/christopher-leary</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/mccausland</v>
       </c>
       <c r="C131" t="str">
-        <v>http://localhost/test/math/christopher-leary</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/mccausland</v>
       </c>
       <c r="D131" t="b">
         <v>0</v>
       </c>
       <c r="E131" t="str">
-        <v>http://localhost/test/math/christopher-leary</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/mccausland</v>
       </c>
       <c r="F131" t="b">
         <v>1</v>
@@ -3816,16 +3816,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B132" t="str">
-        <v>http://localhost/test/business/rozbeh-madadi</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/math/christopher-leary</v>
       </c>
       <c r="C132" t="str">
-        <v>http://localhost/test/business/rozbeh-madadi</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/math/christopher-leary</v>
       </c>
       <c r="D132" t="b">
         <v>0</v>
       </c>
       <c r="E132" t="str">
-        <v>http://localhost/test/business/rozbeh-madadi</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/math/christopher-leary</v>
       </c>
       <c r="F132" t="b">
         <v>1</v>
@@ -3842,16 +3842,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B133" t="str">
-        <v>http://localhost/test/business/jeffrey-donlon</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/rozbeh-madadi</v>
       </c>
       <c r="C133" t="str">
-        <v>http://localhost/test/business/jeffrey-donlon</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/rozbeh-madadi</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
       </c>
       <c r="E133" t="str">
-        <v>http://localhost/test/business/jeffrey-donlon</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/rozbeh-madadi</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
@@ -3868,16 +3868,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B134" t="str">
-        <v>http://localhost/test/business/stephen-miskell</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/jeffrey-donlon</v>
       </c>
       <c r="C134" t="str">
-        <v>http://localhost/test/business/stephen-miskell</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/jeffrey-donlon</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
       </c>
       <c r="E134" t="str">
-        <v>http://localhost/test/business/stephen-miskell</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/jeffrey-donlon</v>
       </c>
       <c r="F134" t="b">
         <v>1</v>
@@ -3894,16 +3894,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B135" t="str">
-        <v>http://localhost/test/node/84669</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/stephen-miskell</v>
       </c>
       <c r="C135" t="str">
-        <v>http://localhost/test/node/84669</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/stephen-miskell</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135" t="str">
-        <v>http://localhost/test/node/84669</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/stephen-miskell</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
@@ -3920,16 +3920,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B136" t="str">
-        <v>http://localhost/test/communication/sarah-devito</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/node/84669</v>
       </c>
       <c r="C136" t="str">
-        <v>http://localhost/test/communication/sarah-devito</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/node/84669</v>
       </c>
       <c r="D136" t="b">
         <v>0</v>
       </c>
       <c r="E136" t="str">
-        <v>http://localhost/test/communication/sarah-devito</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/node/84669</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
@@ -3946,16 +3946,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B137" t="str">
-        <v>http://localhost/test/chang</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/communication/sarah-devito</v>
       </c>
       <c r="C137" t="str">
-        <v>http://localhost/test/chang</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/communication/sarah-devito</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137" t="str">
-        <v>http://localhost/test/chang</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/communication/sarah-devito</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
@@ -3972,16 +3972,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B138" t="str">
-        <v>http://localhost/test/music/russell-scarbrough</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/chang</v>
       </c>
       <c r="C138" t="str">
-        <v>http://localhost/test/music/russell-scarbrough</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/chang</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138" t="str">
-        <v>http://localhost/test/music/russell-scarbrough</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/chang</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
@@ -3998,16 +3998,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B139" t="str">
-        <v>http://localhost/test/music/nathan-ukens</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/russell-scarbrough</v>
       </c>
       <c r="C139" t="str">
-        <v>http://localhost/test/music/nathan-ukens</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/russell-scarbrough</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="str">
-        <v>http://localhost/test/music/nathan-ukens</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/russell-scarbrough</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
@@ -4024,16 +4024,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B140" t="str">
-        <v>http://localhost/test/residence-life/philip-brookes</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/nathan-ukens</v>
       </c>
       <c r="C140" t="str">
-        <v>http://localhost/test/residence-life/philip-brookes</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/nathan-ukens</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="str">
-        <v>http://localhost/test/residence-life/philip-brookes</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/nathan-ukens</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
@@ -4050,16 +4050,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B141" t="str">
-        <v>http://localhost/test/provost/mary-c-toale</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/residence-life/philip-brookes</v>
       </c>
       <c r="C141" t="str">
-        <v>http://localhost/test/provost/mary-c-toale</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/residence-life/philip-brookes</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
       </c>
       <c r="E141" t="str">
-        <v>http://localhost/test/provost/mary-c-toale</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/residence-life/philip-brookes</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
@@ -4076,16 +4076,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B142" t="str">
-        <v>http://localhost/test/music/tiller</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/tiller</v>
       </c>
       <c r="C142" t="str">
-        <v>http://localhost/test/music/tiller</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/tiller</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
       </c>
       <c r="E142" t="str">
-        <v>http://localhost/test/music/tiller</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/tiller</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
@@ -4102,16 +4102,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B143" t="str">
-        <v>http://localhost/test/music/tiberio</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/mary-c-toale</v>
       </c>
       <c r="C143" t="str">
-        <v>http://localhost/test/music/tiberio</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/mary-c-toale</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
       </c>
       <c r="E143" t="str">
-        <v>http://localhost/test/music/tiberio</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/provost/mary-c-toale</v>
       </c>
       <c r="F143" t="b">
         <v>1</v>
@@ -4128,16 +4128,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B144" t="str">
-        <v>http://localhost/test/psychology/anjoo-sikka</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/tiberio</v>
       </c>
       <c r="C144" t="str">
-        <v>http://localhost/test/psychology/anjoo-sikka</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/tiberio</v>
       </c>
       <c r="D144" t="b">
         <v>0</v>
       </c>
       <c r="E144" t="str">
-        <v>http://localhost/test/psychology/anjoo-sikka</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/tiberio</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
@@ -4154,16 +4154,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B145" t="str">
-        <v>http://localhost/test/global-languages-cultures/isaac-veysey-white</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/psychology/anjoo-sikka</v>
       </c>
       <c r="C145" t="str">
-        <v>http://localhost/test/global-languages-cultures/isaac-veysey-white</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/psychology/anjoo-sikka</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
       </c>
       <c r="E145" t="str">
-        <v>http://localhost/test/global-languages-cultures/isaac-veysey-white</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/psychology/anjoo-sikka</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
@@ -4180,16 +4180,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B146" t="str">
-        <v>http://localhost/test/sociology/anne-eisenberg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/global-languages-cultures/isaac-veysey-white</v>
       </c>
       <c r="C146" t="str">
-        <v>http://localhost/test/sociology/anne-eisenberg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/global-languages-cultures/isaac-veysey-white</v>
       </c>
       <c r="D146" t="b">
         <v>0</v>
       </c>
       <c r="E146" t="str">
-        <v>http://localhost/test/sociology/anne-eisenberg</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/global-languages-cultures/isaac-veysey-white</v>
       </c>
       <c r="F146" t="b">
         <v>1</v>
@@ -4206,16 +4206,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B147" t="str">
-        <v>http://localhost/test/education/morgan</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sociology/anne-eisenberg</v>
       </c>
       <c r="C147" t="str">
-        <v>http://localhost/test/education/morgan</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sociology/anne-eisenberg</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="str">
-        <v>http://localhost/test/education/morgan</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/sociology/anne-eisenberg</v>
       </c>
       <c r="F147" t="b">
         <v>1</v>
@@ -4232,16 +4232,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B148" t="str">
-        <v>http://localhost/test/music/sholl</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/morgan</v>
       </c>
       <c r="C148" t="str">
-        <v>http://localhost/test/music/sholl</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/morgan</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" t="str">
-        <v>http://localhost/test/music/sholl</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/education/morgan</v>
       </c>
       <c r="F148" t="b">
         <v>1</v>
@@ -4258,16 +4258,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B149" t="str">
-        <v>http://localhost/test/gsc/andrew-hart</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/sholl</v>
       </c>
       <c r="C149" t="str">
-        <v>http://localhost/test/gsc/andrew-hart</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/sholl</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
       </c>
       <c r="E149" t="str">
-        <v>http://localhost/test/gsc/andrew-hart</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/sholl</v>
       </c>
       <c r="F149" t="b">
         <v>1</v>
@@ -4284,16 +4284,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B150" t="str">
-        <v>http://localhost/test/business/xiaoshuai-sharon-yang</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gsc/andrew-hart</v>
       </c>
       <c r="C150" t="str">
-        <v>http://localhost/test/business/xiaoshuai-sharon-yang</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gsc/andrew-hart</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
       </c>
       <c r="E150" t="str">
-        <v>http://localhost/test/business/xiaoshuai-sharon-yang</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/gsc/andrew-hart</v>
       </c>
       <c r="F150" t="b">
         <v>1</v>
@@ -4310,16 +4310,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B151" t="str">
-        <v>http://localhost/test/math/leary</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/xiaoshuai-sharon-yang</v>
       </c>
       <c r="C151" t="str">
-        <v>http://localhost/test/math/leary</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/xiaoshuai-sharon-yang</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
       </c>
       <c r="E151" t="str">
-        <v>http://localhost/test/math/leary</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/xiaoshuai-sharon-yang</v>
       </c>
       <c r="F151" t="b">
         <v>1</v>
@@ -4336,16 +4336,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B152" t="str">
-        <v>http://localhost/test/political_science/turner</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/math/leary</v>
       </c>
       <c r="C152" t="str">
-        <v>http://localhost/test/political_science/turner</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/math/leary</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
       </c>
       <c r="E152" t="str">
-        <v>http://localhost/test/political_science/turner</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/math/leary</v>
       </c>
       <c r="F152" t="b">
         <v>1</v>
@@ -4357,18 +4357,21 @@
         <v>404</v>
       </c>
     </row>
-    <row r="153" xml:space="preserve">
+    <row r="153">
       <c r="A153" t="str">
         <v>Personal Page</v>
       </c>
       <c r="B153" t="str">
-        <v>http://localhost/test/theatre_dance/matthew-nicosia</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/political_science/turner</v>
       </c>
       <c r="C153" t="str">
-        <v/>
+        <v>https://dev-suny-geneseo.pantheonsite.io/political_science/turner</v>
+      </c>
+      <c r="D153" t="b">
+        <v>0</v>
       </c>
       <c r="E153" t="str">
-        <v>http://localhost/test/theatre_dance/matthew-nicosia</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/political_science/turner</v>
       </c>
       <c r="F153" t="b">
         <v>1</v>
@@ -4376,11 +4379,8 @@
       <c r="G153" t="str">
         <v>failed</v>
       </c>
-      <c r="I153" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/theatre_dance/matthew-nicosia
-Call log:
-_x001b_[2m  - navigating to "http://localhost/test/theatre_dance/matthew-nicosia", waiting until "domcontentloaded"_x001b_[22m
-</v>
+      <c r="H153">
+        <v>404</v>
       </c>
     </row>
     <row r="154" xml:space="preserve">
@@ -4388,13 +4388,13 @@
         <v>Personal Page</v>
       </c>
       <c r="B154" t="str">
-        <v>http://localhost/test/music/bergevin</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/matthew-nicosia</v>
       </c>
       <c r="C154" t="str">
         <v/>
       </c>
       <c r="E154" t="str">
-        <v>http://localhost/test/music/bergevin</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/matthew-nicosia</v>
       </c>
       <c r="F154" t="b">
         <v>1</v>
@@ -4403,27 +4403,24 @@
         <v>failed</v>
       </c>
       <c r="I154" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/music/bergevin
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at https://dev-suny-geneseo.pantheonsite.io/theatre_dance/matthew-nicosia
 Call log:
-_x001b_[2m  - navigating to "http://localhost/test/music/bergevin", waiting until "domcontentloaded"_x001b_[22m
+_x001b_[2m  - navigating to "https://dev-suny-geneseo.pantheonsite.io/theatre_dance/matthew-nicosia", waiting until "domcontentloaded"_x001b_[22m
 </v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" xml:space="preserve">
       <c r="A155" t="str">
         <v>Personal Page</v>
       </c>
       <c r="B155" t="str">
-        <v>http://localhost/test/music/kot</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/bergevin</v>
       </c>
       <c r="C155" t="str">
-        <v>http://localhost/test/music/kot</v>
-      </c>
-      <c r="D155" t="b">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E155" t="str">
-        <v>http://localhost/test/music/kot</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/bergevin</v>
       </c>
       <c r="F155" t="b">
         <v>1</v>
@@ -4431,8 +4428,11 @@
       <c r="G155" t="str">
         <v>failed</v>
       </c>
-      <c r="H155">
-        <v>404</v>
+      <c r="I155" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at https://dev-suny-geneseo.pantheonsite.io/music/bergevin
+Call log:
+_x001b_[2m  - navigating to "https://dev-suny-geneseo.pantheonsite.io/music/bergevin", waiting until "domcontentloaded"_x001b_[22m
+</v>
       </c>
     </row>
     <row r="156">
@@ -4440,16 +4440,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B156" t="str">
-        <v>http://localhost/test/business/farooqsheikh</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/kot</v>
       </c>
       <c r="C156" t="str">
-        <v>http://localhost/test/business/farooqsheikh</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/kot</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
       </c>
       <c r="E156" t="str">
-        <v>http://localhost/test/business/farooqsheikh</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/kot</v>
       </c>
       <c r="F156" t="b">
         <v>1</v>
@@ -4466,16 +4466,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B157" t="str">
-        <v>http://localhost/test/art_history/bosch</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/farooqsheikh</v>
       </c>
       <c r="C157" t="str">
-        <v>http://localhost/test/art_history/bosch</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/farooqsheikh</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
       </c>
       <c r="E157" t="str">
-        <v>http://localhost/test/art_history/bosch</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/business/farooqsheikh</v>
       </c>
       <c r="F157" t="b">
         <v>1</v>
@@ -4492,16 +4492,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B158" t="str">
-        <v>http://localhost/test/music/jfloriano</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/art_history/bosch</v>
       </c>
       <c r="C158" t="str">
-        <v>http://localhost/test/music/jfloriano</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/art_history/bosch</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
       </c>
       <c r="E158" t="str">
-        <v>http://localhost/test/music/jfloriano</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/art_history/bosch</v>
       </c>
       <c r="F158" t="b">
         <v>1</v>
@@ -4518,16 +4518,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B159" t="str">
-        <v>http://localhost/test/music/gfloriano</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/jfloriano</v>
       </c>
       <c r="C159" t="str">
-        <v>http://localhost/test/music/gfloriano</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/jfloriano</v>
       </c>
       <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159" t="str">
-        <v>http://localhost/test/music/gfloriano</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/jfloriano</v>
       </c>
       <c r="F159" t="b">
         <v>1</v>
@@ -4544,16 +4544,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B160" t="str">
-        <v>http://localhost/test/music/michael-masci</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/michael-masci</v>
       </c>
       <c r="C160" t="str">
-        <v>http://localhost/test/music/michael-masci</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/michael-masci</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
       </c>
       <c r="E160" t="str">
-        <v>http://localhost/test/music/michael-masci</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/michael-masci</v>
       </c>
       <c r="F160" t="b">
         <v>1</v>
@@ -4570,16 +4570,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B161" t="str">
-        <v>http://localhost/test/music/golec</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/gfloriano</v>
       </c>
       <c r="C161" t="str">
-        <v>http://localhost/test/music/golec</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/gfloriano</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="str">
-        <v>http://localhost/test/music/golec</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/gfloriano</v>
       </c>
       <c r="F161" t="b">
         <v>1</v>
@@ -4591,18 +4591,21 @@
         <v>404</v>
       </c>
     </row>
-    <row r="162" xml:space="preserve">
+    <row r="162">
       <c r="A162" t="str">
         <v>Personal Page</v>
       </c>
       <c r="B162" t="str">
-        <v>http://localhost/test/political_science/hanna-brant</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/golec</v>
       </c>
       <c r="C162" t="str">
-        <v/>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/golec</v>
+      </c>
+      <c r="D162" t="b">
+        <v>0</v>
       </c>
       <c r="E162" t="str">
-        <v>http://localhost/test/political_science/hanna-brant</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/music/golec</v>
       </c>
       <c r="F162" t="b">
         <v>1</v>
@@ -4610,28 +4613,22 @@
       <c r="G162" t="str">
         <v>failed</v>
       </c>
-      <c r="I162" t="str" xml:space="preserve">
-        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at http://localhost/test/political_science/hanna-brant
-Call log:
-_x001b_[2m  - navigating to "http://localhost/test/political_science/hanna-brant", waiting until "domcontentloaded"_x001b_[22m
-</v>
-      </c>
-    </row>
-    <row r="163">
+      <c r="H162">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="163" xml:space="preserve">
       <c r="A163" t="str">
         <v>Personal Page</v>
       </c>
       <c r="B163" t="str">
-        <v>http://localhost/test/theatre_dance/jferrell</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/political_science/hanna-brant</v>
       </c>
       <c r="C163" t="str">
-        <v>http://localhost/test/theatre_dance/jferrell</v>
-      </c>
-      <c r="D163" t="b">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E163" t="str">
-        <v>http://localhost/test/theatre_dance/jferrell</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/political_science/hanna-brant</v>
       </c>
       <c r="F163" t="b">
         <v>1</v>
@@ -4639,8 +4636,11 @@
       <c r="G163" t="str">
         <v>failed</v>
       </c>
-      <c r="H163">
-        <v>404</v>
+      <c r="I163" t="str" xml:space="preserve">
+        <v xml:space="preserve">page.goto: net::ERR_TOO_MANY_REDIRECTS at https://dev-suny-geneseo.pantheonsite.io/political_science/hanna-brant
+Call log:
+_x001b_[2m  - navigating to "https://dev-suny-geneseo.pantheonsite.io/political_science/hanna-brant", waiting until "domcontentloaded"_x001b_[22m
+</v>
       </c>
     </row>
     <row r="164">
@@ -4648,16 +4648,16 @@
         <v>Personal Page</v>
       </c>
       <c r="B164" t="str">
-        <v>http://localhost/test/theatre_dance/lancos</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/jferrell</v>
       </c>
       <c r="C164" t="str">
-        <v>http://localhost/test/theatre_dance/lancos</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/jferrell</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
       </c>
       <c r="E164" t="str">
-        <v>http://localhost/test/theatre_dance/lancos</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/jferrell</v>
       </c>
       <c r="F164" t="b">
         <v>1</v>
@@ -4666,12 +4666,38 @@
         <v>failed</v>
       </c>
       <c r="H164">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Personal Page</v>
+      </c>
+      <c r="B165" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/lancos</v>
+      </c>
+      <c r="C165" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/lancos</v>
+      </c>
+      <c r="D165" t="b">
+        <v>0</v>
+      </c>
+      <c r="E165" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/lancos</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H165">
         <v>404</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I164"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I165"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-artifacts/url-reports/broken-slugs.xlsx
+++ b/test-artifacts/url-reports/broken-slugs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>https://www.linkedin.com/company/suny-geneseo</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>failed</v>
       </c>
       <c r="H2">
-        <v>999</v>
+        <v>404</v>
       </c>
       <c r="I2" t="str">
         <v>Failed to load child link</v>
@@ -465,10 +465,10 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B3" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cognitive-science</v>
       </c>
       <c r="C3" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cognitive-science</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -494,16 +494,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B4" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cognitive-science</v>
       </c>
       <c r="C4" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cognitive-science</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+        <v>https://www.facebook.com/SUNYGeneseo</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>failed</v>
       </c>
       <c r="H4">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I4" t="str">
         <v>Failed to load child link</v>
@@ -523,16 +523,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B5" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cognitive-science</v>
       </c>
       <c r="C5" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cognitive-science</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v>https://www.facebook.com/SUNYGeneseo</v>
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>failed</v>
       </c>
       <c r="H5">
-        <v>400</v>
+        <v>999</v>
       </c>
       <c r="I5" t="str">
         <v>Failed to load child link</v>
@@ -552,10 +552,10 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B6" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cognitive-science</v>
       </c>
       <c r="C6" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cognitive-science</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -581,16 +581,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B7" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/black-and-africana-studies</v>
       </c>
       <c r="C7" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/black-and-africana-studies</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sites/default/files/sites/biology/BIOL%20393%20BIOLOGY%20HONORS.pdf</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -610,16 +610,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B8" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/entrepreneurship</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/black-and-africana-studies</v>
       </c>
       <c r="C8" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/entrepreneurship</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/black-and-africana-studies</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/%5Chttps://connect.geneseo.edu/register/?id=7cdfeef0-d3d0-4b2d-b5dd-5a1154ea2b4e&amp;sys:field:expected_interest=27803de6-6d6d-4f72-9b80-7d55a063d425</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B9" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/black-and-africana-studies</v>
       </c>
       <c r="C9" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/black-and-africana-studies</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sites/default/files/sites/business/Clarkson%204%2B1.pdf</v>
+        <v>https://www.facebook.com/SUNYGeneseo</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>failed</v>
       </c>
       <c r="H9">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I9" t="str">
         <v>Failed to load child link</v>
@@ -668,16 +668,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B10" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/data-analytics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/black-and-africana-studies</v>
       </c>
       <c r="C10" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/data-analytics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/black-and-africana-studies</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10" t="str">
-        <v>https://program%20options%20%20bs%20in%20data%20analytics/</v>
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -685,11 +685,11 @@
       <c r="G10" t="str">
         <v>failed</v>
       </c>
-      <c r="H10" t="str">
-        <v>FETCH_ERROR</v>
+      <c r="H10">
+        <v>999</v>
       </c>
       <c r="I10" t="str">
-        <v>Failed to parse URL from https://program%20options%20%20bs%20in%20data%20analytics/</v>
+        <v>Failed to load child link</v>
       </c>
     </row>
     <row r="11">
@@ -697,16 +697,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B11" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/finance</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/black-and-africana-studies</v>
       </c>
       <c r="C11" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/finance</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/black-and-africana-studies</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cjain@geneseo.edu</v>
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -726,16 +726,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B12" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/latin-american-and-caribbean-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
       </c>
       <c r="C12" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/latin-american-and-caribbean-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/node/7882</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -755,16 +755,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B13" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/jazz-and-american-music-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
       </c>
       <c r="C13" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/jazz-and-american-music-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/music/instrumental-ensembles</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -784,16 +784,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B14" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/jazz-and-american-music-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
       </c>
       <c r="C14" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/jazz-and-american-music-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>https://bulletin.geneseo.edu/preview_program.php?catoid=24&amp;poid=2603&amp;returnto=1108</v>
+        <v>https://www.facebook.com/SUNYGeneseo</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>failed</v>
       </c>
       <c r="H14">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I14" t="str">
         <v>Failed to load child link</v>
@@ -813,16 +813,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B15" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/music-conducting</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
       </c>
       <c r="C15" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/music-conducting</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/music/audition-information-music-ba-performance-track</v>
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>failed</v>
       </c>
       <c r="H15">
-        <v>404</v>
+        <v>999</v>
       </c>
       <c r="I15" t="str">
         <v>Failed to load child link</v>
@@ -842,16 +842,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B16" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/theatre</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
       </c>
       <c r="C16" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/theatre</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astronomy</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/theatre_dance/theatre_concentration</v>
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B17" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/individualized-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting</v>
       </c>
       <c r="C17" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/individualized-studies</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <v>https://connect.geneseo.edu/register/?id=1533ec14-09ac-4d1d-a0be-676baabf786ahttps://connect.geneseo.edu/register/?id=7cdfeef0-d3d0-4b2d-b5dd-5a1154ea2b4e&amp;sys:field:expected_interest=1676b82d-1ce8-4b3f-94b1-2b4ad1ba90a8https://connect.geneseo.edu/register/?id=7cdfeef0-d3d0-4b2d-b5dd-5a1154ea2b4e&amp;sys:field:expected_interest=1676b82d-1ce8-4b3f-94b1-2b4ad1ba90a8</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>failed</v>
       </c>
       <c r="H17">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="I17" t="str">
         <v>Failed to load child link</v>
@@ -900,16 +900,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B18" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/french</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting</v>
       </c>
       <c r="C18" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/french</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/evans@geneseo.edu</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -929,16 +929,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B19" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/english</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting</v>
       </c>
       <c r="C19" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/english</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/english/writing_center</v>
+        <v>https://www.facebook.com/SUNYGeneseo</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>failed</v>
       </c>
       <c r="H19">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I19" t="str">
         <v>Failed to load child link</v>
@@ -958,16 +958,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B20" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/comparative-literature</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting</v>
       </c>
       <c r="C20" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/comparative-literature</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/%5Chttps://connect.geneseo.edu/register/?id=7cdfeef0-d3d0-4b2d-b5dd-5a1154ea2b4e&amp;sys:field:expected_interest=4ef5f42e-054c-45d0-80f6-7c77846e5a1b</v>
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -976,7 +976,7 @@
         <v>failed</v>
       </c>
       <c r="H20">
-        <v>404</v>
+        <v>999</v>
       </c>
       <c r="I20" t="str">
         <v>Failed to load child link</v>
@@ -987,16 +987,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B21" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/early-childhood-and-childhood-education</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting</v>
       </c>
       <c r="C21" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/early-childhood-and-childhood-education</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/accounting</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/sjo@geneseo.edu</v>
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1016,16 +1016,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B22" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/adolescence-education</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
       </c>
       <c r="C22" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/adolescence-education</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/granger@geneseo.edu</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1045,16 +1045,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B23" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/teaching-students-disabilities-childhood-education</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
       </c>
       <c r="C23" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/teaching-students-disabilities-childhood-education</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/salmon@geneseo.edu</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B24" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mathematics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
       </c>
       <c r="C24" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mathematics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sites/default/files/sites/math/topics-courses/MATH380-Aguilar.pdf</v>
+        <v>https://www.facebook.com/SUNYGeneseo</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>failed</v>
       </c>
       <c r="H24">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I24" t="str">
         <v>Failed to load child link</v>
@@ -1103,16 +1103,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B25" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mathematics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
       </c>
       <c r="C25" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mathematics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/sites/default/files/sites/math/topics-courses/math380-applied-linear-algebra-fall2019.pdf</v>
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>failed</v>
       </c>
       <c r="H25">
-        <v>404</v>
+        <v>999</v>
       </c>
       <c r="I25" t="str">
         <v>Failed to load child link</v>
@@ -1132,16 +1132,16 @@
         <v>Academic Program Page</v>
       </c>
       <c r="B26" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mathematics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
       </c>
       <c r="C26" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mathematics</v>
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/art-history</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="str">
-        <v>https://dev-suny-geneseo.pantheonsite.io/~johannes/380syminfo.html</v>
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1153,12 +1153,2245 @@
         <v>404</v>
       </c>
       <c r="I26" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B27" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astrophysics</v>
+      </c>
+      <c r="C27" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astrophysics</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H27">
+        <v>404</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B28" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astrophysics</v>
+      </c>
+      <c r="C28" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astrophysics</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H28">
+        <v>404</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B29" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astrophysics</v>
+      </c>
+      <c r="C29" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astrophysics</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H29">
+        <v>400</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B30" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astrophysics</v>
+      </c>
+      <c r="C30" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astrophysics</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H30">
+        <v>999</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B31" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astrophysics</v>
+      </c>
+      <c r="C31" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/astrophysics</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H31">
+        <v>404</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B32" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/business-studies</v>
+      </c>
+      <c r="C32" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/business-studies</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H32">
+        <v>404</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B33" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/business-studies</v>
+      </c>
+      <c r="C33" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/business-studies</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H33">
+        <v>404</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B34" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/business-studies</v>
+      </c>
+      <c r="C34" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/business-studies</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H34">
+        <v>400</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B35" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/business-studies</v>
+      </c>
+      <c r="C35" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/business-studies</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H35">
+        <v>999</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B36" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/business-studies</v>
+      </c>
+      <c r="C36" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/business-studies</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H36">
+        <v>404</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B37" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology</v>
+      </c>
+      <c r="C37" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H37">
+        <v>404</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B38" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology</v>
+      </c>
+      <c r="C38" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H38">
+        <v>404</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B39" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology</v>
+      </c>
+      <c r="C39" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H39">
+        <v>400</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B40" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology</v>
+      </c>
+      <c r="C40" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H40">
+        <v>999</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B41" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology</v>
+      </c>
+      <c r="C41" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/anthropology</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H41">
+        <v>404</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B42" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-mathematics</v>
+      </c>
+      <c r="C42" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-mathematics</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H42">
+        <v>404</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B43" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-mathematics</v>
+      </c>
+      <c r="C43" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-mathematics</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H43">
+        <v>404</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B44" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-mathematics</v>
+      </c>
+      <c r="C44" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-mathematics</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H44">
+        <v>400</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B45" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-mathematics</v>
+      </c>
+      <c r="C45" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-mathematics</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H45">
+        <v>999</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B46" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-mathematics</v>
+      </c>
+      <c r="C46" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-mathematics</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H46">
+        <v>404</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B47" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry</v>
+      </c>
+      <c r="C47" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H47">
+        <v>404</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B48" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry</v>
+      </c>
+      <c r="C48" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H48">
+        <v>404</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B49" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry</v>
+      </c>
+      <c r="C49" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H49">
+        <v>400</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B50" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry</v>
+      </c>
+      <c r="C50" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H50">
+        <v>999</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B51" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry</v>
+      </c>
+      <c r="C51" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biochemistry</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H51">
+        <v>404</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B52" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-physics</v>
+      </c>
+      <c r="C52" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-physics</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H52">
+        <v>404</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B53" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-physics</v>
+      </c>
+      <c r="C53" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-physics</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H53">
+        <v>404</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B54" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-physics</v>
+      </c>
+      <c r="C54" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-physics</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H54">
+        <v>400</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B55" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-physics</v>
+      </c>
+      <c r="C55" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-physics</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H55">
+        <v>999</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B56" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-physics</v>
+      </c>
+      <c r="C56" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/applied-physics</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H56">
+        <v>404</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B57" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+      </c>
+      <c r="C57" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sites/default/files/sites/biology/BIOL%20393%20BIOLOGY%20HONORS.pdf</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H57">
+        <v>404</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B58" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+      </c>
+      <c r="C58" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H58">
+        <v>404</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B59" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+      </c>
+      <c r="C59" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H59">
+        <v>404</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B60" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+      </c>
+      <c r="C60" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H60">
+        <v>400</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B61" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+      </c>
+      <c r="C61" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H61">
+        <v>999</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B62" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+      </c>
+      <c r="C62" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biology</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H62">
+        <v>404</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B63" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cultural-studies-41</v>
+      </c>
+      <c r="C63" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cultural-studies-41</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H63">
+        <v>404</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B64" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cultural-studies-41</v>
+      </c>
+      <c r="C64" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cultural-studies-41</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H64">
+        <v>404</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B65" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cultural-studies-41</v>
+      </c>
+      <c r="C65" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cultural-studies-41</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H65">
+        <v>400</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B66" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cultural-studies-41</v>
+      </c>
+      <c r="C66" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cultural-studies-41</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H66">
+        <v>999</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B67" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cultural-studies-41</v>
+      </c>
+      <c r="C67" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/cultural-studies-41</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H67">
+        <v>404</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B68" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/conflict-studies</v>
+      </c>
+      <c r="C68" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/conflict-studies</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H68">
+        <v>404</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B69" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/conflict-studies</v>
+      </c>
+      <c r="C69" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/conflict-studies</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H69">
+        <v>404</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B70" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/conflict-studies</v>
+      </c>
+      <c r="C70" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/conflict-studies</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H70">
+        <v>400</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B71" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/conflict-studies</v>
+      </c>
+      <c r="C71" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/conflict-studies</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H71">
+        <v>999</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B72" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/conflict-studies</v>
+      </c>
+      <c r="C72" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/conflict-studies</v>
+      </c>
+      <c r="D72" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H72">
+        <v>404</v>
+      </c>
+      <c r="I72" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B73" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dance</v>
+      </c>
+      <c r="C73" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dance</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H73">
+        <v>404</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B74" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dance</v>
+      </c>
+      <c r="C74" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dance</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H74">
+        <v>404</v>
+      </c>
+      <c r="I74" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B75" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dance</v>
+      </c>
+      <c r="C75" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dance</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H75">
+        <v>400</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B76" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dance</v>
+      </c>
+      <c r="C76" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dance</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H76">
+        <v>999</v>
+      </c>
+      <c r="I76" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B77" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dance</v>
+      </c>
+      <c r="C77" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/dance</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H77">
+        <v>404</v>
+      </c>
+      <c r="I77" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B78" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biophysics</v>
+      </c>
+      <c r="C78" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biophysics</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H78">
+        <v>404</v>
+      </c>
+      <c r="I78" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B79" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biophysics</v>
+      </c>
+      <c r="C79" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biophysics</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H79">
+        <v>404</v>
+      </c>
+      <c r="I79" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B80" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biophysics</v>
+      </c>
+      <c r="C80" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biophysics</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H80">
+        <v>400</v>
+      </c>
+      <c r="I80" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B81" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biophysics</v>
+      </c>
+      <c r="C81" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biophysics</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H81">
+        <v>999</v>
+      </c>
+      <c r="I81" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B82" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biophysics</v>
+      </c>
+      <c r="C82" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/biophysics</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H82">
+        <v>404</v>
+      </c>
+      <c r="I82" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B83" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="C83" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/sites/default/files/sites/business/Clarkson%204%2B1.pdf</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H83">
+        <v>404</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B84" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="C84" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H84">
+        <v>404</v>
+      </c>
+      <c r="I84" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B85" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="C85" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H85">
+        <v>404</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B86" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="C86" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H86">
+        <v>400</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B87" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="C87" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H87">
+        <v>999</v>
+      </c>
+      <c r="I87" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B88" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="C88" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/mba-41</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F88" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H88">
+        <v>404</v>
+      </c>
+      <c r="I88" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B89" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/economics</v>
+      </c>
+      <c r="C89" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/economics</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H89">
+        <v>404</v>
+      </c>
+      <c r="I89" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B90" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/economics</v>
+      </c>
+      <c r="C90" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/economics</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H90">
+        <v>404</v>
+      </c>
+      <c r="I90" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B91" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/economics</v>
+      </c>
+      <c r="C91" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/economics</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H91">
+        <v>400</v>
+      </c>
+      <c r="I91" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B92" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/economics</v>
+      </c>
+      <c r="C92" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/economics</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H92">
+        <v>999</v>
+      </c>
+      <c r="I92" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B93" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/economics</v>
+      </c>
+      <c r="C93" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/economics</v>
+      </c>
+      <c r="D93" t="b">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H93">
+        <v>404</v>
+      </c>
+      <c r="I93" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B94" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication</v>
+      </c>
+      <c r="C94" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H94">
+        <v>404</v>
+      </c>
+      <c r="I94" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B95" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication</v>
+      </c>
+      <c r="C95" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication</v>
+      </c>
+      <c r="D95" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H95">
+        <v>404</v>
+      </c>
+      <c r="I95" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B96" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication</v>
+      </c>
+      <c r="C96" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication</v>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H96">
+        <v>400</v>
+      </c>
+      <c r="I96" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B97" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication</v>
+      </c>
+      <c r="C97" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H97">
+        <v>999</v>
+      </c>
+      <c r="I97" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B98" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication</v>
+      </c>
+      <c r="C98" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/communication</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H98">
+        <v>404</v>
+      </c>
+      <c r="I98" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B99" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/chemistry</v>
+      </c>
+      <c r="C99" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/chemistry</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/about/accessibility-information/</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H99">
+        <v>404</v>
+      </c>
+      <c r="I99" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B100" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/chemistry</v>
+      </c>
+      <c r="C100" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/chemistry</v>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/website-help-tools/</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H100">
+        <v>404</v>
+      </c>
+      <c r="I100" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B101" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/chemistry</v>
+      </c>
+      <c r="C101" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/chemistry</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
+      </c>
+      <c r="E101" t="str">
+        <v>https://www.facebook.com/SUNYGeneseo</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H101">
+        <v>400</v>
+      </c>
+      <c r="I101" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B102" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/chemistry</v>
+      </c>
+      <c r="C102" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/chemistry</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="str">
+        <v>https://www.linkedin.com/company/suny-geneseo</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H102">
+        <v>999</v>
+      </c>
+      <c r="I102" t="str">
+        <v>Failed to load child link</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>Academic Program Page</v>
+      </c>
+      <c r="B103" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/chemistry</v>
+      </c>
+      <c r="C103" t="str">
+        <v>https://dev-suny-geneseo.pantheonsite.io/academic-program-finder/chemistry</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="str">
+        <v>https://bsky.app/profile/sunygeneseo.bsky.social</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="str">
+        <v>failed</v>
+      </c>
+      <c r="H103">
+        <v>404</v>
+      </c>
+      <c r="I103" t="str">
         <v>Failed to load child link</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I103"/>
   </ignoredErrors>
 </worksheet>
 </file>